--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44771</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43647</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>44789</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44021</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44387</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43538</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>43635</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44021</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44546</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44559</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44572</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44662</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44727</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45006</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>45076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43573</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>44376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>44858</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45092</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>44376</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44474</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44531</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>44739</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>44998</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>45002</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>45016</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45054</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43508</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43846</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>43882</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44077</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44235</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44529</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44610</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>44644</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44874</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44874</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44967</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45055</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>45063</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45092</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>45154</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         <v>43462</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         <v>43742</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43959</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7371,7 +7371,7 @@
         <v>44090</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7461,7 +7461,7 @@
         <v>44154</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7546,7 +7546,7 @@
         <v>44369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
         <v>44439</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>44445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>44455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>44455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
         <v>44501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44501</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>44509</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
         <v>44511</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8326,7 +8326,7 @@
         <v>44517</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8411,7 +8411,7 @@
         <v>44536</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>44571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         <v>44606</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>44607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>44712</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8841,7 +8841,7 @@
         <v>44728</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8931,7 +8931,7 @@
         <v>44742</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9016,7 +9016,7 @@
         <v>44779</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9105,7 +9105,7 @@
         <v>44796</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44874</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9375,7 +9375,7 @@
         <v>44875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>45013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9630,7 +9630,7 @@
         <v>45021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9720,7 +9720,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9814,7 +9814,7 @@
         <v>45048</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>45070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10259,7 +10259,7 @@
         <v>45071</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10344,7 +10344,7 @@
         <v>45075</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10429,7 +10429,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10514,7 +10514,7 @@
         <v>45093</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>45107</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10689,7 +10689,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>45135</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10864,7 +10864,7 @@
         <v>43320</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
         <v>43327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10978,7 +10978,7 @@
         <v>43343</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11040,7 +11040,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>43360</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>43376</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11278,7 +11278,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11335,7 +11335,7 @@
         <v>43381</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         <v>43384</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11454,7 +11454,7 @@
         <v>43398</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11511,7 +11511,7 @@
         <v>43410</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>43423</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>43430</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11863,7 +11863,7 @@
         <v>43432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>43448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11987,7 +11987,7 @@
         <v>43453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12044,7 +12044,7 @@
         <v>43468</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12101,7 +12101,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12158,7 +12158,7 @@
         <v>43469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12272,7 +12272,7 @@
         <v>43472</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12329,7 +12329,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12391,7 +12391,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12510,7 +12510,7 @@
         <v>43473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12567,7 +12567,7 @@
         <v>43474</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>43476</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>43479</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12862,7 +12862,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>43480</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>43482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>43483</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13323,7 +13323,7 @@
         <v>43484</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13380,7 +13380,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13437,7 +13437,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13494,7 +13494,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13551,7 +13551,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13608,7 +13608,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13665,7 +13665,7 @@
         <v>43486</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>43487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>43489</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>43493</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>43495</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>43500</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14463,7 +14463,7 @@
         <v>43502</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14520,7 +14520,7 @@
         <v>43503</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         <v>43507</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>43508</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14825,7 +14825,7 @@
         <v>43509</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14887,7 +14887,7 @@
         <v>43514</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14944,7 +14944,7 @@
         <v>43515</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
         <v>43517</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>43518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>43521</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>43522</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>43523</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>43524</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15519,7 +15519,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15576,7 +15576,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15633,7 +15633,7 @@
         <v>43529</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>43530</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>43531</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15814,7 +15814,7 @@
         <v>43535</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15871,7 +15871,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15928,7 +15928,7 @@
         <v>43536</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15985,7 +15985,7 @@
         <v>43537</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16047,7 +16047,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16109,7 +16109,7 @@
         <v>43538</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16166,7 +16166,7 @@
         <v>43545</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>43550</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16352,7 +16352,7 @@
         <v>43560</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16409,7 +16409,7 @@
         <v>43561</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43562</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16590,7 +16590,7 @@
         <v>43573</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16647,7 +16647,7 @@
         <v>43580</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16709,7 +16709,7 @@
         <v>43590</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16843,7 +16843,7 @@
         <v>43591</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16900,7 +16900,7 @@
         <v>43605</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16957,7 +16957,7 @@
         <v>43607</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17081,7 +17081,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17143,7 +17143,7 @@
         <v>43612</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17200,7 +17200,7 @@
         <v>43613</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>43618</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17386,7 +17386,7 @@
         <v>43623</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17443,7 +17443,7 @@
         <v>43635</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17505,7 +17505,7 @@
         <v>43642</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17562,7 +17562,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17619,7 +17619,7 @@
         <v>43647</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
         <v>43651</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17733,7 +17733,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17790,7 +17790,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17847,7 +17847,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17961,7 +17961,7 @@
         <v>43686</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18018,7 +18018,7 @@
         <v>43692</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18075,7 +18075,7 @@
         <v>43699</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>43706</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18256,7 +18256,7 @@
         <v>43713</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18313,7 +18313,7 @@
         <v>43717</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18375,7 +18375,7 @@
         <v>43723</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18432,7 +18432,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18489,7 +18489,7 @@
         <v>43739</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>43748</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18613,7 +18613,7 @@
         <v>43755</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18670,7 +18670,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18727,7 +18727,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18789,7 +18789,7 @@
         <v>43773</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18846,7 +18846,7 @@
         <v>43782</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>43787</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18970,7 +18970,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19027,7 +19027,7 @@
         <v>43795</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19089,7 +19089,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19146,7 +19146,7 @@
         <v>43802</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19203,7 +19203,7 @@
         <v>43808</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19260,7 +19260,7 @@
         <v>43810</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         <v>43812</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>43817</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19441,7 +19441,7 @@
         <v>43821</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19503,7 +19503,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19565,7 +19565,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>43838</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19813,7 +19813,7 @@
         <v>43850</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19870,7 +19870,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>43855</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19989,7 +19989,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>43865</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20108,7 +20108,7 @@
         <v>43873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20170,7 +20170,7 @@
         <v>43882</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>43895</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>43901</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>43902</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>43903</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20599,7 +20599,7 @@
         <v>43906</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20656,7 +20656,7 @@
         <v>43909</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>43910</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>43920</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>43936</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>43969</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>44007</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21137,7 +21137,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21194,7 +21194,7 @@
         <v>44015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21251,7 +21251,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21308,7 +21308,7 @@
         <v>44038</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21370,7 +21370,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21494,7 +21494,7 @@
         <v>44040</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21556,7 +21556,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21618,7 +21618,7 @@
         <v>44043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21680,7 +21680,7 @@
         <v>44060</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21737,7 +21737,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>44064</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21861,7 +21861,7 @@
         <v>44074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         <v>44077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>44092</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>44095</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>44098</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22280,7 +22280,7 @@
         <v>44118</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22337,7 +22337,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22394,7 +22394,7 @@
         <v>44120</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
         <v>44133</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22513,7 +22513,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22575,7 +22575,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22637,7 +22637,7 @@
         <v>44140</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22699,7 +22699,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22761,7 +22761,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22885,7 +22885,7 @@
         <v>44151</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22947,7 +22947,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23004,7 +23004,7 @@
         <v>44155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23066,7 +23066,7 @@
         <v>44160</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23123,7 +23123,7 @@
         <v>44162</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23180,7 +23180,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23237,7 +23237,7 @@
         <v>44167</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23294,7 +23294,7 @@
         <v>44173</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23351,7 +23351,7 @@
         <v>44183</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23408,7 +23408,7 @@
         <v>44186</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23465,7 +23465,7 @@
         <v>44196</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23527,7 +23527,7 @@
         <v>44221</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23584,7 +23584,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23641,7 +23641,7 @@
         <v>44224</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23703,7 +23703,7 @@
         <v>44235</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23760,7 +23760,7 @@
         <v>44238</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23822,7 +23822,7 @@
         <v>44243</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23879,7 +23879,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>44258</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>44278</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>44287</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>44308</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>44312</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>44330</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>44336</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44337</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44347</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>44354</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>44361</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44365</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44368</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44376</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>44420</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24982,7 +24982,7 @@
         <v>44425</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44432</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44450</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44460</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44461</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44462</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44466</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44488</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25676,7 +25676,7 @@
         <v>44491</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>44495</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>44496</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>44498</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>44504</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>44511</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>44512</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>44515</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26204,7 +26204,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26266,7 +26266,7 @@
         <v>44522</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26323,7 +26323,7 @@
         <v>44523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26380,7 +26380,7 @@
         <v>44525</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26437,7 +26437,7 @@
         <v>44531</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26499,7 +26499,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26556,7 +26556,7 @@
         <v>44536</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26613,7 +26613,7 @@
         <v>44546</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26675,7 +26675,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26732,7 +26732,7 @@
         <v>44548</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26794,7 +26794,7 @@
         <v>44550</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26851,7 +26851,7 @@
         <v>44573</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26908,7 +26908,7 @@
         <v>44578</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26965,7 +26965,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27022,7 +27022,7 @@
         <v>44586</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27079,7 +27079,7 @@
         <v>44588</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27141,7 +27141,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27198,7 +27198,7 @@
         <v>44589</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27255,7 +27255,7 @@
         <v>44591</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27312,7 +27312,7 @@
         <v>44597</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27369,7 +27369,7 @@
         <v>44599</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27426,7 +27426,7 @@
         <v>44602</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27488,7 +27488,7 @@
         <v>44605</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27550,7 +27550,7 @@
         <v>44606</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27607,7 +27607,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27664,7 +27664,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27721,7 +27721,7 @@
         <v>44609</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27778,7 +27778,7 @@
         <v>44613</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27835,7 +27835,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27892,7 +27892,7 @@
         <v>44614</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27949,7 +27949,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28006,7 +28006,7 @@
         <v>44622</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28068,7 +28068,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28192,7 +28192,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28254,7 +28254,7 @@
         <v>44636</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28311,7 +28311,7 @@
         <v>44643</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28368,7 +28368,7 @@
         <v>44644</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28425,7 +28425,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28482,7 +28482,7 @@
         <v>44657</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28539,7 +28539,7 @@
         <v>44659</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28596,7 +28596,7 @@
         <v>44664</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28653,7 +28653,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28710,7 +28710,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28767,7 +28767,7 @@
         <v>44665</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28829,7 +28829,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28891,7 +28891,7 @@
         <v>44667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28953,7 +28953,7 @@
         <v>44669</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29015,7 +29015,7 @@
         <v>44670</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29072,7 +29072,7 @@
         <v>44676</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29191,7 +29191,7 @@
         <v>44683</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>44684</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29305,7 +29305,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29382,7 +29382,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29439,7 +29439,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29496,7 +29496,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29553,7 +29553,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29615,7 +29615,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29672,7 +29672,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29729,7 +29729,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29791,7 +29791,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29848,7 +29848,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29905,7 +29905,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29962,7 +29962,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30024,7 +30024,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30086,7 +30086,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30381,7 +30381,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30443,7 +30443,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30500,7 +30500,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30614,7 +30614,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30676,7 +30676,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30733,7 +30733,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30795,7 +30795,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30857,7 +30857,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30914,7 +30914,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30971,7 +30971,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31028,7 +31028,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31142,7 +31142,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31256,7 +31256,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31561,7 +31561,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31675,7 +31675,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31732,7 +31732,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31789,7 +31789,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31846,7 +31846,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31908,7 +31908,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31965,7 +31965,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32022,7 +32022,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32079,7 +32079,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32141,7 +32141,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32203,7 +32203,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32265,7 +32265,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32384,7 +32384,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32441,7 +32441,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32503,7 +32503,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32565,7 +32565,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32622,7 +32622,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32679,7 +32679,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32736,7 +32736,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32850,7 +32850,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32964,7 +32964,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33021,7 +33021,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33078,7 +33078,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33197,7 +33197,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33259,7 +33259,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33373,7 +33373,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33544,7 +33544,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33658,7 +33658,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33772,7 +33772,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33834,7 +33834,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33896,7 +33896,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33958,7 +33958,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34020,7 +34020,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34082,7 +34082,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34144,7 +34144,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34206,7 +34206,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34268,7 +34268,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34330,7 +34330,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34392,7 +34392,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34449,7 +34449,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34506,7 +34506,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34568,7 +34568,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34630,7 +34630,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34692,7 +34692,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34749,7 +34749,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34806,7 +34806,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34863,7 +34863,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34920,7 +34920,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34977,7 +34977,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35034,7 +35034,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35091,7 +35091,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35148,7 +35148,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35205,7 +35205,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35262,7 +35262,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35319,7 +35319,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35376,7 +35376,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35433,7 +35433,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35490,7 +35490,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35604,7 +35604,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35666,7 +35666,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35723,7 +35723,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35785,7 +35785,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35842,7 +35842,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35899,7 +35899,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35956,7 +35956,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36013,7 +36013,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36075,7 +36075,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36137,7 +36137,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36199,7 +36199,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36261,7 +36261,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36323,7 +36323,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36380,7 +36380,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36442,7 +36442,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36504,7 +36504,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36566,7 +36566,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36628,7 +36628,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36752,7 +36752,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36809,7 +36809,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37156,7 +37156,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37218,7 +37218,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37275,7 +37275,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37337,7 +37337,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37394,7 +37394,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37451,7 +37451,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37508,7 +37508,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37565,7 +37565,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37622,7 +37622,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37684,7 +37684,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37741,7 +37741,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37803,7 +37803,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37860,7 +37860,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37922,7 +37922,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37979,7 +37979,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38036,7 +38036,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38160,7 +38160,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38222,7 +38222,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38284,7 +38284,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38341,7 +38341,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38398,7 +38398,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38455,7 +38455,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38517,7 +38517,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38579,7 +38579,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38641,7 +38641,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38703,7 +38703,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38765,7 +38765,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38827,7 +38827,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38889,7 +38889,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38946,7 +38946,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39003,7 +39003,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39127,7 +39127,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39251,7 +39251,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39313,7 +39313,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39499,7 +39499,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39561,7 +39561,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39623,7 +39623,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39685,7 +39685,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39742,7 +39742,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39799,7 +39799,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39861,7 +39861,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39918,7 +39918,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39980,7 +39980,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40037,7 +40037,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40094,7 +40094,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40156,7 +40156,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44698</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44771</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>43647</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>44789</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>44312</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44335</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         <v>44021</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44387</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2056,7 +2056,7 @@
         <v>45076</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         <v>43447</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>43538</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         <v>43635</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>44021</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2516,7 +2516,7 @@
         <v>44546</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>44559</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2694,7 +2694,7 @@
         <v>44572</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         <v>44614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>44662</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         <v>44727</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
         <v>44837</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45006</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>45076</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45099</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3416,7 +3416,7 @@
         <v>43573</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>44376</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3592,7 +3592,7 @@
         <v>44858</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44874</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>44995</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>45092</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43875</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
         <v>44376</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>44474</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4312,7 +4312,7 @@
         <v>44531</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
         <v>44739</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         <v>44875</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
         <v>44998</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
         <v>45002</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         <v>45016</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45054</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>43508</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         <v>43846</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5098,7 +5098,7 @@
         <v>43882</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5189,7 +5189,7 @@
         <v>44077</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>44148</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         <v>44235</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>44495</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>44525</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5624,7 +5624,7 @@
         <v>44529</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>44555</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44610</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         <v>44644</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         <v>44865</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6059,7 +6059,7 @@
         <v>44874</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>44874</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         <v>44967</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45055</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         <v>45063</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6504,7 +6504,7 @@
         <v>45092</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6595,7 +6595,7 @@
         <v>45154</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6686,7 +6686,7 @@
         <v>43369</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6749,6 +6749,10 @@
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 47201-2018.png")</f>
         <v/>
       </c>
+      <c r="U69">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/knärot/A 47201-2018.png")</f>
+        <v/>
+      </c>
       <c r="V69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 47201-2018.docx")</f>
         <v/>
@@ -6776,7 +6780,7 @@
         <v>43462</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6861,7 +6865,7 @@
         <v>43468</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6946,7 +6950,7 @@
         <v>43538</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7031,7 +7035,7 @@
         <v>43689</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7116,7 +7120,7 @@
         <v>43742</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7201,7 +7205,7 @@
         <v>43959</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7286,7 +7290,7 @@
         <v>44007</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7371,7 +7375,7 @@
         <v>44090</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7461,7 +7465,7 @@
         <v>44154</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7546,7 +7550,7 @@
         <v>44369</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7631,7 +7635,7 @@
         <v>44439</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7716,7 +7720,7 @@
         <v>44445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7806,7 +7810,7 @@
         <v>44455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7891,7 +7895,7 @@
         <v>44455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7976,7 +7980,7 @@
         <v>44501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8066,7 +8070,7 @@
         <v>44501</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8156,7 +8160,7 @@
         <v>44509</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8241,7 +8245,7 @@
         <v>44511</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8326,7 +8330,7 @@
         <v>44517</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8411,7 +8415,7 @@
         <v>44536</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8496,7 +8500,7 @@
         <v>44571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8581,7 +8585,7 @@
         <v>44606</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8666,7 +8670,7 @@
         <v>44607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8751,7 +8755,7 @@
         <v>44712</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8841,7 +8845,7 @@
         <v>44728</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8931,7 +8935,7 @@
         <v>44742</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9016,7 +9020,7 @@
         <v>44779</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9105,7 +9109,7 @@
         <v>44796</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9195,7 +9199,7 @@
         <v>44874</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9285,7 +9289,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9375,7 +9379,7 @@
         <v>44875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9460,7 +9464,7 @@
         <v>44938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9545,7 +9549,7 @@
         <v>45013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9630,7 +9634,7 @@
         <v>45021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9720,7 +9724,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9814,7 +9818,7 @@
         <v>45048</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9904,7 +9908,7 @@
         <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9994,7 +9998,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10084,7 +10088,7 @@
         <v>45070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10174,7 +10178,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10259,7 +10263,7 @@
         <v>45071</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10344,7 +10348,7 @@
         <v>45075</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10429,7 +10433,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10514,7 +10518,7 @@
         <v>45093</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10599,7 +10603,7 @@
         <v>45107</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10689,7 +10693,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10774,7 +10778,7 @@
         <v>45135</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10864,7 +10868,7 @@
         <v>43320</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10921,7 +10925,7 @@
         <v>43327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10978,7 +10982,7 @@
         <v>43343</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11040,7 +11044,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11102,7 +11106,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11159,7 +11163,7 @@
         <v>43360</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11221,7 +11225,7 @@
         <v>43376</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11278,7 +11282,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11335,7 +11339,7 @@
         <v>43381</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11392,7 +11396,7 @@
         <v>43384</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11454,7 +11458,7 @@
         <v>43398</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11511,7 +11515,7 @@
         <v>43410</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11573,7 +11577,7 @@
         <v>43423</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11630,7 +11634,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11687,7 +11691,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11744,7 +11748,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11801,7 +11805,7 @@
         <v>43430</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11863,7 +11867,7 @@
         <v>43432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11925,7 +11929,7 @@
         <v>43448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11987,7 +11991,7 @@
         <v>43453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12044,7 +12048,7 @@
         <v>43468</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12101,7 +12105,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12158,7 +12162,7 @@
         <v>43469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12215,7 +12219,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12272,7 +12276,7 @@
         <v>43472</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12329,7 +12333,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12391,7 +12395,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12448,7 +12452,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12510,7 +12514,7 @@
         <v>43473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12567,7 +12571,7 @@
         <v>43474</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12624,7 +12628,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12686,7 +12690,7 @@
         <v>43476</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12748,7 +12752,7 @@
         <v>43479</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12805,7 +12809,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12862,7 +12866,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12919,7 +12923,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12976,7 +12980,7 @@
         <v>43480</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13033,7 +13037,7 @@
         <v>43482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13090,7 +13094,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13147,7 +13151,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13204,7 +13208,7 @@
         <v>43483</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13261,7 +13265,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13323,7 +13327,7 @@
         <v>43484</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13380,7 +13384,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13437,7 +13441,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13494,7 +13498,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13551,7 +13555,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13608,7 +13612,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13665,7 +13669,7 @@
         <v>43486</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13722,7 +13726,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13779,7 +13783,7 @@
         <v>43487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13836,7 +13840,7 @@
         <v>43489</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13893,7 +13897,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13950,7 +13954,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14007,7 +14011,7 @@
         <v>43493</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14064,7 +14068,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14121,7 +14125,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14178,7 +14182,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14235,7 +14239,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14292,7 +14296,7 @@
         <v>43495</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14349,7 +14353,7 @@
         <v>43500</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14406,7 +14410,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14463,7 +14467,7 @@
         <v>43502</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14520,7 +14524,7 @@
         <v>43503</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14582,7 +14586,7 @@
         <v>43507</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14644,7 +14648,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14701,7 +14705,7 @@
         <v>43508</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14763,7 +14767,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14825,7 +14829,7 @@
         <v>43509</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14887,7 +14891,7 @@
         <v>43514</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14944,7 +14948,7 @@
         <v>43515</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15001,7 +15005,7 @@
         <v>43517</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15063,7 +15067,7 @@
         <v>43518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15120,7 +15124,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15177,7 +15181,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15234,7 +15238,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15291,7 +15295,7 @@
         <v>43521</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15348,7 +15352,7 @@
         <v>43522</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15405,7 +15409,7 @@
         <v>43523</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15462,7 +15466,7 @@
         <v>43524</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15519,7 +15523,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15576,7 +15580,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15633,7 +15637,7 @@
         <v>43529</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15695,7 +15699,7 @@
         <v>43530</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15752,7 +15756,7 @@
         <v>43531</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15814,7 +15818,7 @@
         <v>43535</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15871,7 +15875,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15928,7 +15932,7 @@
         <v>43536</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15985,7 +15989,7 @@
         <v>43537</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16047,7 +16051,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16109,7 +16113,7 @@
         <v>43538</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16166,7 +16170,7 @@
         <v>43545</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16228,7 +16232,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16290,7 +16294,7 @@
         <v>43550</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16352,7 +16356,7 @@
         <v>43560</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16409,7 +16413,7 @@
         <v>43561</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16471,7 +16475,7 @@
         <v>43562</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16528,7 +16532,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16590,7 +16594,7 @@
         <v>43573</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16647,7 +16651,7 @@
         <v>43580</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16709,7 +16713,7 @@
         <v>43590</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16786,7 +16790,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16843,7 +16847,7 @@
         <v>43591</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16900,7 +16904,7 @@
         <v>43605</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16957,7 +16961,7 @@
         <v>43607</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17019,7 +17023,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17081,7 +17085,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17143,7 +17147,7 @@
         <v>43612</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17200,7 +17204,7 @@
         <v>43613</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17262,7 +17266,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17324,7 +17328,7 @@
         <v>43618</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17386,7 +17390,7 @@
         <v>43623</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17443,7 +17447,7 @@
         <v>43635</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17505,7 +17509,7 @@
         <v>43642</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17562,7 +17566,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17619,7 +17623,7 @@
         <v>43647</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17676,7 +17680,7 @@
         <v>43651</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17733,7 +17737,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17790,7 +17794,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17847,7 +17851,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17904,7 +17908,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17961,7 +17965,7 @@
         <v>43686</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18018,7 +18022,7 @@
         <v>43692</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18075,7 +18079,7 @@
         <v>43699</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18137,7 +18141,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18194,7 +18198,7 @@
         <v>43706</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18256,7 +18260,7 @@
         <v>43713</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18313,7 +18317,7 @@
         <v>43717</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18375,7 +18379,7 @@
         <v>43723</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18432,7 +18436,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18489,7 +18493,7 @@
         <v>43739</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18551,7 +18555,7 @@
         <v>43748</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18613,7 +18617,7 @@
         <v>43755</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18670,7 +18674,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18727,7 +18731,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18789,7 +18793,7 @@
         <v>43773</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18846,7 +18850,7 @@
         <v>43782</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18908,7 +18912,7 @@
         <v>43787</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18970,7 +18974,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19027,7 +19031,7 @@
         <v>43795</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19089,7 +19093,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19146,7 +19150,7 @@
         <v>43802</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19203,7 +19207,7 @@
         <v>43808</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19260,7 +19264,7 @@
         <v>43810</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19322,7 +19326,7 @@
         <v>43812</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19384,7 +19388,7 @@
         <v>43817</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19441,7 +19445,7 @@
         <v>43821</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19503,7 +19507,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19565,7 +19569,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19627,7 +19631,7 @@
         <v>43838</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19689,7 +19693,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19751,7 +19755,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19813,7 +19817,7 @@
         <v>43850</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19870,7 +19874,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19927,7 +19931,7 @@
         <v>43855</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19989,7 +19993,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20046,7 +20050,7 @@
         <v>43865</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20108,7 +20112,7 @@
         <v>43873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20170,7 +20174,7 @@
         <v>43882</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20227,7 +20231,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20289,7 +20293,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20351,7 +20355,7 @@
         <v>43895</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20413,7 +20417,7 @@
         <v>43901</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20475,7 +20479,7 @@
         <v>43902</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20537,7 +20541,7 @@
         <v>43903</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20599,7 +20603,7 @@
         <v>43906</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20656,7 +20660,7 @@
         <v>43909</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20718,7 +20722,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20780,7 +20784,7 @@
         <v>43910</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20842,7 +20846,7 @@
         <v>43920</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20899,7 +20903,7 @@
         <v>43936</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20956,7 +20960,7 @@
         <v>43969</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21018,7 +21022,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21080,7 +21084,7 @@
         <v>44007</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21137,7 +21141,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21194,7 +21198,7 @@
         <v>44015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21251,7 +21255,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21308,7 +21312,7 @@
         <v>44038</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21370,7 +21374,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21432,7 +21436,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21494,7 +21498,7 @@
         <v>44040</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21556,7 +21560,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21618,7 +21622,7 @@
         <v>44043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21680,7 +21684,7 @@
         <v>44060</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21737,7 +21741,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21799,7 +21803,7 @@
         <v>44064</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21861,7 +21865,7 @@
         <v>44074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21923,7 +21927,7 @@
         <v>44077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21980,7 +21984,7 @@
         <v>44092</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22042,7 +22046,7 @@
         <v>44095</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22099,7 +22103,7 @@
         <v>44098</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22156,7 +22160,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22218,7 +22222,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22280,7 +22284,7 @@
         <v>44118</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22337,7 +22341,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22394,7 +22398,7 @@
         <v>44120</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22451,7 +22455,7 @@
         <v>44133</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22513,7 +22517,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22575,7 +22579,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22637,7 +22641,7 @@
         <v>44140</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22699,7 +22703,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22761,7 +22765,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22823,7 +22827,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22885,7 +22889,7 @@
         <v>44151</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22947,7 +22951,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23004,7 +23008,7 @@
         <v>44155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23066,7 +23070,7 @@
         <v>44160</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23123,7 +23127,7 @@
         <v>44162</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23180,7 +23184,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23237,7 +23241,7 @@
         <v>44167</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23294,7 +23298,7 @@
         <v>44173</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23351,7 +23355,7 @@
         <v>44183</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23408,7 +23412,7 @@
         <v>44186</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23465,7 +23469,7 @@
         <v>44196</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23527,7 +23531,7 @@
         <v>44221</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23584,7 +23588,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23641,7 +23645,7 @@
         <v>44224</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23703,7 +23707,7 @@
         <v>44235</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23760,7 +23764,7 @@
         <v>44238</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23822,7 +23826,7 @@
         <v>44243</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23879,7 +23883,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23941,7 +23945,7 @@
         <v>44258</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24003,7 +24007,7 @@
         <v>44278</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24065,7 +24069,7 @@
         <v>44287</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24122,7 +24126,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24179,7 +24183,7 @@
         <v>44308</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24236,7 +24240,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24293,7 +24297,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24350,7 +24354,7 @@
         <v>44312</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24407,7 +24411,7 @@
         <v>44330</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24464,7 +24468,7 @@
         <v>44336</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24521,7 +24525,7 @@
         <v>44337</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24578,7 +24582,7 @@
         <v>44347</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24635,7 +24639,7 @@
         <v>44354</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24692,7 +24696,7 @@
         <v>44361</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24749,7 +24753,7 @@
         <v>44365</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24811,7 +24815,7 @@
         <v>44368</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24868,7 +24872,7 @@
         <v>44376</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24925,7 +24929,7 @@
         <v>44420</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24982,7 +24986,7 @@
         <v>44425</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25044,7 +25048,7 @@
         <v>44432</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25101,7 +25105,7 @@
         <v>44450</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25158,7 +25162,7 @@
         <v>44460</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25215,7 +25219,7 @@
         <v>44461</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25272,7 +25276,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25329,7 +25333,7 @@
         <v>44462</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25386,7 +25390,7 @@
         <v>44466</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25443,7 +25447,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25505,7 +25509,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25562,7 +25566,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25619,7 +25623,7 @@
         <v>44488</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25676,7 +25680,7 @@
         <v>44491</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25738,7 +25742,7 @@
         <v>44495</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25800,7 +25804,7 @@
         <v>44496</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25857,7 +25861,7 @@
         <v>44498</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25914,7 +25918,7 @@
         <v>44504</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25971,7 +25975,7 @@
         <v>44511</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26028,7 +26032,7 @@
         <v>44512</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26085,7 +26089,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26142,7 +26146,7 @@
         <v>44515</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26204,7 +26208,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26266,7 +26270,7 @@
         <v>44522</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26323,7 +26327,7 @@
         <v>44523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26380,7 +26384,7 @@
         <v>44525</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26437,7 +26441,7 @@
         <v>44531</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26499,7 +26503,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26556,7 +26560,7 @@
         <v>44536</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26613,7 +26617,7 @@
         <v>44546</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26675,7 +26679,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26732,7 +26736,7 @@
         <v>44548</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26794,7 +26798,7 @@
         <v>44550</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26851,7 +26855,7 @@
         <v>44573</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26908,7 +26912,7 @@
         <v>44578</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26965,7 +26969,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27022,7 +27026,7 @@
         <v>44586</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27079,7 +27083,7 @@
         <v>44588</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27141,7 +27145,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27198,7 +27202,7 @@
         <v>44589</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27255,7 +27259,7 @@
         <v>44591</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27312,7 +27316,7 @@
         <v>44597</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27369,7 +27373,7 @@
         <v>44599</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27426,7 +27430,7 @@
         <v>44602</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27488,7 +27492,7 @@
         <v>44605</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27550,7 +27554,7 @@
         <v>44606</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27607,7 +27611,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27664,7 +27668,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27721,7 +27725,7 @@
         <v>44609</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27778,7 +27782,7 @@
         <v>44613</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27835,7 +27839,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27892,7 +27896,7 @@
         <v>44614</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27949,7 +27953,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28006,7 +28010,7 @@
         <v>44622</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28068,7 +28072,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28130,7 +28134,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28192,7 +28196,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28254,7 +28258,7 @@
         <v>44636</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28311,7 +28315,7 @@
         <v>44643</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28368,7 +28372,7 @@
         <v>44644</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28425,7 +28429,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28482,7 +28486,7 @@
         <v>44657</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28539,7 +28543,7 @@
         <v>44659</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28596,7 +28600,7 @@
         <v>44664</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28653,7 +28657,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28710,7 +28714,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28767,7 +28771,7 @@
         <v>44665</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28829,7 +28833,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28891,7 +28895,7 @@
         <v>44667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28953,7 +28957,7 @@
         <v>44669</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29015,7 +29019,7 @@
         <v>44670</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29072,7 +29076,7 @@
         <v>44676</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29129,7 +29133,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29191,7 +29195,7 @@
         <v>44683</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29248,7 +29252,7 @@
         <v>44684</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29305,7 +29309,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29382,7 +29386,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29439,7 +29443,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29496,7 +29500,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29553,7 +29557,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29615,7 +29619,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29672,7 +29676,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29729,7 +29733,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29791,7 +29795,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29848,7 +29852,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29905,7 +29909,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29962,7 +29966,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30024,7 +30028,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30086,7 +30090,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30148,7 +30152,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30205,7 +30209,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30262,7 +30266,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30319,7 +30323,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30381,7 +30385,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30443,7 +30447,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30500,7 +30504,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30557,7 +30561,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30614,7 +30618,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30676,7 +30680,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30733,7 +30737,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30795,7 +30799,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30857,7 +30861,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30914,7 +30918,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30971,7 +30975,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31028,7 +31032,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31085,7 +31089,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31142,7 +31146,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31199,7 +31203,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31256,7 +31260,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31318,7 +31322,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31380,7 +31384,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31442,7 +31446,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31499,7 +31503,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31561,7 +31565,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31618,7 +31622,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31675,7 +31679,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31732,7 +31736,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31789,7 +31793,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31846,7 +31850,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31908,7 +31912,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31965,7 +31969,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32022,7 +32026,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32079,7 +32083,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32141,7 +32145,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32203,7 +32207,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32265,7 +32269,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32327,7 +32331,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32384,7 +32388,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32441,7 +32445,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32503,7 +32507,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32565,7 +32569,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32622,7 +32626,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32679,7 +32683,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32736,7 +32740,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32793,7 +32797,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32850,7 +32854,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32907,7 +32911,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32964,7 +32968,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33021,7 +33025,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33078,7 +33082,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33140,7 +33144,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33197,7 +33201,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33259,7 +33263,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33316,7 +33320,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33373,7 +33377,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33430,7 +33434,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33487,7 +33491,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33544,7 +33548,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33601,7 +33605,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33658,7 +33662,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33715,7 +33719,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33772,7 +33776,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33834,7 +33838,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33896,7 +33900,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33958,7 +33962,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34020,7 +34024,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34082,7 +34086,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34144,7 +34148,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34206,7 +34210,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34268,7 +34272,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34330,7 +34334,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34392,7 +34396,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34449,7 +34453,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34506,7 +34510,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34568,7 +34572,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34630,7 +34634,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34692,7 +34696,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34749,7 +34753,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34806,7 +34810,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34863,7 +34867,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34920,7 +34924,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34977,7 +34981,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35034,7 +35038,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35091,7 +35095,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35148,7 +35152,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35205,7 +35209,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35262,7 +35266,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35319,7 +35323,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35376,7 +35380,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35433,7 +35437,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35490,7 +35494,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35547,7 +35551,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35604,7 +35608,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35666,7 +35670,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35723,7 +35727,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35785,7 +35789,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35842,7 +35846,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35899,7 +35903,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35956,7 +35960,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36013,7 +36017,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36075,7 +36079,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36137,7 +36141,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36199,7 +36203,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36261,7 +36265,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36323,7 +36327,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36380,7 +36384,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36442,7 +36446,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36504,7 +36508,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36566,7 +36570,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36628,7 +36632,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36690,7 +36694,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36752,7 +36756,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36809,7 +36813,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36866,7 +36870,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36923,7 +36927,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36980,7 +36984,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37037,7 +37041,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37094,7 +37098,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37156,7 +37160,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37218,7 +37222,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37275,7 +37279,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37337,7 +37341,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37394,7 +37398,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37451,7 +37455,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37508,7 +37512,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37565,7 +37569,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37622,7 +37626,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37684,7 +37688,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37741,7 +37745,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37803,7 +37807,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37860,7 +37864,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37922,7 +37926,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37979,7 +37983,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38036,7 +38040,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38098,7 +38102,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38160,7 +38164,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38222,7 +38226,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38284,7 +38288,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38341,7 +38345,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38398,7 +38402,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38455,7 +38459,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38517,7 +38521,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38579,7 +38583,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38641,7 +38645,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38703,7 +38707,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38765,7 +38769,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38827,7 +38831,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38889,7 +38893,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38946,7 +38950,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39003,7 +39007,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39065,7 +39069,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39127,7 +39131,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39189,7 +39193,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39251,7 +39255,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39313,7 +39317,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39375,7 +39379,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39437,7 +39441,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39499,7 +39503,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39561,7 +39565,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39623,7 +39627,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39685,7 +39689,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39742,7 +39746,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39799,7 +39803,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39861,7 +39865,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39918,7 +39922,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39980,7 +39984,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40037,7 +40041,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40094,7 +40098,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40156,7 +40160,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43538</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43635</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44662</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44727</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44837</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45006</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45076</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45099</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43573</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>44376</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44858</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44874</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44995</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45092</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44376</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44531</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44739</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44875</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45002</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>45016</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>45054</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43508</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43846</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43882</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44077</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44235</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44495</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44610</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44865</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44874</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44874</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44967</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45055</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45063</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>45092</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45154</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43369</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>43462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6955,7 +6955,7 @@
         <v>43468</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         <v>43538</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43742</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43959</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         <v>44007</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44154</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7640,7 +7640,7 @@
         <v>44369</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         <v>44455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7900,7 +7900,7 @@
         <v>44455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>44501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8075,7 +8075,7 @@
         <v>44501</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8165,7 +8165,7 @@
         <v>44509</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8250,7 +8250,7 @@
         <v>44511</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>44517</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>44536</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8505,7 +8505,7 @@
         <v>44571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44606</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         <v>44607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>44712</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8850,7 +8850,7 @@
         <v>44728</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8940,7 +8940,7 @@
         <v>44742</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9025,7 +9025,7 @@
         <v>44779</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9114,7 +9114,7 @@
         <v>44796</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9204,7 +9204,7 @@
         <v>44874</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9384,7 +9384,7 @@
         <v>44875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>44938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>45013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9639,7 +9639,7 @@
         <v>45021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9823,7 +9823,7 @@
         <v>45048</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10093,7 +10093,7 @@
         <v>45070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10183,7 +10183,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10268,7 +10268,7 @@
         <v>45071</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>45075</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10438,7 +10438,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>45093</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         <v>45107</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10698,7 +10698,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>45135</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
         <v>43320</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10930,7 +10930,7 @@
         <v>43327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10987,7 +10987,7 @@
         <v>43343</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11049,7 +11049,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11111,7 +11111,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>43360</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11230,7 +11230,7 @@
         <v>43376</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11287,7 +11287,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11344,7 +11344,7 @@
         <v>43381</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
         <v>43384</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11463,7 +11463,7 @@
         <v>43398</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>43410</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>43423</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11639,7 +11639,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11696,7 +11696,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11753,7 +11753,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         <v>43430</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>43432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         <v>43448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>43453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>43468</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>43469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>43472</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>43473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>43474</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12695,7 +12695,7 @@
         <v>43476</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
         <v>43479</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12814,7 +12814,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12871,7 +12871,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12928,7 +12928,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12985,7 +12985,7 @@
         <v>43480</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13042,7 +13042,7 @@
         <v>43482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13099,7 +13099,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13156,7 +13156,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13213,7 +13213,7 @@
         <v>43483</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13270,7 +13270,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13332,7 +13332,7 @@
         <v>43484</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13389,7 +13389,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13503,7 +13503,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13560,7 +13560,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13617,7 +13617,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13674,7 +13674,7 @@
         <v>43486</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13731,7 +13731,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>43487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13845,7 +13845,7 @@
         <v>43489</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13959,7 +13959,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14016,7 +14016,7 @@
         <v>43493</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14073,7 +14073,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14187,7 +14187,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14244,7 +14244,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14301,7 +14301,7 @@
         <v>43495</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14358,7 +14358,7 @@
         <v>43500</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14415,7 +14415,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14472,7 +14472,7 @@
         <v>43502</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
         <v>43503</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14591,7 +14591,7 @@
         <v>43507</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14653,7 +14653,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14710,7 +14710,7 @@
         <v>43508</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14772,7 +14772,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>43509</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14896,7 +14896,7 @@
         <v>43514</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
         <v>43515</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15010,7 +15010,7 @@
         <v>43517</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15072,7 +15072,7 @@
         <v>43518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15129,7 +15129,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15186,7 +15186,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15243,7 +15243,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15300,7 +15300,7 @@
         <v>43521</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15357,7 +15357,7 @@
         <v>43522</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15414,7 +15414,7 @@
         <v>43523</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>43524</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15528,7 +15528,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15585,7 +15585,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15642,7 +15642,7 @@
         <v>43529</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15704,7 +15704,7 @@
         <v>43530</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15761,7 +15761,7 @@
         <v>43531</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15823,7 +15823,7 @@
         <v>43535</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15880,7 +15880,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15937,7 +15937,7 @@
         <v>43536</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15994,7 +15994,7 @@
         <v>43537</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16056,7 +16056,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16118,7 +16118,7 @@
         <v>43538</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16175,7 +16175,7 @@
         <v>43545</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16237,7 +16237,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         <v>43550</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>43560</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16418,7 +16418,7 @@
         <v>43561</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>43562</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>43573</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>43580</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16718,7 +16718,7 @@
         <v>43590</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16852,7 +16852,7 @@
         <v>43591</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16909,7 +16909,7 @@
         <v>43605</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16966,7 +16966,7 @@
         <v>43607</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17028,7 +17028,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>43612</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>43613</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17271,7 +17271,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17333,7 +17333,7 @@
         <v>43618</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>43623</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>43635</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>43642</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>43647</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>43651</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17913,7 +17913,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17970,7 +17970,7 @@
         <v>43686</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>43692</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18084,7 +18084,7 @@
         <v>43699</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18146,7 +18146,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18203,7 +18203,7 @@
         <v>43706</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>43713</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>43717</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18384,7 +18384,7 @@
         <v>43723</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18441,7 +18441,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18498,7 +18498,7 @@
         <v>43739</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18560,7 +18560,7 @@
         <v>43748</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>43755</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18679,7 +18679,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18736,7 +18736,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>43773</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>43782</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18917,7 +18917,7 @@
         <v>43787</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19036,7 +19036,7 @@
         <v>43795</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>43802</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>43808</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>43810</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19331,7 +19331,7 @@
         <v>43812</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19393,7 +19393,7 @@
         <v>43817</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>43821</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43838</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>43850</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>43855</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>43865</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20117,7 +20117,7 @@
         <v>43873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20179,7 +20179,7 @@
         <v>43882</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20236,7 +20236,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20298,7 +20298,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20360,7 +20360,7 @@
         <v>43895</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>43901</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20484,7 +20484,7 @@
         <v>43902</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>43903</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20608,7 +20608,7 @@
         <v>43906</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>43909</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20727,7 +20727,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>43910</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20851,7 +20851,7 @@
         <v>43920</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>43936</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20965,7 +20965,7 @@
         <v>43969</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21027,7 +21027,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>44007</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21203,7 +21203,7 @@
         <v>44015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21260,7 +21260,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21317,7 +21317,7 @@
         <v>44038</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21441,7 +21441,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21503,7 +21503,7 @@
         <v>44040</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21565,7 +21565,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>44043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21689,7 +21689,7 @@
         <v>44060</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>44064</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21870,7 +21870,7 @@
         <v>44074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>44077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>44092</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>44095</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22108,7 +22108,7 @@
         <v>44098</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22165,7 +22165,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22227,7 +22227,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44118</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22346,7 +22346,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22403,7 +22403,7 @@
         <v>44120</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22460,7 +22460,7 @@
         <v>44133</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22522,7 +22522,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44140</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22894,7 +22894,7 @@
         <v>44151</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22956,7 +22956,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23013,7 +23013,7 @@
         <v>44155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23075,7 +23075,7 @@
         <v>44160</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23132,7 +23132,7 @@
         <v>44162</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23189,7 +23189,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23246,7 +23246,7 @@
         <v>44167</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23303,7 +23303,7 @@
         <v>44173</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>44183</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23417,7 +23417,7 @@
         <v>44186</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23474,7 +23474,7 @@
         <v>44196</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>44221</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>44224</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>44235</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>44238</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23831,7 +23831,7 @@
         <v>44243</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23888,7 +23888,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23950,7 +23950,7 @@
         <v>44258</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24012,7 +24012,7 @@
         <v>44278</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24074,7 +24074,7 @@
         <v>44287</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24131,7 +24131,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24188,7 +24188,7 @@
         <v>44308</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24245,7 +24245,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24359,7 +24359,7 @@
         <v>44312</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24416,7 +24416,7 @@
         <v>44330</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24473,7 +24473,7 @@
         <v>44336</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24530,7 +24530,7 @@
         <v>44337</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24587,7 +24587,7 @@
         <v>44347</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24644,7 +24644,7 @@
         <v>44354</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44361</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24758,7 +24758,7 @@
         <v>44365</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24820,7 +24820,7 @@
         <v>44368</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24877,7 +24877,7 @@
         <v>44376</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24934,7 +24934,7 @@
         <v>44420</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24991,7 +24991,7 @@
         <v>44425</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25053,7 +25053,7 @@
         <v>44432</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25110,7 +25110,7 @@
         <v>44450</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25167,7 +25167,7 @@
         <v>44460</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25224,7 +25224,7 @@
         <v>44461</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25281,7 +25281,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25338,7 +25338,7 @@
         <v>44462</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25395,7 +25395,7 @@
         <v>44466</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25452,7 +25452,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25514,7 +25514,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25571,7 +25571,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25628,7 +25628,7 @@
         <v>44488</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>44491</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>44495</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>44496</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25866,7 +25866,7 @@
         <v>44498</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25923,7 +25923,7 @@
         <v>44504</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25980,7 +25980,7 @@
         <v>44511</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26037,7 +26037,7 @@
         <v>44512</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26094,7 +26094,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26151,7 +26151,7 @@
         <v>44515</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26213,7 +26213,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26275,7 +26275,7 @@
         <v>44522</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26332,7 +26332,7 @@
         <v>44523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26389,7 +26389,7 @@
         <v>44525</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26446,7 +26446,7 @@
         <v>44531</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26508,7 +26508,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26565,7 +26565,7 @@
         <v>44536</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26622,7 +26622,7 @@
         <v>44546</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26684,7 +26684,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26741,7 +26741,7 @@
         <v>44548</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26803,7 +26803,7 @@
         <v>44550</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26860,7 +26860,7 @@
         <v>44573</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26917,7 +26917,7 @@
         <v>44578</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26974,7 +26974,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27031,7 +27031,7 @@
         <v>44586</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27088,7 +27088,7 @@
         <v>44588</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27150,7 +27150,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27207,7 +27207,7 @@
         <v>44589</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27264,7 +27264,7 @@
         <v>44591</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27321,7 +27321,7 @@
         <v>44597</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27378,7 +27378,7 @@
         <v>44599</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27435,7 +27435,7 @@
         <v>44602</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
         <v>44605</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>44606</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27616,7 +27616,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27673,7 +27673,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         <v>44609</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>44613</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>44614</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>44622</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28077,7 +28077,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28139,7 +28139,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28201,7 +28201,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28263,7 +28263,7 @@
         <v>44636</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28320,7 +28320,7 @@
         <v>44643</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28377,7 +28377,7 @@
         <v>44644</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28434,7 +28434,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28491,7 +28491,7 @@
         <v>44657</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28548,7 +28548,7 @@
         <v>44659</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28605,7 +28605,7 @@
         <v>44664</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28662,7 +28662,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28719,7 +28719,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28776,7 +28776,7 @@
         <v>44665</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28838,7 +28838,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28900,7 +28900,7 @@
         <v>44667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28962,7 +28962,7 @@
         <v>44669</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29024,7 +29024,7 @@
         <v>44670</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29081,7 +29081,7 @@
         <v>44676</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29138,7 +29138,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29200,7 +29200,7 @@
         <v>44683</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29257,7 +29257,7 @@
         <v>44684</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29314,7 +29314,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29391,7 +29391,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29448,7 +29448,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29505,7 +29505,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29562,7 +29562,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29624,7 +29624,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29681,7 +29681,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29738,7 +29738,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30157,7 +30157,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30214,7 +30214,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30271,7 +30271,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30328,7 +30328,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30390,7 +30390,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30452,7 +30452,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30509,7 +30509,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30566,7 +30566,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30623,7 +30623,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30685,7 +30685,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30742,7 +30742,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30804,7 +30804,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30866,7 +30866,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30923,7 +30923,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30980,7 +30980,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31037,7 +31037,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31094,7 +31094,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31151,7 +31151,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31208,7 +31208,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31265,7 +31265,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31327,7 +31327,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31389,7 +31389,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31451,7 +31451,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31508,7 +31508,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31570,7 +31570,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31627,7 +31627,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31684,7 +31684,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31741,7 +31741,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31798,7 +31798,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31855,7 +31855,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32150,7 +32150,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32212,7 +32212,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32274,7 +32274,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32336,7 +32336,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32393,7 +32393,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32450,7 +32450,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32512,7 +32512,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32574,7 +32574,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32631,7 +32631,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32688,7 +32688,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32745,7 +32745,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32802,7 +32802,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32859,7 +32859,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32916,7 +32916,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33149,7 +33149,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33206,7 +33206,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33268,7 +33268,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33325,7 +33325,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33382,7 +33382,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33439,7 +33439,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33496,7 +33496,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33553,7 +33553,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33610,7 +33610,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33667,7 +33667,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33724,7 +33724,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33781,7 +33781,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33843,7 +33843,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33905,7 +33905,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33967,7 +33967,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34029,7 +34029,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34091,7 +34091,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34153,7 +34153,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34215,7 +34215,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34277,7 +34277,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34339,7 +34339,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34401,7 +34401,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34458,7 +34458,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34515,7 +34515,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34577,7 +34577,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34639,7 +34639,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34701,7 +34701,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34758,7 +34758,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34815,7 +34815,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34872,7 +34872,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34929,7 +34929,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34986,7 +34986,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35043,7 +35043,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35100,7 +35100,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35157,7 +35157,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35214,7 +35214,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35271,7 +35271,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35328,7 +35328,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35385,7 +35385,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35442,7 +35442,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35556,7 +35556,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35613,7 +35613,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35675,7 +35675,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35732,7 +35732,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35794,7 +35794,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35851,7 +35851,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35908,7 +35908,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35965,7 +35965,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36022,7 +36022,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36084,7 +36084,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36146,7 +36146,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36208,7 +36208,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36270,7 +36270,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36332,7 +36332,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36389,7 +36389,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36451,7 +36451,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36513,7 +36513,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36575,7 +36575,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36637,7 +36637,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36699,7 +36699,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36761,7 +36761,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36818,7 +36818,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36875,7 +36875,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36932,7 +36932,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36989,7 +36989,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37046,7 +37046,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37103,7 +37103,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37165,7 +37165,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37227,7 +37227,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37284,7 +37284,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37346,7 +37346,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37403,7 +37403,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37460,7 +37460,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37517,7 +37517,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37574,7 +37574,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37693,7 +37693,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37869,7 +37869,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37988,7 +37988,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38107,7 +38107,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38169,7 +38169,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38231,7 +38231,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38293,7 +38293,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38350,7 +38350,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38407,7 +38407,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38464,7 +38464,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38526,7 +38526,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38588,7 +38588,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38650,7 +38650,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38712,7 +38712,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38836,7 +38836,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38898,7 +38898,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38955,7 +38955,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39012,7 +39012,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39074,7 +39074,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39136,7 +39136,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39198,7 +39198,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39260,7 +39260,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39322,7 +39322,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39384,7 +39384,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39508,7 +39508,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39570,7 +39570,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39632,7 +39632,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39694,7 +39694,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39751,7 +39751,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39808,7 +39808,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39870,7 +39870,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39927,7 +39927,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39989,7 +39989,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40046,7 +40046,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40103,7 +40103,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40165,7 +40165,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43538</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43635</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44662</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44727</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44837</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45006</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45076</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45099</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43573</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>44376</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44858</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44874</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44995</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45092</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44376</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44531</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44739</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44875</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45002</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>45016</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>45054</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43508</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43846</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43882</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44077</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44235</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44495</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44610</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44865</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44874</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44874</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44967</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45055</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45063</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>45092</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45154</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43369</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6843,6 +6843,10 @@
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 47201-2018.png")</f>
         <v/>
       </c>
+      <c r="U70">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/knärot/A 47201-2018.png")</f>
+        <v/>
+      </c>
       <c r="V70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 47201-2018.docx")</f>
         <v/>
@@ -6870,7 +6874,7 @@
         <v>43462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6955,7 +6959,7 @@
         <v>43468</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7040,7 +7044,7 @@
         <v>43538</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7125,7 +7129,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7210,7 +7214,7 @@
         <v>43742</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7295,7 +7299,7 @@
         <v>43959</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7380,7 +7384,7 @@
         <v>44007</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7465,7 +7469,7 @@
         <v>44090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7555,7 +7559,7 @@
         <v>44154</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7640,7 +7644,7 @@
         <v>44369</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7725,7 +7729,7 @@
         <v>44445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7815,7 +7819,7 @@
         <v>44455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7900,7 +7904,7 @@
         <v>44455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7985,7 +7989,7 @@
         <v>44501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8075,7 +8079,7 @@
         <v>44501</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8165,7 +8169,7 @@
         <v>44509</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8250,7 +8254,7 @@
         <v>44511</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8335,7 +8339,7 @@
         <v>44517</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8420,7 +8424,7 @@
         <v>44536</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8505,7 +8509,7 @@
         <v>44571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8590,7 +8594,7 @@
         <v>44606</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8675,7 +8679,7 @@
         <v>44607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8760,7 +8764,7 @@
         <v>44712</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8850,7 +8854,7 @@
         <v>44728</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8940,7 +8944,7 @@
         <v>44742</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9025,7 +9029,7 @@
         <v>44779</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9114,7 +9118,7 @@
         <v>44796</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9204,7 +9208,7 @@
         <v>44874</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9294,7 +9298,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9384,7 +9388,7 @@
         <v>44875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9469,7 +9473,7 @@
         <v>44938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9554,7 +9558,7 @@
         <v>45013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9639,7 +9643,7 @@
         <v>45021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9729,7 +9733,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9823,7 +9827,7 @@
         <v>45048</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9913,7 +9917,7 @@
         <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10003,7 +10007,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10093,7 +10097,7 @@
         <v>45070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10183,7 +10187,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10268,7 +10272,7 @@
         <v>45071</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10353,7 +10357,7 @@
         <v>45075</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10438,7 +10442,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10523,7 +10527,7 @@
         <v>45093</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10608,7 +10612,7 @@
         <v>45107</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10698,7 +10702,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10783,7 +10787,7 @@
         <v>45135</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10873,7 +10877,7 @@
         <v>43320</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10930,7 +10934,7 @@
         <v>43327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10987,7 +10991,7 @@
         <v>43343</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11049,7 +11053,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11111,7 +11115,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11168,7 +11172,7 @@
         <v>43360</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11230,7 +11234,7 @@
         <v>43376</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11287,7 +11291,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11344,7 +11348,7 @@
         <v>43381</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11401,7 +11405,7 @@
         <v>43384</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11463,7 +11467,7 @@
         <v>43398</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11520,7 +11524,7 @@
         <v>43410</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11582,7 +11586,7 @@
         <v>43423</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11639,7 +11643,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11696,7 +11700,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11753,7 +11757,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11810,7 +11814,7 @@
         <v>43430</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11872,7 +11876,7 @@
         <v>43432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11934,7 +11938,7 @@
         <v>43448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11996,7 +12000,7 @@
         <v>43453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12053,7 +12057,7 @@
         <v>43468</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12110,7 +12114,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12167,7 +12171,7 @@
         <v>43469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12224,7 +12228,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12281,7 +12285,7 @@
         <v>43472</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12338,7 +12342,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12400,7 +12404,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12457,7 +12461,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12519,7 +12523,7 @@
         <v>43473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12576,7 +12580,7 @@
         <v>43474</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12633,7 +12637,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12695,7 +12699,7 @@
         <v>43476</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12757,7 +12761,7 @@
         <v>43479</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12814,7 +12818,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12871,7 +12875,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12928,7 +12932,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12985,7 +12989,7 @@
         <v>43480</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13042,7 +13046,7 @@
         <v>43482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13099,7 +13103,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13156,7 +13160,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13213,7 +13217,7 @@
         <v>43483</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13270,7 +13274,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13332,7 +13336,7 @@
         <v>43484</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13389,7 +13393,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13446,7 +13450,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13503,7 +13507,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13560,7 +13564,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13617,7 +13621,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13674,7 +13678,7 @@
         <v>43486</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13731,7 +13735,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13788,7 +13792,7 @@
         <v>43487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13845,7 +13849,7 @@
         <v>43489</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13902,7 +13906,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13959,7 +13963,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14016,7 +14020,7 @@
         <v>43493</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14073,7 +14077,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14130,7 +14134,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14187,7 +14191,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14244,7 +14248,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14301,7 +14305,7 @@
         <v>43495</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14358,7 +14362,7 @@
         <v>43500</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14415,7 +14419,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14472,7 +14476,7 @@
         <v>43502</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14529,7 +14533,7 @@
         <v>43503</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14591,7 +14595,7 @@
         <v>43507</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14653,7 +14657,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14710,7 +14714,7 @@
         <v>43508</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14772,7 +14776,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14834,7 +14838,7 @@
         <v>43509</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14896,7 +14900,7 @@
         <v>43514</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14953,7 +14957,7 @@
         <v>43515</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15010,7 +15014,7 @@
         <v>43517</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15072,7 +15076,7 @@
         <v>43518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15129,7 +15133,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15186,7 +15190,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15243,7 +15247,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15300,7 +15304,7 @@
         <v>43521</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15357,7 +15361,7 @@
         <v>43522</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15414,7 +15418,7 @@
         <v>43523</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15471,7 +15475,7 @@
         <v>43524</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15528,7 +15532,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15585,7 +15589,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15642,7 +15646,7 @@
         <v>43529</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15704,7 +15708,7 @@
         <v>43530</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15761,7 +15765,7 @@
         <v>43531</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15823,7 +15827,7 @@
         <v>43535</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15880,7 +15884,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15937,7 +15941,7 @@
         <v>43536</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15994,7 +15998,7 @@
         <v>43537</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16056,7 +16060,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16118,7 +16122,7 @@
         <v>43538</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16175,7 +16179,7 @@
         <v>43545</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16237,7 +16241,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16299,7 +16303,7 @@
         <v>43550</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16361,7 +16365,7 @@
         <v>43560</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16418,7 +16422,7 @@
         <v>43561</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16480,7 +16484,7 @@
         <v>43562</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16537,7 +16541,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16599,7 +16603,7 @@
         <v>43573</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16656,7 +16660,7 @@
         <v>43580</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16718,7 +16722,7 @@
         <v>43590</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16795,7 +16799,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16852,7 +16856,7 @@
         <v>43591</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16909,7 +16913,7 @@
         <v>43605</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16966,7 +16970,7 @@
         <v>43607</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17028,7 +17032,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17090,7 +17094,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17152,7 +17156,7 @@
         <v>43612</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17209,7 +17213,7 @@
         <v>43613</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17271,7 +17275,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17333,7 +17337,7 @@
         <v>43618</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17395,7 +17399,7 @@
         <v>43623</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17452,7 +17456,7 @@
         <v>43635</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17514,7 +17518,7 @@
         <v>43642</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17571,7 +17575,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17628,7 +17632,7 @@
         <v>43647</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17685,7 +17689,7 @@
         <v>43651</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17742,7 +17746,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17799,7 +17803,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17856,7 +17860,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17913,7 +17917,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17970,7 +17974,7 @@
         <v>43686</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18027,7 +18031,7 @@
         <v>43692</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18084,7 +18088,7 @@
         <v>43699</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18146,7 +18150,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18203,7 +18207,7 @@
         <v>43706</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18265,7 +18269,7 @@
         <v>43713</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18322,7 +18326,7 @@
         <v>43717</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18384,7 +18388,7 @@
         <v>43723</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18441,7 +18445,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18498,7 +18502,7 @@
         <v>43739</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18560,7 +18564,7 @@
         <v>43748</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18622,7 +18626,7 @@
         <v>43755</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18679,7 +18683,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18736,7 +18740,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18798,7 +18802,7 @@
         <v>43773</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18855,7 +18859,7 @@
         <v>43782</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18917,7 +18921,7 @@
         <v>43787</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18979,7 +18983,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19036,7 +19040,7 @@
         <v>43795</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19098,7 +19102,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19155,7 +19159,7 @@
         <v>43802</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19212,7 +19216,7 @@
         <v>43808</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19269,7 +19273,7 @@
         <v>43810</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19331,7 +19335,7 @@
         <v>43812</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19393,7 +19397,7 @@
         <v>43817</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19450,7 +19454,7 @@
         <v>43821</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19512,7 +19516,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19574,7 +19578,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19636,7 +19640,7 @@
         <v>43838</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19698,7 +19702,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19760,7 +19764,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19822,7 +19826,7 @@
         <v>43850</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19879,7 +19883,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19936,7 +19940,7 @@
         <v>43855</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19998,7 +20002,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20055,7 +20059,7 @@
         <v>43865</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20117,7 +20121,7 @@
         <v>43873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20179,7 +20183,7 @@
         <v>43882</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20236,7 +20240,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20298,7 +20302,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20360,7 +20364,7 @@
         <v>43895</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20422,7 +20426,7 @@
         <v>43901</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20484,7 +20488,7 @@
         <v>43902</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20546,7 +20550,7 @@
         <v>43903</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20608,7 +20612,7 @@
         <v>43906</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20665,7 +20669,7 @@
         <v>43909</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20727,7 +20731,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20789,7 +20793,7 @@
         <v>43910</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20851,7 +20855,7 @@
         <v>43920</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20908,7 +20912,7 @@
         <v>43936</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20965,7 +20969,7 @@
         <v>43969</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21027,7 +21031,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21089,7 +21093,7 @@
         <v>44007</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21146,7 +21150,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21203,7 +21207,7 @@
         <v>44015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21260,7 +21264,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21317,7 +21321,7 @@
         <v>44038</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21379,7 +21383,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21441,7 +21445,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21503,7 +21507,7 @@
         <v>44040</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21565,7 +21569,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21627,7 +21631,7 @@
         <v>44043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21689,7 +21693,7 @@
         <v>44060</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21746,7 +21750,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21808,7 +21812,7 @@
         <v>44064</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21870,7 +21874,7 @@
         <v>44074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21932,7 +21936,7 @@
         <v>44077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21989,7 +21993,7 @@
         <v>44092</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22051,7 +22055,7 @@
         <v>44095</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22108,7 +22112,7 @@
         <v>44098</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22165,7 +22169,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22227,7 +22231,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22289,7 +22293,7 @@
         <v>44118</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22346,7 +22350,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22403,7 +22407,7 @@
         <v>44120</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22460,7 +22464,7 @@
         <v>44133</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22522,7 +22526,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22584,7 +22588,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22646,7 +22650,7 @@
         <v>44140</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22708,7 +22712,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22770,7 +22774,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22832,7 +22836,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22894,7 +22898,7 @@
         <v>44151</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22956,7 +22960,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23013,7 +23017,7 @@
         <v>44155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23075,7 +23079,7 @@
         <v>44160</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23132,7 +23136,7 @@
         <v>44162</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23189,7 +23193,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23246,7 +23250,7 @@
         <v>44167</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23303,7 +23307,7 @@
         <v>44173</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23360,7 +23364,7 @@
         <v>44183</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23417,7 +23421,7 @@
         <v>44186</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23474,7 +23478,7 @@
         <v>44196</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23536,7 +23540,7 @@
         <v>44221</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23593,7 +23597,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23650,7 +23654,7 @@
         <v>44224</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23712,7 +23716,7 @@
         <v>44235</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23769,7 +23773,7 @@
         <v>44238</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23831,7 +23835,7 @@
         <v>44243</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23888,7 +23892,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23950,7 +23954,7 @@
         <v>44258</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24012,7 +24016,7 @@
         <v>44278</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24074,7 +24078,7 @@
         <v>44287</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24131,7 +24135,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24188,7 +24192,7 @@
         <v>44308</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24245,7 +24249,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24302,7 +24306,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24359,7 +24363,7 @@
         <v>44312</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24416,7 +24420,7 @@
         <v>44330</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24473,7 +24477,7 @@
         <v>44336</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24530,7 +24534,7 @@
         <v>44337</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24587,7 +24591,7 @@
         <v>44347</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24644,7 +24648,7 @@
         <v>44354</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24701,7 +24705,7 @@
         <v>44361</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24758,7 +24762,7 @@
         <v>44365</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24820,7 +24824,7 @@
         <v>44368</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24877,7 +24881,7 @@
         <v>44376</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24934,7 +24938,7 @@
         <v>44420</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24991,7 +24995,7 @@
         <v>44425</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25053,7 +25057,7 @@
         <v>44432</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25110,7 +25114,7 @@
         <v>44450</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25167,7 +25171,7 @@
         <v>44460</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25224,7 +25228,7 @@
         <v>44461</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25281,7 +25285,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25338,7 +25342,7 @@
         <v>44462</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25395,7 +25399,7 @@
         <v>44466</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25452,7 +25456,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25514,7 +25518,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25571,7 +25575,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25628,7 +25632,7 @@
         <v>44488</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25685,7 +25689,7 @@
         <v>44491</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25747,7 +25751,7 @@
         <v>44495</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25809,7 +25813,7 @@
         <v>44496</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25866,7 +25870,7 @@
         <v>44498</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25923,7 +25927,7 @@
         <v>44504</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25980,7 +25984,7 @@
         <v>44511</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26037,7 +26041,7 @@
         <v>44512</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26094,7 +26098,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26151,7 +26155,7 @@
         <v>44515</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26213,7 +26217,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26275,7 +26279,7 @@
         <v>44522</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26332,7 +26336,7 @@
         <v>44523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26389,7 +26393,7 @@
         <v>44525</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26446,7 +26450,7 @@
         <v>44531</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26508,7 +26512,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26565,7 +26569,7 @@
         <v>44536</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26622,7 +26626,7 @@
         <v>44546</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26684,7 +26688,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26741,7 +26745,7 @@
         <v>44548</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26803,7 +26807,7 @@
         <v>44550</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26860,7 +26864,7 @@
         <v>44573</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26917,7 +26921,7 @@
         <v>44578</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26974,7 +26978,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27031,7 +27035,7 @@
         <v>44586</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27088,7 +27092,7 @@
         <v>44588</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27150,7 +27154,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27207,7 +27211,7 @@
         <v>44589</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27264,7 +27268,7 @@
         <v>44591</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27321,7 +27325,7 @@
         <v>44597</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27378,7 +27382,7 @@
         <v>44599</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27435,7 +27439,7 @@
         <v>44602</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27497,7 +27501,7 @@
         <v>44605</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27559,7 +27563,7 @@
         <v>44606</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27616,7 +27620,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27673,7 +27677,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27730,7 +27734,7 @@
         <v>44609</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27787,7 +27791,7 @@
         <v>44613</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27844,7 +27848,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27901,7 +27905,7 @@
         <v>44614</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27958,7 +27962,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28015,7 +28019,7 @@
         <v>44622</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28077,7 +28081,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28139,7 +28143,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28201,7 +28205,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28263,7 +28267,7 @@
         <v>44636</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28320,7 +28324,7 @@
         <v>44643</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28377,7 +28381,7 @@
         <v>44644</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28434,7 +28438,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28491,7 +28495,7 @@
         <v>44657</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28548,7 +28552,7 @@
         <v>44659</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28605,7 +28609,7 @@
         <v>44664</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28662,7 +28666,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28719,7 +28723,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28776,7 +28780,7 @@
         <v>44665</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28838,7 +28842,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28900,7 +28904,7 @@
         <v>44667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28962,7 +28966,7 @@
         <v>44669</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29024,7 +29028,7 @@
         <v>44670</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29081,7 +29085,7 @@
         <v>44676</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29138,7 +29142,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29200,7 +29204,7 @@
         <v>44683</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29257,7 +29261,7 @@
         <v>44684</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29314,7 +29318,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29391,7 +29395,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29448,7 +29452,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29505,7 +29509,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29562,7 +29566,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29624,7 +29628,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29681,7 +29685,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29738,7 +29742,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29800,7 +29804,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29857,7 +29861,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29914,7 +29918,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29971,7 +29975,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30033,7 +30037,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30095,7 +30099,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30157,7 +30161,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30214,7 +30218,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30271,7 +30275,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30328,7 +30332,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30390,7 +30394,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30452,7 +30456,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30509,7 +30513,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30566,7 +30570,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30623,7 +30627,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30685,7 +30689,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30742,7 +30746,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30804,7 +30808,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30866,7 +30870,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30923,7 +30927,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30980,7 +30984,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31037,7 +31041,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31094,7 +31098,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31151,7 +31155,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31208,7 +31212,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31265,7 +31269,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31327,7 +31331,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31389,7 +31393,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31451,7 +31455,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31508,7 +31512,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31570,7 +31574,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31627,7 +31631,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31684,7 +31688,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31741,7 +31745,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31798,7 +31802,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31855,7 +31859,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31917,7 +31921,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31974,7 +31978,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32031,7 +32035,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32088,7 +32092,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32150,7 +32154,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32212,7 +32216,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32274,7 +32278,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32336,7 +32340,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32393,7 +32397,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32450,7 +32454,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32512,7 +32516,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32574,7 +32578,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32631,7 +32635,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32688,7 +32692,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32745,7 +32749,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32802,7 +32806,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32859,7 +32863,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32916,7 +32920,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32973,7 +32977,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33030,7 +33034,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33087,7 +33091,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33149,7 +33153,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33206,7 +33210,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33268,7 +33272,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33325,7 +33329,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33382,7 +33386,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33439,7 +33443,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33496,7 +33500,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33553,7 +33557,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33610,7 +33614,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33667,7 +33671,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33724,7 +33728,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33781,7 +33785,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33843,7 +33847,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33905,7 +33909,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33967,7 +33971,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34029,7 +34033,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34091,7 +34095,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34153,7 +34157,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34215,7 +34219,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34277,7 +34281,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34339,7 +34343,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34401,7 +34405,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34458,7 +34462,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34515,7 +34519,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34577,7 +34581,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34639,7 +34643,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34701,7 +34705,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34758,7 +34762,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34815,7 +34819,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34872,7 +34876,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34929,7 +34933,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34986,7 +34990,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35043,7 +35047,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35100,7 +35104,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35157,7 +35161,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35214,7 +35218,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35271,7 +35275,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35328,7 +35332,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35385,7 +35389,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35442,7 +35446,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35499,7 +35503,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35556,7 +35560,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35613,7 +35617,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35675,7 +35679,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35732,7 +35736,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35794,7 +35798,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35851,7 +35855,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35908,7 +35912,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35965,7 +35969,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36022,7 +36026,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36084,7 +36088,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36146,7 +36150,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36208,7 +36212,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36270,7 +36274,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36332,7 +36336,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36389,7 +36393,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36451,7 +36455,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36513,7 +36517,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36575,7 +36579,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36637,7 +36641,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36699,7 +36703,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36761,7 +36765,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36818,7 +36822,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36875,7 +36879,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36932,7 +36936,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36989,7 +36993,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37046,7 +37050,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37103,7 +37107,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37165,7 +37169,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37227,7 +37231,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37284,7 +37288,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37346,7 +37350,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37403,7 +37407,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37460,7 +37464,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37517,7 +37521,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37574,7 +37578,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37631,7 +37635,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37693,7 +37697,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37750,7 +37754,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37812,7 +37816,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37869,7 +37873,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37931,7 +37935,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37988,7 +37992,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38045,7 +38049,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38107,7 +38111,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38169,7 +38173,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38231,7 +38235,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38293,7 +38297,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38350,7 +38354,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38407,7 +38411,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38464,7 +38468,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38526,7 +38530,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38588,7 +38592,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38650,7 +38654,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38712,7 +38716,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38774,7 +38778,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38836,7 +38840,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38898,7 +38902,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38955,7 +38959,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39012,7 +39016,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39074,7 +39078,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39136,7 +39140,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39198,7 +39202,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39260,7 +39264,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39322,7 +39326,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39384,7 +39388,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39446,7 +39450,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39508,7 +39512,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39570,7 +39574,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39632,7 +39636,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39694,7 +39698,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39751,7 +39755,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39808,7 +39812,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39870,7 +39874,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39927,7 +39931,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39989,7 +39993,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40046,7 +40050,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40103,7 +40107,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40165,7 +40169,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43538</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43635</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44662</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44727</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44837</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45006</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45076</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45099</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43573</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>44376</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44858</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44874</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44995</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45092</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44376</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44531</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44739</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44875</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45002</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>45016</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>45054</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43508</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43846</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43882</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44077</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44235</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44495</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44610</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44865</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44874</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44874</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44967</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45055</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45063</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>45092</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45154</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43369</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43468</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43538</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43742</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43959</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>44007</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>44090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44154</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44369</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44501</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44509</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44511</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44517</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>44536</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44606</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>44607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44712</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44728</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44742</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44779</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44796</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>44874</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>45013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>45048</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>45071</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>45075</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45093</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>45107</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45135</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43320</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43343</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43360</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43376</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43381</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43384</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43398</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43410</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43423</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43430</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>43448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43468</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>43469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>43472</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43474</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43476</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43479</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43480</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43483</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43484</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43486</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43489</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>43493</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>43495</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>43500</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>43502</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>43503</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43507</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43508</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43509</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>43514</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>43515</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>43517</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>43518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43521</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43522</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43523</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43524</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>43529</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>43530</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>43531</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43535</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>43536</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>43537</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>43538</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>43545</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43550</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43560</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43561</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43562</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>43573</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>43580</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43590</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43591</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43605</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43607</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>43612</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>43613</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>43618</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43623</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43635</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>43642</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>43647</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>43651</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>43686</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>43692</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>43699</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43706</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43713</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43717</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>43723</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>43739</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>43748</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43755</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>43773</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>43782</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43787</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>43795</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43802</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43808</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43810</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>43812</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>43817</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>43821</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43838</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43850</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43855</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>43865</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>43873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>43882</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>43895</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>43901</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43902</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>43903</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>43906</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>43909</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43910</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43920</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43936</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43969</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>44007</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21150,7 +21150,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44038</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44040</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44060</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44064</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>44074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>44077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>44092</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44095</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44098</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44118</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44120</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>44133</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44140</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44151</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44160</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>44162</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44167</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>44173</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44183</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44186</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44196</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44221</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44224</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44235</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44238</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44243</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>44258</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44278</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44287</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44308</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44312</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44330</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44336</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>44337</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>44347</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44354</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>44361</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>44365</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44368</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44376</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44420</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44425</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44432</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44450</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44460</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44461</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44462</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44466</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44488</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44491</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44495</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44496</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44498</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25927,7 +25927,7 @@
         <v>44504</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44511</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>44512</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26098,7 +26098,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44515</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44522</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44525</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44531</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44536</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44546</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44548</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44550</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>44573</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>44578</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44586</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44588</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>44589</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>44591</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44597</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44599</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44602</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44605</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44606</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44609</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44613</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44614</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44622</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44636</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44643</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44644</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44657</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44659</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44664</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44665</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28904,7 +28904,7 @@
         <v>44667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44669</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44670</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44676</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>44683</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44684</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31574,7 +31574,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31631,7 +31631,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34281,7 +34281,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34519,7 +34519,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34990,7 +34990,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35104,7 +35104,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36393,7 +36393,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36579,7 +36579,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36641,7 +36641,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37169,7 +37169,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37350,7 +37350,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37464,7 +37464,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37697,7 +37697,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38959,7 +38959,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39264,7 +39264,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39326,7 +39326,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39812,7 +39812,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39874,7 +39874,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39931,7 +39931,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43538</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43635</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44662</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44727</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44837</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45006</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45076</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45099</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43573</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>44376</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44858</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44874</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44995</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45092</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44376</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44531</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44739</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44875</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45002</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>45016</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>45054</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43508</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43846</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43882</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44077</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44235</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44495</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44610</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44865</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44874</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44874</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44967</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45055</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45063</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>45092</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45154</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43369</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43468</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43538</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43742</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43959</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>44007</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>44090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44154</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44369</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44501</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44509</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44511</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44517</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>44536</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44606</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>44607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44712</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44728</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44742</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44779</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44796</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>44874</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>45013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>45048</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>45071</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>45075</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45093</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>45107</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45135</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43320</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43343</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43360</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43376</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43381</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43384</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43398</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43410</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43423</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43430</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>43448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43468</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>43469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>43472</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43474</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43476</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43479</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43480</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43483</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43484</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43486</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43489</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>43493</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>43495</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>43500</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>43502</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>43503</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43507</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43508</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43509</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>43514</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>43515</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>43517</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>43518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43521</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43522</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43523</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43524</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>43529</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>43530</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>43531</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43535</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>43536</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>43537</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>43538</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>43545</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43550</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43560</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43561</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43562</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>43573</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>43580</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43590</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43591</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43605</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43607</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>43612</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>43613</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>43618</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43623</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43635</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>43642</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>43647</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>43651</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>43686</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>43692</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>43699</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43706</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43713</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43717</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>43723</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>43739</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>43748</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43755</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>43773</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>43782</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43787</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>43795</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43802</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43808</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43810</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>43812</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>43817</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>43821</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43838</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43850</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43855</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>43865</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>43873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>43882</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>43895</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>43901</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43902</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>43903</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>43906</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>43909</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43910</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43920</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43936</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43969</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>44007</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21150,7 +21150,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44038</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44040</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44060</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44064</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>44074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>44077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>44092</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44095</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44098</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44118</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44120</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>44133</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44140</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44151</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44160</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>44162</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44167</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>44173</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44183</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44186</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44196</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44221</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44224</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44235</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44238</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44243</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>44258</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44278</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44287</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44308</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44312</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44330</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44336</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>44337</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>44347</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44354</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>44361</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>44365</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44368</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44376</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44420</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44425</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44432</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44450</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44460</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44461</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44462</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44466</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44488</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44491</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44495</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44496</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44498</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25927,7 +25927,7 @@
         <v>44504</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44511</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>44512</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26098,7 +26098,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44515</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44522</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44525</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44531</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44536</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44546</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44548</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44550</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>44573</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>44578</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44586</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44588</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>44589</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>44591</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44597</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44599</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44602</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44605</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44606</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44609</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44613</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44614</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44622</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44636</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44643</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44644</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44657</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44659</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44664</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44665</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28904,7 +28904,7 @@
         <v>44667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44669</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44670</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44676</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>44683</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44684</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31574,7 +31574,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31631,7 +31631,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34281,7 +34281,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34519,7 +34519,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34990,7 +34990,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35104,7 +35104,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36393,7 +36393,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36579,7 +36579,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36641,7 +36641,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37169,7 +37169,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37350,7 +37350,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37464,7 +37464,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37697,7 +37697,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38959,7 +38959,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39264,7 +39264,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39326,7 +39326,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39812,7 +39812,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39874,7 +39874,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39931,7 +39931,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43538</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43635</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44662</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44727</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44837</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45006</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45076</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45099</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43573</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>44376</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44858</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44874</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44995</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45092</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44376</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44531</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44739</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44875</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45002</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>45016</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>45054</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43508</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43846</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43882</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44077</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44235</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44495</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44610</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6062,7 +6062,7 @@
         <v>44865</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
         <v>44874</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>44874</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44967</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>45055</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>45063</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         <v>45092</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45154</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6780,7 +6780,7 @@
         <v>43369</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6874,7 +6874,7 @@
         <v>43462</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         <v>43468</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7044,7 +7044,7 @@
         <v>43538</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
         <v>43689</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7214,7 +7214,7 @@
         <v>43742</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7299,7 +7299,7 @@
         <v>43959</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         <v>44007</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7469,7 +7469,7 @@
         <v>44090</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44154</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7644,7 +7644,7 @@
         <v>44369</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>44445</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>44455</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         <v>44455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7989,7 +7989,7 @@
         <v>44501</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8079,7 +8079,7 @@
         <v>44501</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         <v>44509</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44511</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         <v>44517</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>44536</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         <v>44571</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8594,7 +8594,7 @@
         <v>44606</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>44607</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8764,7 +8764,7 @@
         <v>44712</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8854,7 +8854,7 @@
         <v>44728</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44742</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9029,7 +9029,7 @@
         <v>44779</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>44796</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         <v>44874</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9388,7 +9388,7 @@
         <v>44875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9473,7 +9473,7 @@
         <v>44938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>45013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9643,7 +9643,7 @@
         <v>45021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>45048</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9917,7 +9917,7 @@
         <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10007,7 +10007,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>45071</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>45075</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>45093</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>45107</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10702,7 +10702,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10787,7 +10787,7 @@
         <v>45135</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10877,7 +10877,7 @@
         <v>43320</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>43327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10991,7 +10991,7 @@
         <v>43343</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11115,7 +11115,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11172,7 +11172,7 @@
         <v>43360</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43376</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43381</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43384</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11467,7 +11467,7 @@
         <v>43398</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11524,7 +11524,7 @@
         <v>43410</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11586,7 +11586,7 @@
         <v>43423</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11643,7 +11643,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11700,7 +11700,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>43430</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>43432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>43448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12000,7 +12000,7 @@
         <v>43453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12057,7 +12057,7 @@
         <v>43468</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12114,7 +12114,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>43469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>43472</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43474</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         <v>43476</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>43479</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12989,7 +12989,7 @@
         <v>43480</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13046,7 +13046,7 @@
         <v>43482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13103,7 +13103,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13217,7 +13217,7 @@
         <v>43483</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13274,7 +13274,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13336,7 +13336,7 @@
         <v>43484</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13393,7 +13393,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13450,7 +13450,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>43486</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13792,7 +13792,7 @@
         <v>43487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13849,7 +13849,7 @@
         <v>43489</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13906,7 +13906,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13963,7 +13963,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14020,7 +14020,7 @@
         <v>43493</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>43495</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>43500</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>43502</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>43503</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>43507</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>43508</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14838,7 +14838,7 @@
         <v>43509</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>43514</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>43515</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>43517</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15076,7 +15076,7 @@
         <v>43518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15190,7 +15190,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15247,7 +15247,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15304,7 +15304,7 @@
         <v>43521</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15361,7 +15361,7 @@
         <v>43522</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15418,7 +15418,7 @@
         <v>43523</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15475,7 +15475,7 @@
         <v>43524</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15532,7 +15532,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15589,7 +15589,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>43529</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15708,7 +15708,7 @@
         <v>43530</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15765,7 +15765,7 @@
         <v>43531</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15827,7 +15827,7 @@
         <v>43535</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15884,7 +15884,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         <v>43536</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15998,7 +15998,7 @@
         <v>43537</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16122,7 +16122,7 @@
         <v>43538</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16179,7 +16179,7 @@
         <v>43545</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16241,7 +16241,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16303,7 +16303,7 @@
         <v>43550</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>43560</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>43561</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>43562</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>43573</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16660,7 +16660,7 @@
         <v>43580</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16722,7 +16722,7 @@
         <v>43590</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>43591</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>43605</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>43607</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17156,7 +17156,7 @@
         <v>43612</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>43613</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17275,7 +17275,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>43618</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17399,7 +17399,7 @@
         <v>43623</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17456,7 +17456,7 @@
         <v>43635</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17518,7 +17518,7 @@
         <v>43642</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17575,7 +17575,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>43647</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17689,7 +17689,7 @@
         <v>43651</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17860,7 +17860,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17917,7 +17917,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17974,7 +17974,7 @@
         <v>43686</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18031,7 +18031,7 @@
         <v>43692</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18088,7 +18088,7 @@
         <v>43699</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18150,7 +18150,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18207,7 +18207,7 @@
         <v>43706</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>43713</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>43717</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>43723</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>43739</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>43748</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>43755</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18802,7 +18802,7 @@
         <v>43773</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18859,7 +18859,7 @@
         <v>43782</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>43787</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18983,7 +18983,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19040,7 +19040,7 @@
         <v>43795</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19102,7 +19102,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>43802</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19216,7 +19216,7 @@
         <v>43808</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19273,7 +19273,7 @@
         <v>43810</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>43812</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         <v>43817</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19454,7 +19454,7 @@
         <v>43821</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19516,7 +19516,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>43838</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19702,7 +19702,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19826,7 +19826,7 @@
         <v>43850</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19883,7 +19883,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>43855</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20002,7 +20002,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20059,7 +20059,7 @@
         <v>43865</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>43873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20183,7 +20183,7 @@
         <v>43882</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20302,7 +20302,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20364,7 +20364,7 @@
         <v>43895</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20426,7 +20426,7 @@
         <v>43901</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20488,7 +20488,7 @@
         <v>43902</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20550,7 +20550,7 @@
         <v>43903</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20612,7 +20612,7 @@
         <v>43906</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20669,7 +20669,7 @@
         <v>43909</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20731,7 +20731,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20793,7 +20793,7 @@
         <v>43910</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20855,7 +20855,7 @@
         <v>43920</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>43936</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20969,7 +20969,7 @@
         <v>43969</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21031,7 +21031,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>44007</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21150,7 +21150,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>44015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>44038</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21445,7 +21445,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21507,7 +21507,7 @@
         <v>44040</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21569,7 +21569,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>44060</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21750,7 +21750,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21812,7 +21812,7 @@
         <v>44064</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>44074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21936,7 +21936,7 @@
         <v>44077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21993,7 +21993,7 @@
         <v>44092</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22055,7 +22055,7 @@
         <v>44095</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>44098</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22169,7 +22169,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>44118</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>44120</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>44133</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22526,7 +22526,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22588,7 +22588,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44140</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22712,7 +22712,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22774,7 +22774,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22836,7 +22836,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22898,7 +22898,7 @@
         <v>44151</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22960,7 +22960,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23017,7 +23017,7 @@
         <v>44155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>44160</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>44162</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>44167</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>44173</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>44183</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44186</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44196</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23540,7 +23540,7 @@
         <v>44221</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23597,7 +23597,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
         <v>44224</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23716,7 +23716,7 @@
         <v>44235</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23773,7 +23773,7 @@
         <v>44238</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23835,7 +23835,7 @@
         <v>44243</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23892,7 +23892,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23954,7 +23954,7 @@
         <v>44258</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24016,7 +24016,7 @@
         <v>44278</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24078,7 +24078,7 @@
         <v>44287</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24135,7 +24135,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24192,7 +24192,7 @@
         <v>44308</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24249,7 +24249,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24306,7 +24306,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24363,7 +24363,7 @@
         <v>44312</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24420,7 +24420,7 @@
         <v>44330</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24477,7 +24477,7 @@
         <v>44336</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24534,7 +24534,7 @@
         <v>44337</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24591,7 +24591,7 @@
         <v>44347</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24648,7 +24648,7 @@
         <v>44354</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24705,7 +24705,7 @@
         <v>44361</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24762,7 +24762,7 @@
         <v>44365</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24824,7 +24824,7 @@
         <v>44368</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24881,7 +24881,7 @@
         <v>44376</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24938,7 +24938,7 @@
         <v>44420</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24995,7 +24995,7 @@
         <v>44425</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25057,7 +25057,7 @@
         <v>44432</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25114,7 +25114,7 @@
         <v>44450</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25171,7 +25171,7 @@
         <v>44460</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25228,7 +25228,7 @@
         <v>44461</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25285,7 +25285,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25342,7 +25342,7 @@
         <v>44462</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25399,7 +25399,7 @@
         <v>44466</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>44488</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>44491</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>44495</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25813,7 +25813,7 @@
         <v>44496</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25870,7 +25870,7 @@
         <v>44498</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25927,7 +25927,7 @@
         <v>44504</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44511</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>44512</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26098,7 +26098,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26155,7 +26155,7 @@
         <v>44515</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26279,7 +26279,7 @@
         <v>44522</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26336,7 +26336,7 @@
         <v>44523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26393,7 +26393,7 @@
         <v>44525</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>44531</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>44536</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>44546</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26688,7 +26688,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26745,7 +26745,7 @@
         <v>44548</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26807,7 +26807,7 @@
         <v>44550</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26864,7 +26864,7 @@
         <v>44573</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26921,7 +26921,7 @@
         <v>44578</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26978,7 +26978,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27035,7 +27035,7 @@
         <v>44586</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27092,7 +27092,7 @@
         <v>44588</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27154,7 +27154,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27211,7 +27211,7 @@
         <v>44589</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27268,7 +27268,7 @@
         <v>44591</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27325,7 +27325,7 @@
         <v>44597</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>44599</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27439,7 +27439,7 @@
         <v>44602</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44605</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27563,7 +27563,7 @@
         <v>44606</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>44609</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27791,7 +27791,7 @@
         <v>44613</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27848,7 +27848,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27905,7 +27905,7 @@
         <v>44614</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27962,7 +27962,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28019,7 +28019,7 @@
         <v>44622</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28081,7 +28081,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28143,7 +28143,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28205,7 +28205,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28267,7 +28267,7 @@
         <v>44636</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28324,7 +28324,7 @@
         <v>44643</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28381,7 +28381,7 @@
         <v>44644</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28495,7 +28495,7 @@
         <v>44657</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28552,7 +28552,7 @@
         <v>44659</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28609,7 +28609,7 @@
         <v>44664</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28780,7 +28780,7 @@
         <v>44665</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28842,7 +28842,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28904,7 +28904,7 @@
         <v>44667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28966,7 +28966,7 @@
         <v>44669</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29028,7 +29028,7 @@
         <v>44670</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29085,7 +29085,7 @@
         <v>44676</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29142,7 +29142,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29204,7 +29204,7 @@
         <v>44683</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29261,7 +29261,7 @@
         <v>44684</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29318,7 +29318,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29395,7 +29395,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29452,7 +29452,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29509,7 +29509,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29804,7 +29804,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29861,7 +29861,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29918,7 +29918,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29975,7 +29975,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30037,7 +30037,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30099,7 +30099,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30161,7 +30161,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30218,7 +30218,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30275,7 +30275,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30332,7 +30332,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30394,7 +30394,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30456,7 +30456,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30513,7 +30513,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30627,7 +30627,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30689,7 +30689,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30746,7 +30746,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30808,7 +30808,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30870,7 +30870,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30927,7 +30927,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30984,7 +30984,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31041,7 +31041,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31098,7 +31098,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31212,7 +31212,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31269,7 +31269,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31331,7 +31331,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31393,7 +31393,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31455,7 +31455,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31512,7 +31512,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31574,7 +31574,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31631,7 +31631,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31745,7 +31745,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31802,7 +31802,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31859,7 +31859,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31921,7 +31921,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31978,7 +31978,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32035,7 +32035,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32154,7 +32154,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32216,7 +32216,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32278,7 +32278,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32340,7 +32340,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32397,7 +32397,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32454,7 +32454,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32635,7 +32635,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32692,7 +32692,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32749,7 +32749,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32863,7 +32863,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32920,7 +32920,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32977,7 +32977,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33034,7 +33034,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33153,7 +33153,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33210,7 +33210,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33847,7 +33847,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33909,7 +33909,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33971,7 +33971,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34095,7 +34095,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34281,7 +34281,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34343,7 +34343,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34405,7 +34405,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34462,7 +34462,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34519,7 +34519,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34643,7 +34643,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34990,7 +34990,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35104,7 +35104,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35161,7 +35161,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35218,7 +35218,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35275,7 +35275,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35332,7 +35332,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35389,7 +35389,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35446,7 +35446,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35503,7 +35503,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35617,7 +35617,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35679,7 +35679,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35798,7 +35798,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35855,7 +35855,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35912,7 +35912,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35969,7 +35969,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36026,7 +36026,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36088,7 +36088,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36150,7 +36150,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36212,7 +36212,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36274,7 +36274,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36393,7 +36393,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36517,7 +36517,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36579,7 +36579,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36641,7 +36641,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36765,7 +36765,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36822,7 +36822,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36879,7 +36879,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36993,7 +36993,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37050,7 +37050,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37169,7 +37169,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37231,7 +37231,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37288,7 +37288,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37350,7 +37350,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37407,7 +37407,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37464,7 +37464,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37521,7 +37521,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37578,7 +37578,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37635,7 +37635,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37697,7 +37697,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37754,7 +37754,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37816,7 +37816,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37873,7 +37873,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37935,7 +37935,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37992,7 +37992,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38049,7 +38049,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38111,7 +38111,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38173,7 +38173,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38235,7 +38235,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38297,7 +38297,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38354,7 +38354,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38411,7 +38411,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38468,7 +38468,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38716,7 +38716,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38778,7 +38778,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38840,7 +38840,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38902,7 +38902,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38959,7 +38959,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39016,7 +39016,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39078,7 +39078,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39140,7 +39140,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39202,7 +39202,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39264,7 +39264,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39326,7 +39326,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39388,7 +39388,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39450,7 +39450,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39512,7 +39512,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39574,7 +39574,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39636,7 +39636,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39698,7 +39698,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39755,7 +39755,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39812,7 +39812,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39874,7 +39874,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39931,7 +39931,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39993,7 +39993,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40050,7 +40050,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40107,7 +40107,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40169,7 +40169,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>45076</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>43447</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2334,7 +2334,7 @@
         <v>43538</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>43635</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44021</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2610,7 +2610,7 @@
         <v>44546</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2699,7 +2699,7 @@
         <v>44559</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         <v>44572</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>44662</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>44727</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44837</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45006</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>45076</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45099</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
         <v>43573</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3598,7 +3598,7 @@
         <v>44376</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44858</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3774,7 +3774,7 @@
         <v>44874</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44995</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>45092</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         <v>43480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44376</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4314,7 +4314,7 @@
         <v>44474</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4406,7 +4406,7 @@
         <v>44531</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>44739</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4585,7 +4585,7 @@
         <v>44875</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         <v>44998</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
         <v>45002</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>45016</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4933,7 +4933,7 @@
         <v>45054</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         <v>43508</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
         <v>43846</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43882</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5283,7 +5283,7 @@
         <v>44077</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5369,7 +5369,7 @@
         <v>44148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>44235</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5546,7 +5546,7 @@
         <v>44495</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>44525</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>44529</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>44555</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>44610</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
         <v>44644</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6055,14 +6055,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49910-2022</t>
+          <t>A 32140-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44865</v>
+        <v>44779</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6074,25 +6074,20 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" t="n">
         <v>0</v>
@@ -6104,777 +6099,778 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" t="n">
         <v>2</v>
       </c>
       <c r="R62" s="2" t="inlineStr">
         <is>
+          <t>Knärot
+Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="S62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 32140-2022.xlsx")</f>
+        <v/>
+      </c>
+      <c r="T62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 32140-2022.png")</f>
+        <v/>
+      </c>
+      <c r="U62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/knärot/A 32140-2022.png")</f>
+        <v/>
+      </c>
+      <c r="V62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 32140-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="W62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 32140-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="X62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 32140-2022.docx")</f>
+        <v/>
+      </c>
+      <c r="Y62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 32140-2022.docx")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>A 49910-2022</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>44865</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" s="2" t="inlineStr">
+        <is>
           <t>Svartvit flugsnappare
 Sävsparv</t>
         </is>
       </c>
-      <c r="S62">
+      <c r="S63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 49910-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T62">
+      <c r="T63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 49910-2022.png")</f>
         <v/>
       </c>
-      <c r="V62">
+      <c r="V63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 49910-2022.docx")</f>
         <v/>
       </c>
-      <c r="W62">
+      <c r="W63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 49910-2022.docx")</f>
         <v/>
       </c>
-      <c r="X62">
+      <c r="X63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 49910-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y62">
+      <c r="Y63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 49910-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="15" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>A 52658-2022</t>
         </is>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B64" s="1" t="n">
         <v>44874</v>
       </c>
-      <c r="C63" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
+      <c r="C64" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G63" t="n">
+      <c r="G64" t="n">
         <v>1.4</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H64" t="n">
         <v>2</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
         <v>2</v>
       </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
         <v>2</v>
       </c>
-      <c r="P63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="n">
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
         <v>2</v>
       </c>
-      <c r="R63" s="2" t="inlineStr">
+      <c r="R64" s="2" t="inlineStr">
         <is>
           <t>Strandskata
 Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S63">
+      <c r="S64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52658-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T63">
+      <c r="T64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52658-2022.png")</f>
         <v/>
       </c>
-      <c r="V63">
+      <c r="V64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52658-2022.docx")</f>
         <v/>
       </c>
-      <c r="W63">
+      <c r="W64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52658-2022.docx")</f>
         <v/>
       </c>
-      <c r="X63">
+      <c r="X64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52658-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y63">
+      <c r="Y64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52658-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="15" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>A 52654-2022</t>
         </is>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B65" s="1" t="n">
         <v>44874</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
+      <c r="C65" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G64" t="n">
+      <c r="G65" t="n">
         <v>5.2</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H65" t="n">
         <v>2</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
         <v>2</v>
       </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
         <v>2</v>
       </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
         <v>2</v>
       </c>
-      <c r="R64" s="2" t="inlineStr">
+      <c r="R65" s="2" t="inlineStr">
         <is>
           <t>Fiskmås
 Strandskata</t>
         </is>
       </c>
-      <c r="S64">
+      <c r="S65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52654-2022.xlsx")</f>
         <v/>
       </c>
-      <c r="T64">
+      <c r="T65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52654-2022.png")</f>
         <v/>
       </c>
-      <c r="V64">
+      <c r="V65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52654-2022.docx")</f>
         <v/>
       </c>
-      <c r="W64">
+      <c r="W65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52654-2022.docx")</f>
         <v/>
       </c>
-      <c r="X64">
+      <c r="X65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52654-2022.docx")</f>
         <v/>
       </c>
-      <c r="Y64">
+      <c r="Y65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52654-2022.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="15" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>A 6981-2023</t>
         </is>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B66" s="1" t="n">
         <v>44967</v>
       </c>
-      <c r="C65" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G65" t="n">
+      <c r="C66" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
         <v>3.2</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H66" t="n">
         <v>1</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>1</v>
       </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
         <v>2</v>
       </c>
-      <c r="R65" s="2" t="inlineStr">
+      <c r="R66" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Större vattensalamander</t>
         </is>
       </c>
-      <c r="S65">
+      <c r="S66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 6981-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T65">
+      <c r="T66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 6981-2023.png")</f>
         <v/>
       </c>
-      <c r="V65">
+      <c r="V66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 6981-2023.docx")</f>
         <v/>
       </c>
-      <c r="W65">
+      <c r="W66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 6981-2023.docx")</f>
         <v/>
       </c>
-      <c r="X65">
+      <c r="X66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 6981-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y65">
+      <c r="Y66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 6981-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1">
-      <c r="A66" t="inlineStr">
+    <row r="67" ht="15" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>A 20115-2023</t>
         </is>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B67" s="1" t="n">
         <v>45055</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G66" t="n">
+      <c r="C67" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
         <v>13.4</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>2</v>
       </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
         <v>2</v>
       </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
         <v>2</v>
       </c>
-      <c r="R66" s="2" t="inlineStr">
+      <c r="R67" s="2" t="inlineStr">
         <is>
           <t>Grantaggsvamp
 Leopardsköldbagge</t>
         </is>
       </c>
-      <c r="S66">
+      <c r="S67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 20115-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T66">
+      <c r="T67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 20115-2023.png")</f>
         <v/>
       </c>
-      <c r="V66">
+      <c r="V67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 20115-2023.docx")</f>
         <v/>
       </c>
-      <c r="W66">
+      <c r="W67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 20115-2023.docx")</f>
         <v/>
       </c>
-      <c r="X66">
+      <c r="X67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 20115-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y66">
+      <c r="Y67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 20115-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="A67" t="inlineStr">
+    <row r="68" ht="15" customHeight="1">
+      <c r="A68" t="inlineStr">
         <is>
           <t>A 21422-2023</t>
         </is>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B68" s="1" t="n">
         <v>45063</v>
       </c>
-      <c r="C67" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
+      <c r="C68" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G67" t="n">
+      <c r="G68" t="n">
         <v>2.8</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H68" t="n">
         <v>2</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>1</v>
       </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
         <v>2</v>
       </c>
-      <c r="R67" s="2" t="inlineStr">
+      <c r="R68" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Dvärgpipistrell</t>
         </is>
       </c>
-      <c r="S67">
+      <c r="S68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 21422-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T67">
+      <c r="T68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 21422-2023.png")</f>
         <v/>
       </c>
-      <c r="V67">
+      <c r="V68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 21422-2023.docx")</f>
         <v/>
       </c>
-      <c r="W67">
+      <c r="W68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 21422-2023.docx")</f>
         <v/>
       </c>
-      <c r="X67">
+      <c r="X68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 21422-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y67">
+      <c r="Y68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 21422-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1">
-      <c r="A68" t="inlineStr">
+    <row r="69" ht="15" customHeight="1">
+      <c r="A69" t="inlineStr">
         <is>
           <t>A 26602-2023</t>
         </is>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B69" s="1" t="n">
         <v>45092</v>
       </c>
-      <c r="C68" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
+      <c r="C69" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G68" t="n">
+      <c r="G69" t="n">
         <v>1.6</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H69" t="n">
         <v>2</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>2</v>
       </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>2</v>
       </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
         <v>2</v>
       </c>
-      <c r="R68" s="2" t="inlineStr">
+      <c r="R69" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Skrattmås</t>
         </is>
       </c>
-      <c r="S68">
+      <c r="S69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 26602-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T68">
+      <c r="T69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 26602-2023.png")</f>
         <v/>
       </c>
-      <c r="V68">
+      <c r="V69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 26602-2023.docx")</f>
         <v/>
       </c>
-      <c r="W68">
+      <c r="W69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 26602-2023.docx")</f>
         <v/>
       </c>
-      <c r="X68">
+      <c r="X69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 26602-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y68">
+      <c r="Y69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 26602-2023.docx")</f>
         <v/>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" t="inlineStr">
+    <row r="70" ht="15" customHeight="1">
+      <c r="A70" t="inlineStr">
         <is>
           <t>A 36876-2023</t>
         </is>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B70" s="1" t="n">
         <v>45154</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
+      <c r="C70" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G69" t="n">
+      <c r="G70" t="n">
         <v>12.6</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H70" t="n">
         <v>1</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>2</v>
       </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
         <v>2</v>
       </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
         <v>2</v>
       </c>
-      <c r="R69" s="2" t="inlineStr">
+      <c r="R70" s="2" t="inlineStr">
         <is>
           <t>Slaguggla
 Slåtterfibbla</t>
         </is>
       </c>
-      <c r="S69">
+      <c r="S70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 36876-2023.xlsx")</f>
         <v/>
       </c>
-      <c r="T69">
+      <c r="T70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 36876-2023.png")</f>
         <v/>
       </c>
-      <c r="V69">
+      <c r="V70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 36876-2023.docx")</f>
         <v/>
       </c>
-      <c r="W69">
+      <c r="W70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 36876-2023.docx")</f>
         <v/>
       </c>
-      <c r="X69">
+      <c r="X70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 36876-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y69">
+      <c r="Y70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 36876-2023.docx")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" ht="15" customHeight="1">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>A 47201-2018</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>43369</v>
-      </c>
-      <c r="C70" s="1" t="n">
-        <v>45182</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>1</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>1</v>
-      </c>
-      <c r="R70" s="2" t="inlineStr">
-        <is>
-          <t>Korskovall</t>
-        </is>
-      </c>
-      <c r="S70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 47201-2018.xlsx")</f>
-        <v/>
-      </c>
-      <c r="T70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 47201-2018.png")</f>
-        <v/>
-      </c>
-      <c r="U70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/knärot/A 47201-2018.png")</f>
-        <v/>
-      </c>
-      <c r="V70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 47201-2018.docx")</f>
-        <v/>
-      </c>
-      <c r="W70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 47201-2018.docx")</f>
-        <v/>
-      </c>
-      <c r="X70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 47201-2018.docx")</f>
-        <v/>
-      </c>
-      <c r="Y70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 47201-2018.docx")</f>
         <v/>
       </c>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 72543-2018</t>
+          <t>A 47201-2018</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>43462</v>
+        <v>43369</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6886,18 +6882,23 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>9.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
         <v>1</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -6921,45 +6922,49 @@
       </c>
       <c r="R71" s="2" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Korskovall</t>
         </is>
       </c>
       <c r="S71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 72543-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 47201-2018.xlsx")</f>
         <v/>
       </c>
       <c r="T71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 72543-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 47201-2018.png")</f>
+        <v/>
+      </c>
+      <c r="U71">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/knärot/A 47201-2018.png")</f>
         <v/>
       </c>
       <c r="V71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 72543-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 47201-2018.docx")</f>
         <v/>
       </c>
       <c r="W71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 72543-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 47201-2018.docx")</f>
         <v/>
       </c>
       <c r="X71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 72543-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 47201-2018.docx")</f>
         <v/>
       </c>
       <c r="Y71">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 72543-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 47201-2018.docx")</f>
         <v/>
       </c>
     </row>
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 463-2019</t>
+          <t>A 72543-2018</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>43468</v>
+        <v>43462</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6972,10 +6977,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -7006,45 +7011,45 @@
       </c>
       <c r="R72" s="2" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="S72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 463-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 72543-2018.xlsx")</f>
         <v/>
       </c>
       <c r="T72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 463-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 72543-2018.png")</f>
         <v/>
       </c>
       <c r="V72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 463-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 72543-2018.docx")</f>
         <v/>
       </c>
       <c r="W72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 463-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 72543-2018.docx")</f>
         <v/>
       </c>
       <c r="X72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 463-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 72543-2018.docx")</f>
         <v/>
       </c>
       <c r="Y72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 463-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 72543-2018.docx")</f>
         <v/>
       </c>
     </row>
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15000-2019</t>
+          <t>A 463-2019</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>43538</v>
+        <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7057,7 +7062,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>12.3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
@@ -7095,41 +7100,41 @@
         </is>
       </c>
       <c r="S73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 15000-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 463-2019.xlsx")</f>
         <v/>
       </c>
       <c r="T73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 15000-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 463-2019.png")</f>
         <v/>
       </c>
       <c r="V73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 15000-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 463-2019.docx")</f>
         <v/>
       </c>
       <c r="W73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 15000-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 463-2019.docx")</f>
         <v/>
       </c>
       <c r="X73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 15000-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 463-2019.docx")</f>
         <v/>
       </c>
       <c r="Y73">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 15000-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 463-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38957-2019</t>
+          <t>A 15000-2019</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>43689</v>
+        <v>43538</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7142,16 +7147,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>12.3</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -7166,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P74" t="n">
         <v>0</v>
@@ -7176,45 +7181,45 @@
       </c>
       <c r="R74" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="S74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 38957-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 15000-2019.xlsx")</f>
         <v/>
       </c>
       <c r="T74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 38957-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 15000-2019.png")</f>
         <v/>
       </c>
       <c r="V74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 38957-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 15000-2019.docx")</f>
         <v/>
       </c>
       <c r="W74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 38957-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 15000-2019.docx")</f>
         <v/>
       </c>
       <c r="X74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 38957-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 15000-2019.docx")</f>
         <v/>
       </c>
       <c r="Y74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 38957-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 15000-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52004-2019</t>
+          <t>A 38957-2019</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43742</v>
+        <v>43689</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7227,17 +7232,17 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
         <v>1</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
@@ -7251,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P75" t="n">
         <v>0</v>
@@ -7261,45 +7266,45 @@
       </c>
       <c r="R75" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52004-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 38957-2019.xlsx")</f>
         <v/>
       </c>
       <c r="T75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52004-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 38957-2019.png")</f>
         <v/>
       </c>
       <c r="V75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 38957-2019.docx")</f>
         <v/>
       </c>
       <c r="W75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 38957-2019.docx")</f>
         <v/>
       </c>
       <c r="X75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 38957-2019.docx")</f>
         <v/>
       </c>
       <c r="Y75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52004-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 38957-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 22044-2020</t>
+          <t>A 52004-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43959</v>
+        <v>43742</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7312,13 +7317,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
@@ -7346,45 +7351,45 @@
       </c>
       <c r="R76" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 22044-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52004-2019.xlsx")</f>
         <v/>
       </c>
       <c r="T76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 22044-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52004-2019.png")</f>
         <v/>
       </c>
       <c r="V76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 22044-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52004-2019.docx")</f>
         <v/>
       </c>
       <c r="W76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 22044-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52004-2019.docx")</f>
         <v/>
       </c>
       <c r="X76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 22044-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52004-2019.docx")</f>
         <v/>
       </c>
       <c r="Y76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 22044-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52004-2019.docx")</f>
         <v/>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30405-2020</t>
+          <t>A 22044-2020</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44007</v>
+        <v>43959</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7397,19 +7402,19 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>0</v>
@@ -7421,55 +7426,55 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
         <v>1</v>
       </c>
       <c r="R77" s="2" t="inlineStr">
         <is>
-          <t>Gulvit blekspik</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 30405-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 22044-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 30405-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 22044-2020.png")</f>
         <v/>
       </c>
       <c r="V77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 30405-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 22044-2020.docx")</f>
         <v/>
       </c>
       <c r="W77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 30405-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 22044-2020.docx")</f>
         <v/>
       </c>
       <c r="X77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 30405-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 22044-2020.docx")</f>
         <v/>
       </c>
       <c r="Y77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 30405-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 22044-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 45714-2020</t>
+          <t>A 30405-2020</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44090</v>
+        <v>44007</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7481,13 +7486,8 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>10.8</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -7496,10 +7496,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
         <v>1</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -7514,52 +7514,52 @@
         <v>1</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="n">
         <v>1</v>
       </c>
       <c r="R78" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Gulvit blekspik</t>
         </is>
       </c>
       <c r="S78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 45714-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 30405-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 45714-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 30405-2020.png")</f>
         <v/>
       </c>
       <c r="V78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 45714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 30405-2020.docx")</f>
         <v/>
       </c>
       <c r="W78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 45714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 30405-2020.docx")</f>
         <v/>
       </c>
       <c r="X78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 45714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 30405-2020.docx")</f>
         <v/>
       </c>
       <c r="Y78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 45714-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 30405-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 61479-2020</t>
+          <t>A 45714-2020</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44154</v>
+        <v>44090</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7571,18 +7571,23 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>10.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
         <v>1</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
@@ -7596,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -7606,45 +7611,45 @@
       </c>
       <c r="R79" s="2" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61479-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 45714-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61479-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 45714-2020.png")</f>
         <v/>
       </c>
       <c r="V79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61479-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 45714-2020.docx")</f>
         <v/>
       </c>
       <c r="W79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61479-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 45714-2020.docx")</f>
         <v/>
       </c>
       <c r="X79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61479-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 45714-2020.docx")</f>
         <v/>
       </c>
       <c r="Y79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61479-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 45714-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31622-2021</t>
+          <t>A 61479-2020</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44369</v>
+        <v>44154</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7657,13 +7662,13 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>12.6</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
@@ -7691,45 +7696,45 @@
       </c>
       <c r="R80" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="S80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 31622-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61479-2020.xlsx")</f>
         <v/>
       </c>
       <c r="T80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 31622-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61479-2020.png")</f>
         <v/>
       </c>
       <c r="V80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 31622-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61479-2020.docx")</f>
         <v/>
       </c>
       <c r="W80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 31622-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61479-2020.docx")</f>
         <v/>
       </c>
       <c r="X80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 31622-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61479-2020.docx")</f>
         <v/>
       </c>
       <c r="Y80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 31622-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61479-2020.docx")</f>
         <v/>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46417-2021</t>
+          <t>A 31622-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44445</v>
+        <v>44369</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7741,22 +7746,17 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>9.1</v>
+        <v>12.6</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
         <v>0</v>
@@ -7781,45 +7781,45 @@
       </c>
       <c r="R81" s="2" t="inlineStr">
         <is>
-          <t>Klasefibbla</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 46417-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 31622-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 46417-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 31622-2021.png")</f>
         <v/>
       </c>
       <c r="V81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 46417-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 31622-2021.docx")</f>
         <v/>
       </c>
       <c r="W81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 46417-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 31622-2021.docx")</f>
         <v/>
       </c>
       <c r="X81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 46417-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 31622-2021.docx")</f>
         <v/>
       </c>
       <c r="Y81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 46417-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 31622-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 49839-2021</t>
+          <t>A 46417-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44455</v>
+        <v>44445</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7831,8 +7831,13 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -7841,10 +7846,10 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -7859,52 +7864,52 @@
         <v>1</v>
       </c>
       <c r="P82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82" t="n">
         <v>1</v>
       </c>
       <c r="R82" s="2" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Klasefibbla</t>
         </is>
       </c>
       <c r="S82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 49839-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 46417-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 49839-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 46417-2021.png")</f>
         <v/>
       </c>
       <c r="V82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 49839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 46417-2021.docx")</f>
         <v/>
       </c>
       <c r="W82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 49839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 46417-2021.docx")</f>
         <v/>
       </c>
       <c r="X82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 49839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 46417-2021.docx")</f>
         <v/>
       </c>
       <c r="Y82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 49839-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 46417-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 49871-2021</t>
+          <t>A 49839-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
         <v>44455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7917,20 +7922,20 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
         <v>1</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
@@ -7941,55 +7946,55 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83" t="n">
         <v>1</v>
       </c>
       <c r="R83" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="S83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 49871-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 49839-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 49871-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 49839-2021.png")</f>
         <v/>
       </c>
       <c r="V83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 49871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 49839-2021.docx")</f>
         <v/>
       </c>
       <c r="W83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 49871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 49839-2021.docx")</f>
         <v/>
       </c>
       <c r="X83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 49871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 49839-2021.docx")</f>
         <v/>
       </c>
       <c r="Y83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 49871-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 49839-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 61536-2021</t>
+          <t>A 49871-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44501</v>
+        <v>44455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8001,22 +8006,17 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -8041,45 +8041,45 @@
       </c>
       <c r="R84" s="2" t="inlineStr">
         <is>
-          <t>Klasefibbla</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61536-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 49871-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61536-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 49871-2021.png")</f>
         <v/>
       </c>
       <c r="V84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61536-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 49871-2021.docx")</f>
         <v/>
       </c>
       <c r="W84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61536-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 49871-2021.docx")</f>
         <v/>
       </c>
       <c r="X84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61536-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 49871-2021.docx")</f>
         <v/>
       </c>
       <c r="Y84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61536-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 49871-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61559-2021</t>
+          <t>A 61536-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
         <v>44501</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -8131,45 +8131,45 @@
       </c>
       <c r="R85" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Klasefibbla</t>
         </is>
       </c>
       <c r="S85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61559-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61536-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61559-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61536-2021.png")</f>
         <v/>
       </c>
       <c r="V85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61559-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61536-2021.docx")</f>
         <v/>
       </c>
       <c r="W85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61559-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61536-2021.docx")</f>
         <v/>
       </c>
       <c r="X85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61559-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61536-2021.docx")</f>
         <v/>
       </c>
       <c r="Y85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61559-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61536-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 63615-2021</t>
+          <t>A 61559-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44509</v>
+        <v>44501</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8181,8 +8181,13 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -8216,45 +8221,45 @@
       </c>
       <c r="R86" s="2" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 63615-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61559-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 63615-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61559-2021.png")</f>
         <v/>
       </c>
       <c r="V86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 63615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61559-2021.docx")</f>
         <v/>
       </c>
       <c r="W86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 63615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61559-2021.docx")</f>
         <v/>
       </c>
       <c r="X86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 63615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61559-2021.docx")</f>
         <v/>
       </c>
       <c r="Y86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 63615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61559-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 64564-2021</t>
+          <t>A 63615-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44511</v>
+        <v>44509</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8267,7 +8272,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -8276,10 +8281,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
@@ -8294,52 +8299,52 @@
         <v>1</v>
       </c>
       <c r="P87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
         <v>1</v>
       </c>
       <c r="R87" s="2" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="S87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 64564-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 63615-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 64564-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 63615-2021.png")</f>
         <v/>
       </c>
       <c r="V87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 64564-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 63615-2021.docx")</f>
         <v/>
       </c>
       <c r="W87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 64564-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 63615-2021.docx")</f>
         <v/>
       </c>
       <c r="X87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 64564-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 63615-2021.docx")</f>
         <v/>
       </c>
       <c r="Y87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 64564-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 63615-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 65989-2021</t>
+          <t>A 64564-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44517</v>
+        <v>44511</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8352,79 +8357,79 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
         <v>1</v>
       </c>
-      <c r="I88" t="n">
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
       <c r="P88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88" t="n">
         <v>1</v>
       </c>
       <c r="R88" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="S88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 65989-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 64564-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 65989-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 64564-2021.png")</f>
         <v/>
       </c>
       <c r="V88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 65989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 64564-2021.docx")</f>
         <v/>
       </c>
       <c r="W88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 65989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 64564-2021.docx")</f>
         <v/>
       </c>
       <c r="X88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 65989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 64564-2021.docx")</f>
         <v/>
       </c>
       <c r="Y88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 65989-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 64564-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 70495-2021</t>
+          <t>A 65989-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44536</v>
+        <v>44517</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8437,16 +8442,16 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -8461,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
         <v>0</v>
@@ -8471,45 +8476,45 @@
       </c>
       <c r="R89" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 70495-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 65989-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 70495-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 65989-2021.png")</f>
         <v/>
       </c>
       <c r="V89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 70495-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 65989-2021.docx")</f>
         <v/>
       </c>
       <c r="W89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 70495-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 65989-2021.docx")</f>
         <v/>
       </c>
       <c r="X89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 70495-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 65989-2021.docx")</f>
         <v/>
       </c>
       <c r="Y89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 70495-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 65989-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 938-2022</t>
+          <t>A 70495-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44571</v>
+        <v>44536</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8522,10 +8527,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -8556,45 +8561,45 @@
       </c>
       <c r="R90" s="2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 938-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 70495-2021.xlsx")</f>
         <v/>
       </c>
       <c r="T90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 938-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 70495-2021.png")</f>
         <v/>
       </c>
       <c r="V90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 938-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 70495-2021.docx")</f>
         <v/>
       </c>
       <c r="W90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 938-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 70495-2021.docx")</f>
         <v/>
       </c>
       <c r="X90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 938-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 70495-2021.docx")</f>
         <v/>
       </c>
       <c r="Y90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 938-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 70495-2021.docx")</f>
         <v/>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7446-2022</t>
+          <t>A 938-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44606</v>
+        <v>44571</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8607,17 +8612,17 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
         <v>1</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
@@ -8631,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91" t="n">
         <v>0</v>
@@ -8641,45 +8646,45 @@
       </c>
       <c r="R91" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="S91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 7446-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 938-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 7446-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 938-2022.png")</f>
         <v/>
       </c>
       <c r="V91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 7446-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 938-2022.docx")</f>
         <v/>
       </c>
       <c r="W91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 7446-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 938-2022.docx")</f>
         <v/>
       </c>
       <c r="X91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 7446-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 938-2022.docx")</f>
         <v/>
       </c>
       <c r="Y91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 7446-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 938-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 7470-2022</t>
+          <t>A 7446-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8692,13 +8697,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
@@ -8726,45 +8731,45 @@
       </c>
       <c r="R92" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 7470-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 7446-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 7470-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 7446-2022.png")</f>
         <v/>
       </c>
       <c r="V92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 7470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 7446-2022.docx")</f>
         <v/>
       </c>
       <c r="W92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 7470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 7446-2022.docx")</f>
         <v/>
       </c>
       <c r="X92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 7470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 7446-2022.docx")</f>
         <v/>
       </c>
       <c r="Y92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 7470-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 7446-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 22209-2022</t>
+          <t>A 7470-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44712</v>
+        <v>44607</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8776,19 +8781,14 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -8816,45 +8816,45 @@
       </c>
       <c r="R93" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 22209-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 7470-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 22209-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 7470-2022.png")</f>
         <v/>
       </c>
       <c r="V93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 22209-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 7470-2022.docx")</f>
         <v/>
       </c>
       <c r="W93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 22209-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 7470-2022.docx")</f>
         <v/>
       </c>
       <c r="X93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 22209-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 7470-2022.docx")</f>
         <v/>
       </c>
       <c r="Y93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 22209-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 7470-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 24797-2022</t>
+          <t>A 22209-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44728</v>
+        <v>44712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8868,11 +8868,11 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>1</v>
@@ -8881,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -8906,45 +8906,45 @@
       </c>
       <c r="R94" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 24797-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 22209-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 24797-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 22209-2022.png")</f>
         <v/>
       </c>
       <c r="V94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 24797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 22209-2022.docx")</f>
         <v/>
       </c>
       <c r="W94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 24797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 22209-2022.docx")</f>
         <v/>
       </c>
       <c r="X94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 24797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 22209-2022.docx")</f>
         <v/>
       </c>
       <c r="Y94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 24797-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 22209-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 27451-2022</t>
+          <t>A 24797-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44742</v>
+        <v>44728</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8956,11 +8956,16 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -8991,45 +8996,45 @@
       </c>
       <c r="R95" s="2" t="inlineStr">
         <is>
-          <t>Skogsklocka</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 27451-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 24797-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 27451-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 24797-2022.png")</f>
         <v/>
       </c>
       <c r="V95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 27451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 24797-2022.docx")</f>
         <v/>
       </c>
       <c r="W95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 27451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 24797-2022.docx")</f>
         <v/>
       </c>
       <c r="X95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 27451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 24797-2022.docx")</f>
         <v/>
       </c>
       <c r="Y95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 27451-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 24797-2022.docx")</f>
         <v/>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32140-2022</t>
+          <t>A 27451-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44779</v>
+        <v>44742</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9042,19 +9047,19 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
         <v>1</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -9069,42 +9074,38 @@
         <v>1</v>
       </c>
       <c r="P96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96" t="n">
         <v>1</v>
       </c>
       <c r="R96" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsklocka</t>
         </is>
       </c>
       <c r="S96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 32140-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 27451-2022.xlsx")</f>
         <v/>
       </c>
       <c r="T96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 32140-2022.png")</f>
-        <v/>
-      </c>
-      <c r="U96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/knärot/A 32140-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 27451-2022.png")</f>
         <v/>
       </c>
       <c r="V96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 32140-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 27451-2022.docx")</f>
         <v/>
       </c>
       <c r="W96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 32140-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 27451-2022.docx")</f>
         <v/>
       </c>
       <c r="X96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 32140-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 27451-2022.docx")</f>
         <v/>
       </c>
       <c r="Y96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 32140-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 27451-2022.docx")</f>
         <v/>
       </c>
     </row>
@@ -9118,7 +9119,7 @@
         <v>44796</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9208,7 +9209,7 @@
         <v>44874</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9298,7 +9299,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9388,7 +9389,7 @@
         <v>44875</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9473,7 +9474,7 @@
         <v>44938</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9558,7 +9559,7 @@
         <v>45013</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9643,7 +9644,7 @@
         <v>45021</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9733,7 +9734,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9827,7 +9828,7 @@
         <v>45048</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9917,7 +9918,7 @@
         <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10007,7 +10008,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10097,7 +10098,7 @@
         <v>45070</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10187,7 +10188,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10272,7 +10273,7 @@
         <v>45071</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10357,7 +10358,7 @@
         <v>45075</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10442,7 +10443,7 @@
         <v>45078</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10527,7 +10528,7 @@
         <v>45093</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10612,7 +10613,7 @@
         <v>45107</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10702,7 +10703,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10787,7 +10788,7 @@
         <v>45135</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10877,7 +10878,7 @@
         <v>43320</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10934,7 +10935,7 @@
         <v>43327</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10991,7 +10992,7 @@
         <v>43343</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11053,7 +11054,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11115,7 +11116,7 @@
         <v>43355</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11172,7 +11173,7 @@
         <v>43360</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11234,7 +11235,7 @@
         <v>43376</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11291,7 +11292,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11348,7 +11349,7 @@
         <v>43381</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11405,7 +11406,7 @@
         <v>43384</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11467,7 +11468,7 @@
         <v>43398</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11524,7 +11525,7 @@
         <v>43410</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11586,7 +11587,7 @@
         <v>43423</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11643,7 +11644,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11700,7 +11701,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11757,7 +11758,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11814,7 +11815,7 @@
         <v>43430</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11876,7 +11877,7 @@
         <v>43432</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11938,7 +11939,7 @@
         <v>43448</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12000,7 +12001,7 @@
         <v>43453</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12057,7 +12058,7 @@
         <v>43468</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12114,7 +12115,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12171,7 +12172,7 @@
         <v>43469</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12228,7 +12229,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12285,7 +12286,7 @@
         <v>43472</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12342,7 +12343,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12404,7 +12405,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12461,7 +12462,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12523,7 +12524,7 @@
         <v>43473</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12580,7 +12581,7 @@
         <v>43474</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12637,7 +12638,7 @@
         <v>43475</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12699,7 +12700,7 @@
         <v>43476</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12761,7 +12762,7 @@
         <v>43479</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12818,7 +12819,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12875,7 +12876,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12932,7 +12933,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12989,7 +12990,7 @@
         <v>43480</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13046,7 +13047,7 @@
         <v>43482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13103,7 +13104,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13160,7 +13161,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13217,7 +13218,7 @@
         <v>43483</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13274,7 +13275,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13336,7 +13337,7 @@
         <v>43484</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13393,7 +13394,7 @@
         <v>43485</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13450,7 +13451,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13507,7 +13508,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13564,7 +13565,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13621,7 +13622,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13678,7 +13679,7 @@
         <v>43486</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13735,7 +13736,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13792,7 +13793,7 @@
         <v>43487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13849,7 +13850,7 @@
         <v>43489</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13906,7 +13907,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13963,7 +13964,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14020,7 +14021,7 @@
         <v>43493</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14077,7 +14078,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14134,7 +14135,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14191,7 +14192,7 @@
         <v>43494</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14248,7 +14249,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14305,7 +14306,7 @@
         <v>43495</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14362,7 +14363,7 @@
         <v>43500</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14419,7 +14420,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14476,7 +14477,7 @@
         <v>43502</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14533,7 +14534,7 @@
         <v>43503</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14595,7 +14596,7 @@
         <v>43507</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14657,7 +14658,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14714,7 +14715,7 @@
         <v>43508</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14776,7 +14777,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14838,7 +14839,7 @@
         <v>43509</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14900,7 +14901,7 @@
         <v>43514</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14957,7 +14958,7 @@
         <v>43515</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15014,7 +15015,7 @@
         <v>43517</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15076,7 +15077,7 @@
         <v>43518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15133,7 +15134,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15190,7 +15191,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15247,7 +15248,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15304,7 +15305,7 @@
         <v>43521</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15361,7 +15362,7 @@
         <v>43522</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15418,7 +15419,7 @@
         <v>43523</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15475,7 +15476,7 @@
         <v>43524</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15532,7 +15533,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15589,7 +15590,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15646,7 +15647,7 @@
         <v>43529</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15708,7 +15709,7 @@
         <v>43530</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15765,7 +15766,7 @@
         <v>43531</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15827,7 +15828,7 @@
         <v>43535</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15884,7 +15885,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15941,7 +15942,7 @@
         <v>43536</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15998,7 +15999,7 @@
         <v>43537</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16060,7 +16061,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16122,7 +16123,7 @@
         <v>43538</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16179,7 +16180,7 @@
         <v>43545</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16241,7 +16242,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16303,7 +16304,7 @@
         <v>43550</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16365,7 +16366,7 @@
         <v>43560</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16422,7 +16423,7 @@
         <v>43561</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16484,7 +16485,7 @@
         <v>43562</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16541,7 +16542,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16603,7 +16604,7 @@
         <v>43573</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16660,7 +16661,7 @@
         <v>43580</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16722,7 +16723,7 @@
         <v>43590</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16799,7 +16800,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16856,7 +16857,7 @@
         <v>43591</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16913,7 +16914,7 @@
         <v>43605</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16970,7 +16971,7 @@
         <v>43607</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17032,7 +17033,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17094,7 +17095,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17156,7 +17157,7 @@
         <v>43612</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17213,7 +17214,7 @@
         <v>43613</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17275,7 +17276,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17337,7 +17338,7 @@
         <v>43618</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17399,7 +17400,7 @@
         <v>43623</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17456,7 +17457,7 @@
         <v>43635</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17518,7 +17519,7 @@
         <v>43642</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17575,7 +17576,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17632,7 +17633,7 @@
         <v>43647</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17689,7 +17690,7 @@
         <v>43651</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17746,7 +17747,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17803,7 +17804,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17860,7 +17861,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17917,7 +17918,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17974,7 +17975,7 @@
         <v>43686</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18031,7 +18032,7 @@
         <v>43692</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18088,7 +18089,7 @@
         <v>43699</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18150,7 +18151,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18207,7 +18208,7 @@
         <v>43706</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18269,7 +18270,7 @@
         <v>43713</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18326,7 +18327,7 @@
         <v>43717</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18388,7 +18389,7 @@
         <v>43723</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18445,7 +18446,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18502,7 +18503,7 @@
         <v>43739</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18564,7 +18565,7 @@
         <v>43748</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18626,7 +18627,7 @@
         <v>43755</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18683,7 +18684,7 @@
         <v>43761</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18740,7 +18741,7 @@
         <v>43767</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18802,7 +18803,7 @@
         <v>43773</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18859,7 +18860,7 @@
         <v>43782</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18921,7 +18922,7 @@
         <v>43787</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18983,7 +18984,7 @@
         <v>43790</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19040,7 +19041,7 @@
         <v>43795</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19102,7 +19103,7 @@
         <v>43797</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19159,7 +19160,7 @@
         <v>43802</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19216,7 +19217,7 @@
         <v>43808</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19273,7 +19274,7 @@
         <v>43810</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19335,7 +19336,7 @@
         <v>43812</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19397,7 +19398,7 @@
         <v>43817</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19454,7 +19455,7 @@
         <v>43821</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19516,7 +19517,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19578,7 +19579,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19640,7 +19641,7 @@
         <v>43838</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19702,7 +19703,7 @@
         <v>43844</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19764,7 +19765,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19826,7 +19827,7 @@
         <v>43850</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19883,7 +19884,7 @@
         <v>43852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19940,7 +19941,7 @@
         <v>43855</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20002,7 +20003,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20059,7 +20060,7 @@
         <v>43865</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20121,7 +20122,7 @@
         <v>43873</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20183,7 +20184,7 @@
         <v>43882</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20240,7 +20241,7 @@
         <v>43885</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20302,7 +20303,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20364,7 +20365,7 @@
         <v>43895</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20426,7 +20427,7 @@
         <v>43901</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20488,7 +20489,7 @@
         <v>43902</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20550,7 +20551,7 @@
         <v>43903</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20612,7 +20613,7 @@
         <v>43906</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20669,7 +20670,7 @@
         <v>43909</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20731,7 +20732,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20793,7 +20794,7 @@
         <v>43910</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20855,7 +20856,7 @@
         <v>43920</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20912,7 +20913,7 @@
         <v>43936</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20969,7 +20970,7 @@
         <v>43969</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21031,7 +21032,7 @@
         <v>43986</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21093,7 +21094,7 @@
         <v>44007</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21150,7 +21151,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21207,7 +21208,7 @@
         <v>44015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21264,7 +21265,7 @@
         <v>44021</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21321,7 +21322,7 @@
         <v>44038</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21383,7 +21384,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21445,7 +21446,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21507,7 +21508,7 @@
         <v>44040</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21569,7 +21570,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21631,7 +21632,7 @@
         <v>44043</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21693,7 +21694,7 @@
         <v>44060</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21750,7 +21751,7 @@
         <v>44061</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21812,7 +21813,7 @@
         <v>44064</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21874,7 +21875,7 @@
         <v>44074</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21936,7 +21937,7 @@
         <v>44077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21993,7 +21994,7 @@
         <v>44092</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22055,7 +22056,7 @@
         <v>44095</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22112,7 +22113,7 @@
         <v>44098</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22169,7 +22170,7 @@
         <v>44105</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22231,7 +22232,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22293,7 +22294,7 @@
         <v>44118</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22350,7 +22351,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22407,7 +22408,7 @@
         <v>44120</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22464,7 +22465,7 @@
         <v>44133</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22526,7 +22527,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22588,7 +22589,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22650,7 +22651,7 @@
         <v>44140</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22712,7 +22713,7 @@
         <v>44148</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22774,7 +22775,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22836,7 +22837,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22898,7 +22899,7 @@
         <v>44151</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22960,7 +22961,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23017,7 +23018,7 @@
         <v>44155</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23079,7 +23080,7 @@
         <v>44160</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23136,7 +23137,7 @@
         <v>44162</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23193,7 +23194,7 @@
         <v>44165</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23250,7 +23251,7 @@
         <v>44167</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23307,7 +23308,7 @@
         <v>44173</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23364,7 +23365,7 @@
         <v>44183</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23421,7 +23422,7 @@
         <v>44186</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23478,7 +23479,7 @@
         <v>44196</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23540,7 +23541,7 @@
         <v>44221</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23597,7 +23598,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23654,7 +23655,7 @@
         <v>44224</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23716,7 +23717,7 @@
         <v>44235</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23773,7 +23774,7 @@
         <v>44238</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23835,7 +23836,7 @@
         <v>44243</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23892,7 +23893,7 @@
         <v>44257</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23954,7 +23955,7 @@
         <v>44258</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24016,7 +24017,7 @@
         <v>44278</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24078,7 +24079,7 @@
         <v>44287</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24135,7 +24136,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24192,7 +24193,7 @@
         <v>44308</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24249,7 +24250,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24306,7 +24307,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24363,7 +24364,7 @@
         <v>44312</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24420,7 +24421,7 @@
         <v>44330</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24477,7 +24478,7 @@
         <v>44336</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24534,7 +24535,7 @@
         <v>44337</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24591,7 +24592,7 @@
         <v>44347</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24648,7 +24649,7 @@
         <v>44354</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24705,7 +24706,7 @@
         <v>44361</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24762,7 +24763,7 @@
         <v>44365</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24824,7 +24825,7 @@
         <v>44368</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24881,7 +24882,7 @@
         <v>44376</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24938,7 +24939,7 @@
         <v>44420</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24995,7 +24996,7 @@
         <v>44425</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25057,7 +25058,7 @@
         <v>44432</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25114,7 +25115,7 @@
         <v>44450</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25171,7 +25172,7 @@
         <v>44460</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25228,7 +25229,7 @@
         <v>44461</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25285,7 +25286,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25342,7 +25343,7 @@
         <v>44462</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25399,7 +25400,7 @@
         <v>44466</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25456,7 +25457,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25518,7 +25519,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25575,7 +25576,7 @@
         <v>44467</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25632,7 +25633,7 @@
         <v>44488</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25689,7 +25690,7 @@
         <v>44491</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25751,7 +25752,7 @@
         <v>44495</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25813,7 +25814,7 @@
         <v>44496</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25870,7 +25871,7 @@
         <v>44498</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25927,7 +25928,7 @@
         <v>44504</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25984,7 +25985,7 @@
         <v>44511</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26041,7 +26042,7 @@
         <v>44512</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26098,7 +26099,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26155,7 +26156,7 @@
         <v>44515</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26217,7 +26218,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26279,7 +26280,7 @@
         <v>44522</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26336,7 +26337,7 @@
         <v>44523</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26393,7 +26394,7 @@
         <v>44525</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26450,7 +26451,7 @@
         <v>44531</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26512,7 +26513,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26569,7 +26570,7 @@
         <v>44536</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26626,7 +26627,7 @@
         <v>44546</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26688,7 +26689,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26745,7 +26746,7 @@
         <v>44548</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26807,7 +26808,7 @@
         <v>44550</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26864,7 +26865,7 @@
         <v>44573</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26921,7 +26922,7 @@
         <v>44578</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26978,7 +26979,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27035,7 +27036,7 @@
         <v>44586</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27092,7 +27093,7 @@
         <v>44588</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27154,7 +27155,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27211,7 +27212,7 @@
         <v>44589</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27268,7 +27269,7 @@
         <v>44591</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27325,7 +27326,7 @@
         <v>44597</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27382,7 +27383,7 @@
         <v>44599</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27439,7 +27440,7 @@
         <v>44602</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27501,7 +27502,7 @@
         <v>44605</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27563,7 +27564,7 @@
         <v>44606</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27620,7 +27621,7 @@
         <v>44608</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27677,7 +27678,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27734,7 +27735,7 @@
         <v>44609</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27791,7 +27792,7 @@
         <v>44613</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27848,7 +27849,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27905,7 +27906,7 @@
         <v>44614</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27962,7 +27963,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28019,7 +28020,7 @@
         <v>44622</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28081,7 +28082,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28143,7 +28144,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28205,7 +28206,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28267,7 +28268,7 @@
         <v>44636</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28324,7 +28325,7 @@
         <v>44643</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28381,7 +28382,7 @@
         <v>44644</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28438,7 +28439,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28495,7 +28496,7 @@
         <v>44657</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28552,7 +28553,7 @@
         <v>44659</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28609,7 +28610,7 @@
         <v>44664</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28666,7 +28667,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28723,7 +28724,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28780,7 +28781,7 @@
         <v>44665</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28842,7 +28843,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28904,7 +28905,7 @@
         <v>44667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28966,7 +28967,7 @@
         <v>44669</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29028,7 +29029,7 @@
         <v>44670</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29085,7 +29086,7 @@
         <v>44676</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29142,7 +29143,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29204,7 +29205,7 @@
         <v>44683</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29261,7 +29262,7 @@
         <v>44684</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29318,7 +29319,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29395,7 +29396,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29452,7 +29453,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29509,7 +29510,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29566,7 +29567,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29628,7 +29629,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29685,7 +29686,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29742,7 +29743,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29804,7 +29805,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29861,7 +29862,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29918,7 +29919,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29975,7 +29976,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30037,7 +30038,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30099,7 +30100,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30161,7 +30162,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30218,7 +30219,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30275,7 +30276,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30332,7 +30333,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30394,7 +30395,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30456,7 +30457,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30513,7 +30514,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30570,7 +30571,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30627,7 +30628,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30689,7 +30690,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30746,7 +30747,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30808,7 +30809,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30870,7 +30871,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30927,7 +30928,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -30984,7 +30985,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31041,7 +31042,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31098,7 +31099,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31155,7 +31156,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31212,7 +31213,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31269,7 +31270,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31331,7 +31332,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31393,7 +31394,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31455,7 +31456,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31512,7 +31513,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31574,7 +31575,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31631,7 +31632,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31688,7 +31689,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31745,7 +31746,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31802,7 +31803,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31859,7 +31860,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31921,7 +31922,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31978,7 +31979,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32035,7 +32036,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32092,7 +32093,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32154,7 +32155,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32216,7 +32217,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32278,7 +32279,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32340,7 +32341,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32397,7 +32398,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32454,7 +32455,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32516,7 +32517,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32578,7 +32579,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32635,7 +32636,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32692,7 +32693,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32749,7 +32750,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32806,7 +32807,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32863,7 +32864,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32920,7 +32921,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32977,7 +32978,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33034,7 +33035,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33091,7 +33092,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33153,7 +33154,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33210,7 +33211,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33272,7 +33273,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33329,7 +33330,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33386,7 +33387,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33443,7 +33444,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33500,7 +33501,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33557,7 +33558,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33614,7 +33615,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33671,7 +33672,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33728,7 +33729,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33785,7 +33786,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33847,7 +33848,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33909,7 +33910,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33971,7 +33972,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34033,7 +34034,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34095,7 +34096,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34157,7 +34158,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34219,7 +34220,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34281,7 +34282,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34343,7 +34344,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34405,7 +34406,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34462,7 +34463,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34519,7 +34520,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34581,7 +34582,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34643,7 +34644,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34705,7 +34706,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34762,7 +34763,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34819,7 +34820,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34876,7 +34877,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34933,7 +34934,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -34990,7 +34991,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35047,7 +35048,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35104,7 +35105,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35161,7 +35162,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35218,7 +35219,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35275,7 +35276,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35332,7 +35333,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35389,7 +35390,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35446,7 +35447,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35503,7 +35504,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35560,7 +35561,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35617,7 +35618,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35679,7 +35680,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35736,7 +35737,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35798,7 +35799,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35855,7 +35856,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35912,7 +35913,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35969,7 +35970,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36026,7 +36027,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36088,7 +36089,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36150,7 +36151,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36212,7 +36213,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36274,7 +36275,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36336,7 +36337,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36393,7 +36394,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36455,7 +36456,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36517,7 +36518,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36579,7 +36580,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36641,7 +36642,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36703,7 +36704,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36765,7 +36766,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36822,7 +36823,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36879,7 +36880,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36936,7 +36937,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -36993,7 +36994,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37050,7 +37051,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37107,7 +37108,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37169,7 +37170,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37231,7 +37232,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37288,7 +37289,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37350,7 +37351,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37407,7 +37408,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37464,7 +37465,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37521,7 +37522,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37578,7 +37579,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37635,7 +37636,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37697,7 +37698,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37754,7 +37755,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37816,7 +37817,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37873,7 +37874,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37935,7 +37936,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -37992,7 +37993,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38049,7 +38050,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38111,7 +38112,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38173,7 +38174,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38235,7 +38236,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38297,7 +38298,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38354,7 +38355,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38411,7 +38412,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38468,7 +38469,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38530,7 +38531,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38592,7 +38593,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38654,7 +38655,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38716,7 +38717,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38778,7 +38779,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38840,7 +38841,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38902,7 +38903,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38959,7 +38960,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39016,7 +39017,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39078,7 +39079,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39140,7 +39141,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39202,7 +39203,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39264,7 +39265,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39326,7 +39327,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39388,7 +39389,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39450,7 +39451,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39512,7 +39513,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39574,7 +39575,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39636,7 +39637,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39698,7 +39699,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39755,7 +39756,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39812,7 +39813,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39874,7 +39875,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39931,7 +39932,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -39993,7 +39994,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40050,7 +40051,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40107,7 +40108,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40169,7 +40170,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y613"/>
+  <dimension ref="A1:Y614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44779</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43635</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44021</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44546</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44614</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44662</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>45006</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45076</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43573</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44376</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44684</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44858</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44874</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44995</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44376</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44531</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44739</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44875</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>44998</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45016</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>45054</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43508</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43846</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43882</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44077</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>44495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44529</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44555</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44610</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44644</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44865</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>44874</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44874</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>44967</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>45063</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>45092</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45154</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43369</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43462</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43538</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43742</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43959</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>44090</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44369</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44455</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44501</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44501</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>44511</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>44536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>44571</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>44607</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>44796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44874</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>45013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>45021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>45048</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>45063</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>45070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45071</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>45075</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>45078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>45093</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>45107</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45135</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43320</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43327</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43343</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>43360</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43376</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43381</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>43384</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43398</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43410</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43423</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43430</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43432</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>43448</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>43453</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>43468</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43469</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43472</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>43473</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>43474</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43476</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43483</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43484</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43485</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>43487</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>43493</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>43495</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>43500</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>43502</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>43503</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>43507</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43508</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43509</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43514</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43515</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43517</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>43518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>43521</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43522</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>43523</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>43524</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>43529</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43530</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43531</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43535</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43537</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>43545</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43550</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43560</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43561</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>43562</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43573</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43580</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>43590</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>43591</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>43605</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>43607</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43612</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>43613</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43618</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43623</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43635</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43647</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43651</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43686</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43692</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>43699</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>43706</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43713</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43717</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43723</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43739</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>43767</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>43773</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>43787</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>43797</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>43802</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>43808</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>43810</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>43812</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>43817</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>43821</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43838</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>43844</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>43850</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>43855</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>43864</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>43865</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43873</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>43882</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43885</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43895</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>43901</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>43903</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>43906</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43909</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>43910</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>43920</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>43936</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>43969</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44015</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44038</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44040</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44043</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44060</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44061</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44092</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44095</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44098</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44105</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44118</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44120</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44133</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44140</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22934,7 +22934,7 @@
         <v>44148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44151</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44160</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44162</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44165</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44173</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44183</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44186</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44196</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44221</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44224</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44235</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>44238</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44243</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44257</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44258</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44278</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44287</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>44308</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>44312</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>44330</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44336</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>44337</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>44347</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>44354</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>44361</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>44365</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>44368</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44376</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44420</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>44425</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44432</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44450</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44460</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44461</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44462</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44466</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44488</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44491</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44495</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>44496</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>44498</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26025,7 +26025,7 @@
         <v>44504</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>44511</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44512</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44515</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44522</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44523</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44525</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44531</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44536</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44546</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44548</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>44550</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>44573</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>44578</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44586</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44588</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44589</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27366,7 +27366,7 @@
         <v>44591</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27423,7 +27423,7 @@
         <v>44597</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27480,7 +27480,7 @@
         <v>44599</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27537,7 +27537,7 @@
         <v>44602</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>44605</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>44606</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>44608</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>44609</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>44613</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>44614</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44622</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44636</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44643</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44644</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44657</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44659</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44664</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44665</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44667</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44669</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44670</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44676</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30415,7 +30415,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30477,7 +30477,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30534,7 +30534,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30591,7 +30591,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30648,7 +30648,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31476,7 +31476,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31823,7 +31823,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31880,7 +31880,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32175,7 +32175,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32299,7 +32299,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32537,7 +32537,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33174,7 +33174,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33692,7 +33692,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33749,7 +33749,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33806,7 +33806,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33868,7 +33868,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34426,7 +34426,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34483,7 +34483,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34540,7 +34540,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34602,7 +34602,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35353,7 +35353,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35467,7 +35467,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35524,7 +35524,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35581,7 +35581,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35638,7 +35638,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35819,7 +35819,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35876,7 +35876,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35933,7 +35933,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35990,7 +35990,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36047,7 +36047,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36109,7 +36109,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36171,7 +36171,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36538,7 +36538,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36724,7 +36724,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37014,7 +37014,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37128,7 +37128,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37656,7 +37656,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38737,7 +38737,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39347,7 +39347,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39409,7 +39409,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39471,7 +39471,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39533,7 +39533,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39595,7 +39595,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39657,7 +39657,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39719,7 +39719,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39776,7 +39776,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39833,7 +39833,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39952,7 +39952,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40180,7 +40180,7 @@
       </c>
       <c r="R612" s="2" t="inlineStr"/>
     </row>
-    <row r="613">
+    <row r="613" ht="15" customHeight="1">
       <c r="A613" t="inlineStr">
         <is>
           <t>A 40176-2023</t>
@@ -40190,7 +40190,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40241,6 +40241,68 @@
         <v>0</v>
       </c>
       <c r="R613" s="2" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>A 43732-2023</t>
+        </is>
+      </c>
+      <c r="B614" s="1" t="n">
+        <v>45187</v>
+      </c>
+      <c r="C614" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G614" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0</v>
+      </c>
+      <c r="J614" t="n">
+        <v>0</v>
+      </c>
+      <c r="K614" t="n">
+        <v>0</v>
+      </c>
+      <c r="L614" t="n">
+        <v>0</v>
+      </c>
+      <c r="M614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N614" t="n">
+        <v>0</v>
+      </c>
+      <c r="O614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R614" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44779</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43635</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44021</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44546</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44614</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44662</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>45006</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45076</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43573</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44376</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44684</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44858</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44874</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44995</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44376</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44531</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44739</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44875</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>44998</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45016</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>45054</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43508</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43846</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43882</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44077</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>44495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44529</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44555</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44610</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44644</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44865</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>44874</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44874</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>44967</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>45063</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>45092</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45154</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43369</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43462</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43538</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43742</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43959</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>44090</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44369</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44455</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44501</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44501</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>44511</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>44536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>44571</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>44607</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>44796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44874</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>45013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>45021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>45048</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>45063</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>45070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45071</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>45075</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>45078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>45093</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>45107</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45135</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43320</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43327</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43343</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>43360</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43376</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43381</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>43384</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43398</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43410</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43423</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43430</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43432</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>43448</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>43453</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>43468</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43469</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43472</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>43473</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>43474</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43476</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43483</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43484</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43485</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>43487</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>43493</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>43495</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>43500</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>43502</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>43503</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>43507</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43508</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43509</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43514</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43515</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43517</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>43518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>43521</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43522</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>43523</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>43524</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>43529</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43530</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43531</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43535</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43537</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>43545</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43550</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43560</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43561</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>43562</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43573</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43580</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>43590</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>43591</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>43605</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>43607</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43612</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>43613</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43618</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43623</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43635</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43647</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43651</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43686</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43692</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>43699</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>43706</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43713</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43717</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43723</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43739</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>43767</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>43773</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>43787</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>43797</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>43802</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>43808</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>43810</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>43812</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>43817</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>43821</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43838</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>43844</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>43850</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>43855</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>43864</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>43865</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43873</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>43882</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43885</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43895</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>43901</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>43903</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>43906</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43909</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>43910</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>43920</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>43936</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>43969</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44015</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44038</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44040</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44043</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44060</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44061</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44092</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44095</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44098</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44105</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44118</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44120</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44133</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44140</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22934,7 +22934,7 @@
         <v>44148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44151</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44160</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44162</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44165</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44173</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44183</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44186</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44196</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44221</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44224</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44235</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>44238</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44243</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44257</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44258</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44278</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44287</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>44308</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>44312</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>44330</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44336</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>44337</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>44347</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>44354</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>44361</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>44365</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>44368</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44376</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44420</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>44425</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44432</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44450</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44460</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44461</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44462</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44466</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44488</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44491</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44495</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>44496</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>44498</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26025,7 +26025,7 @@
         <v>44504</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>44511</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44512</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44515</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44522</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44523</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44525</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44531</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44536</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44546</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44548</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>44550</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>44573</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>44578</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44586</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44588</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44589</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27366,7 +27366,7 @@
         <v>44591</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27423,7 +27423,7 @@
         <v>44597</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27480,7 +27480,7 @@
         <v>44599</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27537,7 +27537,7 @@
         <v>44602</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>44605</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>44606</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>44608</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>44609</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>44613</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>44614</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44622</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44636</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44643</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44644</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44657</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44659</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44664</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44665</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44667</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44669</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44670</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44676</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30415,7 +30415,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30477,7 +30477,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30534,7 +30534,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30591,7 +30591,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30648,7 +30648,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31476,7 +31476,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31823,7 +31823,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31880,7 +31880,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32175,7 +32175,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32299,7 +32299,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32537,7 +32537,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33174,7 +33174,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33692,7 +33692,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33749,7 +33749,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33806,7 +33806,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33868,7 +33868,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34426,7 +34426,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34483,7 +34483,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34540,7 +34540,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34602,7 +34602,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35353,7 +35353,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35467,7 +35467,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35524,7 +35524,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35581,7 +35581,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35638,7 +35638,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35819,7 +35819,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35876,7 +35876,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35933,7 +35933,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35990,7 +35990,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36047,7 +36047,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36109,7 +36109,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36171,7 +36171,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36538,7 +36538,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36724,7 +36724,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37014,7 +37014,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37128,7 +37128,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37656,7 +37656,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38737,7 +38737,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39347,7 +39347,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39409,7 +39409,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39471,7 +39471,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39533,7 +39533,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39595,7 +39595,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39657,7 +39657,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39719,7 +39719,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39776,7 +39776,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39833,7 +39833,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39952,7 +39952,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40190,7 +40190,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>45187</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44779</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43635</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44021</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44546</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44614</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44662</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>45006</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45076</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43573</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44376</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44684</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44858</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44874</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44995</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44376</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44531</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44739</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44875</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>44998</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45016</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>45054</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5293,7 +5293,7 @@
         <v>43508</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>43846</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         <v>43882</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>44077</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
         <v>44148</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5733,7 +5733,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>44495</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5905,7 +5905,7 @@
         <v>44525</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>44529</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>44555</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         <v>44610</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6249,7 +6249,7 @@
         <v>44644</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6335,7 +6335,7 @@
         <v>44865</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
         <v>44874</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>44874</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6608,7 +6608,7 @@
         <v>44967</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>45063</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>45092</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
         <v>45154</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>43369</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7061,7 +7061,7 @@
         <v>43462</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7231,7 +7231,7 @@
         <v>43538</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7316,7 +7316,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43742</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43959</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7571,7 +7571,7 @@
         <v>44007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7656,7 +7656,7 @@
         <v>44090</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7831,7 +7831,7 @@
         <v>44369</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>44445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>44455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8091,7 +8091,7 @@
         <v>44455</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>44501</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8266,7 +8266,7 @@
         <v>44501</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>44511</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>44536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8696,7 +8696,7 @@
         <v>44571</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8781,7 +8781,7 @@
         <v>44606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>44607</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         <v>44742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>44796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44874</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>44875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>45013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9831,7 +9831,7 @@
         <v>45021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>45048</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         <v>45063</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10285,7 +10285,7 @@
         <v>45070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>45071</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10455,7 +10455,7 @@
         <v>45075</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>45078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>45093</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>45107</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10800,7 +10800,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10885,7 +10885,7 @@
         <v>45135</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         <v>43320</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         <v>43327</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>43343</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>43360</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>43376</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>43381</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         <v>43384</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>43398</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>43410</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11684,7 +11684,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11741,7 +11741,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>43423</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>43430</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>43432</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12036,7 +12036,7 @@
         <v>43448</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12098,7 +12098,7 @@
         <v>43453</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12155,7 +12155,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>43468</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12326,7 +12326,7 @@
         <v>43469</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12383,7 +12383,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12440,7 +12440,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12502,7 +12502,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12559,7 +12559,7 @@
         <v>43472</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12621,7 +12621,7 @@
         <v>43473</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12678,7 +12678,7 @@
         <v>43474</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12735,7 +12735,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12797,7 +12797,7 @@
         <v>43476</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12859,7 +12859,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12916,7 +12916,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12973,7 +12973,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13030,7 +13030,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13087,7 +13087,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13144,7 +13144,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13201,7 +13201,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13258,7 +13258,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13315,7 +13315,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13372,7 +13372,7 @@
         <v>43483</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13434,7 +13434,7 @@
         <v>43484</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13491,7 +13491,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13548,7 +13548,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13605,7 +13605,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13662,7 +13662,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13719,7 +13719,7 @@
         <v>43485</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>43487</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14004,7 +14004,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14061,7 +14061,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14175,7 +14175,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14232,7 +14232,7 @@
         <v>43493</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14289,7 +14289,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14346,7 +14346,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14403,7 +14403,7 @@
         <v>43495</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14517,7 +14517,7 @@
         <v>43500</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14574,7 +14574,7 @@
         <v>43502</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14631,7 +14631,7 @@
         <v>43503</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14693,7 +14693,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>43507</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14874,7 +14874,7 @@
         <v>43508</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14936,7 +14936,7 @@
         <v>43509</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14998,7 +14998,7 @@
         <v>43514</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15055,7 +15055,7 @@
         <v>43515</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15112,7 +15112,7 @@
         <v>43517</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>43518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>43521</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>43522</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         <v>43523</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15573,7 +15573,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15630,7 +15630,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15687,7 +15687,7 @@
         <v>43524</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15744,7 +15744,7 @@
         <v>43529</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>43530</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15863,7 +15863,7 @@
         <v>43531</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15925,7 +15925,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15982,7 +15982,7 @@
         <v>43535</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16039,7 +16039,7 @@
         <v>43536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16096,7 +16096,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>43537</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>43538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16277,7 +16277,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>43545</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16401,7 +16401,7 @@
         <v>43550</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16463,7 +16463,7 @@
         <v>43560</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>43561</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>43562</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16701,7 +16701,7 @@
         <v>43573</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>43580</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16820,7 +16820,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16897,7 +16897,7 @@
         <v>43590</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16954,7 +16954,7 @@
         <v>43591</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17011,7 +17011,7 @@
         <v>43605</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17068,7 +17068,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17130,7 +17130,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17192,7 +17192,7 @@
         <v>43607</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17254,7 +17254,7 @@
         <v>43612</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17311,7 +17311,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17373,7 +17373,7 @@
         <v>43613</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17435,7 +17435,7 @@
         <v>43618</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>43623</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>43635</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17616,7 +17616,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17673,7 +17673,7 @@
         <v>43642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17730,7 +17730,7 @@
         <v>43647</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17787,7 +17787,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17844,7 +17844,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17901,7 +17901,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17958,7 +17958,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18015,7 +18015,7 @@
         <v>43651</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18072,7 +18072,7 @@
         <v>43686</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18129,7 +18129,7 @@
         <v>43692</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18186,7 +18186,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18248,7 +18248,7 @@
         <v>43699</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18305,7 +18305,7 @@
         <v>43706</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43713</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43717</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>43723</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>43739</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18662,7 +18662,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>43767</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18900,7 +18900,7 @@
         <v>43773</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18957,7 +18957,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>43787</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19200,7 +19200,7 @@
         <v>43797</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19257,7 +19257,7 @@
         <v>43802</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19314,7 +19314,7 @@
         <v>43808</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19371,7 +19371,7 @@
         <v>43810</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19433,7 +19433,7 @@
         <v>43812</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19495,7 +19495,7 @@
         <v>43817</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19552,7 +19552,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19614,7 +19614,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>43821</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19738,7 +19738,7 @@
         <v>43838</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19800,7 +19800,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>43844</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>43850</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20038,7 +20038,7 @@
         <v>43855</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>43864</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20157,7 +20157,7 @@
         <v>43865</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>43873</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20281,7 +20281,7 @@
         <v>43882</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20338,7 +20338,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20400,7 +20400,7 @@
         <v>43885</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20462,7 +20462,7 @@
         <v>43895</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>43901</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20586,7 +20586,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20648,7 +20648,7 @@
         <v>43903</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20710,7 +20710,7 @@
         <v>43906</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20767,7 +20767,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20829,7 +20829,7 @@
         <v>43909</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>43910</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20953,7 +20953,7 @@
         <v>43920</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21010,7 +21010,7 @@
         <v>43936</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21067,7 +21067,7 @@
         <v>43969</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21129,7 +21129,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21191,7 +21191,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21248,7 +21248,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21305,7 +21305,7 @@
         <v>44015</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21481,7 +21481,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>44038</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>44040</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21729,7 +21729,7 @@
         <v>44043</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44060</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>44061</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21972,7 +21972,7 @@
         <v>44074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22034,7 +22034,7 @@
         <v>44077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22091,7 +22091,7 @@
         <v>44092</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22153,7 +22153,7 @@
         <v>44095</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22210,7 +22210,7 @@
         <v>44098</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22267,7 +22267,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22329,7 +22329,7 @@
         <v>44105</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>44118</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>44120</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22686,7 +22686,7 @@
         <v>44133</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22748,7 +22748,7 @@
         <v>44140</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22810,7 +22810,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22872,7 +22872,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22934,7 +22934,7 @@
         <v>44148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23058,7 +23058,7 @@
         <v>44151</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23115,7 +23115,7 @@
         <v>44155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23177,7 +23177,7 @@
         <v>44160</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23234,7 +23234,7 @@
         <v>44162</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23291,7 +23291,7 @@
         <v>44165</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23348,7 +23348,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44173</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44183</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44186</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44196</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23638,7 +23638,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23695,7 +23695,7 @@
         <v>44221</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23752,7 +23752,7 @@
         <v>44224</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>44235</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23871,7 +23871,7 @@
         <v>44238</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23933,7 +23933,7 @@
         <v>44243</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23990,7 +23990,7 @@
         <v>44257</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24052,7 +24052,7 @@
         <v>44258</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24114,7 +24114,7 @@
         <v>44278</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24176,7 +24176,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24233,7 +24233,7 @@
         <v>44287</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24290,7 +24290,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24347,7 +24347,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24404,7 +24404,7 @@
         <v>44308</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>44312</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24518,7 +24518,7 @@
         <v>44330</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24575,7 +24575,7 @@
         <v>44336</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24632,7 +24632,7 @@
         <v>44337</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24689,7 +24689,7 @@
         <v>44347</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24746,7 +24746,7 @@
         <v>44354</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24803,7 +24803,7 @@
         <v>44361</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>44365</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24922,7 +24922,7 @@
         <v>44368</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24979,7 +24979,7 @@
         <v>44376</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25036,7 +25036,7 @@
         <v>44420</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25093,7 +25093,7 @@
         <v>44425</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25155,7 +25155,7 @@
         <v>44432</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25212,7 +25212,7 @@
         <v>44450</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25269,7 +25269,7 @@
         <v>44460</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25326,7 +25326,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         <v>44461</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44462</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25497,7 +25497,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25554,7 +25554,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44466</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25673,7 +25673,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25730,7 +25730,7 @@
         <v>44488</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25787,7 +25787,7 @@
         <v>44491</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25849,7 +25849,7 @@
         <v>44495</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25911,7 +25911,7 @@
         <v>44496</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>44498</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26025,7 +26025,7 @@
         <v>44504</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26082,7 +26082,7 @@
         <v>44511</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26139,7 +26139,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26196,7 +26196,7 @@
         <v>44512</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26253,7 +26253,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26315,7 +26315,7 @@
         <v>44515</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26377,7 +26377,7 @@
         <v>44522</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26434,7 +26434,7 @@
         <v>44523</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26491,7 +26491,7 @@
         <v>44525</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26548,7 +26548,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26610,7 +26610,7 @@
         <v>44531</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26667,7 +26667,7 @@
         <v>44536</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26724,7 +26724,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26786,7 +26786,7 @@
         <v>44546</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26843,7 +26843,7 @@
         <v>44548</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26905,7 +26905,7 @@
         <v>44550</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26962,7 +26962,7 @@
         <v>44573</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27019,7 +27019,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27076,7 +27076,7 @@
         <v>44578</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27133,7 +27133,7 @@
         <v>44586</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27190,7 +27190,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27252,7 +27252,7 @@
         <v>44588</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27309,7 +27309,7 @@
         <v>44589</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27366,7 +27366,7 @@
         <v>44591</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27423,7 +27423,7 @@
         <v>44597</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27480,7 +27480,7 @@
         <v>44599</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27537,7 +27537,7 @@
         <v>44602</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27599,7 +27599,7 @@
         <v>44605</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27661,7 +27661,7 @@
         <v>44606</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27718,7 +27718,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27775,7 +27775,7 @@
         <v>44608</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27832,7 +27832,7 @@
         <v>44609</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27889,7 +27889,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27946,7 +27946,7 @@
         <v>44613</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28003,7 +28003,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28060,7 +28060,7 @@
         <v>44614</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28117,7 +28117,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28179,7 +28179,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28241,7 +28241,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28303,7 +28303,7 @@
         <v>44622</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44636</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>44643</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28479,7 +28479,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28536,7 +28536,7 @@
         <v>44644</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28593,7 +28593,7 @@
         <v>44657</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28650,7 +28650,7 @@
         <v>44659</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28707,7 +28707,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28764,7 +28764,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28821,7 +28821,7 @@
         <v>44664</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28878,7 +28878,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>44665</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29002,7 +29002,7 @@
         <v>44667</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44669</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>44670</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>44676</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29302,7 +29302,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29359,7 +29359,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29416,7 +29416,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29473,7 +29473,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29530,7 +29530,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29587,7 +29587,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29649,7 +29649,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29706,7 +29706,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29763,7 +29763,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29825,7 +29825,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29882,7 +29882,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29939,7 +29939,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29996,7 +29996,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30058,7 +30058,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30120,7 +30120,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30182,7 +30182,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30239,7 +30239,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30296,7 +30296,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30353,7 +30353,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30415,7 +30415,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30477,7 +30477,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30534,7 +30534,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30591,7 +30591,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30648,7 +30648,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30710,7 +30710,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30767,7 +30767,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30829,7 +30829,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31414,7 +31414,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31476,7 +31476,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31533,7 +31533,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31595,7 +31595,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31652,7 +31652,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31709,7 +31709,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31766,7 +31766,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31823,7 +31823,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31880,7 +31880,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31942,7 +31942,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31999,7 +31999,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32056,7 +32056,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32113,7 +32113,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32175,7 +32175,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32237,7 +32237,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32299,7 +32299,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32361,7 +32361,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32418,7 +32418,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32475,7 +32475,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32537,7 +32537,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32599,7 +32599,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32656,7 +32656,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32713,7 +32713,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32770,7 +32770,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32827,7 +32827,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32941,7 +32941,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32998,7 +32998,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33055,7 +33055,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33112,7 +33112,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33174,7 +33174,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33231,7 +33231,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33407,7 +33407,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33464,7 +33464,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33521,7 +33521,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33578,7 +33578,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33635,7 +33635,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33692,7 +33692,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33749,7 +33749,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33806,7 +33806,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33868,7 +33868,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33930,7 +33930,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33992,7 +33992,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34054,7 +34054,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34116,7 +34116,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34178,7 +34178,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34240,7 +34240,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34302,7 +34302,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34364,7 +34364,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34426,7 +34426,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34483,7 +34483,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34540,7 +34540,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34602,7 +34602,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34664,7 +34664,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34726,7 +34726,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34783,7 +34783,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34840,7 +34840,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34897,7 +34897,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34954,7 +34954,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35011,7 +35011,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35068,7 +35068,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35125,7 +35125,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35239,7 +35239,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35296,7 +35296,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35353,7 +35353,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35410,7 +35410,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35467,7 +35467,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35524,7 +35524,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35581,7 +35581,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35638,7 +35638,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35700,7 +35700,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35757,7 +35757,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35819,7 +35819,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35876,7 +35876,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35933,7 +35933,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35990,7 +35990,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36047,7 +36047,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36109,7 +36109,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36171,7 +36171,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36233,7 +36233,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36295,7 +36295,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36357,7 +36357,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36414,7 +36414,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36476,7 +36476,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36538,7 +36538,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36600,7 +36600,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36662,7 +36662,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36724,7 +36724,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36786,7 +36786,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36843,7 +36843,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36900,7 +36900,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36957,7 +36957,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37014,7 +37014,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37071,7 +37071,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37128,7 +37128,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37190,7 +37190,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37252,7 +37252,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37656,7 +37656,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37718,7 +37718,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37775,7 +37775,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37837,7 +37837,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37894,7 +37894,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37956,7 +37956,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38013,7 +38013,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38070,7 +38070,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38132,7 +38132,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38194,7 +38194,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38256,7 +38256,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38318,7 +38318,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38375,7 +38375,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38432,7 +38432,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38489,7 +38489,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38551,7 +38551,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38613,7 +38613,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38675,7 +38675,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38737,7 +38737,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38799,7 +38799,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38861,7 +38861,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38923,7 +38923,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38980,7 +38980,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39037,7 +39037,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39223,7 +39223,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39285,7 +39285,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39347,7 +39347,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39409,7 +39409,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39471,7 +39471,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39533,7 +39533,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39595,7 +39595,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39657,7 +39657,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39719,7 +39719,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39776,7 +39776,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39833,7 +39833,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39895,7 +39895,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39952,7 +39952,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40014,7 +40014,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40071,7 +40071,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40128,7 +40128,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40190,7 +40190,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40252,7 +40252,7 @@
         <v>45187</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44063</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>45098</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -808,7 +808,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1779,7 +1779,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         <v>44779</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43635</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2611,7 +2611,7 @@
         <v>44021</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>44546</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>44559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2882,7 +2882,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         <v>44614</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>44662</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>45006</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3421,7 +3421,7 @@
         <v>45076</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>45099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>43573</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         <v>44376</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3780,7 +3780,7 @@
         <v>44684</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>44858</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         <v>44874</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
         <v>44995</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4141,7 +4141,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         <v>43875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         <v>44376</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
         <v>44474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44531</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>44739</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>44875</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>44998</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45016</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5119,7 +5119,7 @@
         <v>45054</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5286,14 +5286,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 9672-2019</t>
+          <t>A 47201-2018</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>43508</v>
+        <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5305,8 +5305,13 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>9.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5340,1714 +5345,1710 @@
       </c>
       <c r="R53" s="2" t="inlineStr">
         <is>
+          <t>Korskovall
+Fjällig taggsvamp s.str.</t>
+        </is>
+      </c>
+      <c r="S53">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 47201-2018.xlsx", "A 47201-2018")</f>
+        <v/>
+      </c>
+      <c r="T53">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 47201-2018.png", "A 47201-2018")</f>
+        <v/>
+      </c>
+      <c r="U53">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/knärot/A 47201-2018.png", "A 47201-2018")</f>
+        <v/>
+      </c>
+      <c r="V53">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 47201-2018.docx", "A 47201-2018")</f>
+        <v/>
+      </c>
+      <c r="W53">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 47201-2018.docx", "A 47201-2018")</f>
+        <v/>
+      </c>
+      <c r="X53">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 47201-2018.docx", "A 47201-2018")</f>
+        <v/>
+      </c>
+      <c r="Y53">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 47201-2018.docx", "A 47201-2018")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" ht="15" customHeight="1">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>A 9672-2019</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>43508</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
           <t>Orange taggsvamp
 Olivspindling</t>
         </is>
       </c>
-      <c r="S53">
+      <c r="S54">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 9672-2019.xlsx", "A 9672-2019")</f>
         <v/>
       </c>
-      <c r="T53">
+      <c r="T54">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 9672-2019.png", "A 9672-2019")</f>
         <v/>
       </c>
-      <c r="V53">
+      <c r="V54">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 9672-2019.docx", "A 9672-2019")</f>
         <v/>
       </c>
-      <c r="W53">
+      <c r="W54">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 9672-2019.docx", "A 9672-2019")</f>
         <v/>
       </c>
-      <c r="X53">
+      <c r="X54">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 9672-2019.docx", "A 9672-2019")</f>
         <v/>
       </c>
-      <c r="Y53">
+      <c r="Y54">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 9672-2019.docx", "A 9672-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" t="inlineStr">
+    <row r="55" ht="15" customHeight="1">
+      <c r="A55" t="inlineStr">
         <is>
           <t>A 2172-2020</t>
         </is>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B55" s="1" t="n">
         <v>43846</v>
       </c>
-      <c r="C54" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
+      <c r="C55" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
         <v>3.8</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J55" t="n">
         <v>1</v>
       </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
         <v>2</v>
       </c>
-      <c r="R54" s="2" t="inlineStr">
+      <c r="R55" s="2" t="inlineStr">
         <is>
           <t>Flattoppad klubbsvamp
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S54">
+      <c r="S55">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 2172-2020.xlsx", "A 2172-2020")</f>
         <v/>
       </c>
-      <c r="T54">
+      <c r="T55">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 2172-2020.png", "A 2172-2020")</f>
         <v/>
       </c>
-      <c r="V54">
+      <c r="V55">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 2172-2020.docx", "A 2172-2020")</f>
         <v/>
       </c>
-      <c r="W54">
+      <c r="W55">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 2172-2020.docx", "A 2172-2020")</f>
         <v/>
       </c>
-      <c r="X54">
+      <c r="X55">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 2172-2020.docx", "A 2172-2020")</f>
         <v/>
       </c>
-      <c r="Y54">
+      <c r="Y55">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 2172-2020.docx", "A 2172-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="inlineStr">
+    <row r="56" ht="15" customHeight="1">
+      <c r="A56" t="inlineStr">
         <is>
           <t>A 9867-2020</t>
         </is>
       </c>
-      <c r="B55" s="1" t="n">
+      <c r="B56" s="1" t="n">
         <v>43882</v>
       </c>
-      <c r="C55" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
+      <c r="C56" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G55" t="n">
+      <c r="G56" t="n">
         <v>11.1</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H56" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="n">
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
         <v>2</v>
       </c>
-      <c r="R55" s="2" t="inlineStr">
+      <c r="R56" s="2" t="inlineStr">
         <is>
           <t>Gräsull
 Revlummer</t>
         </is>
       </c>
-      <c r="S55">
+      <c r="S56">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 9867-2020.xlsx", "A 9867-2020")</f>
         <v/>
       </c>
-      <c r="T55">
+      <c r="T56">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 9867-2020.png", "A 9867-2020")</f>
         <v/>
       </c>
-      <c r="V55">
+      <c r="V56">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 9867-2020.docx", "A 9867-2020")</f>
         <v/>
       </c>
-      <c r="W55">
+      <c r="W56">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 9867-2020.docx", "A 9867-2020")</f>
         <v/>
       </c>
-      <c r="X55">
+      <c r="X56">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 9867-2020.docx", "A 9867-2020")</f>
         <v/>
       </c>
-      <c r="Y55">
+      <c r="Y56">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 9867-2020.docx", "A 9867-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1">
-      <c r="A56" t="inlineStr">
+    <row r="57" ht="15" customHeight="1">
+      <c r="A57" t="inlineStr">
         <is>
           <t>A 42520-2020</t>
         </is>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B57" s="1" t="n">
         <v>44077</v>
       </c>
-      <c r="C56" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
+      <c r="C57" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
         <v>2.8</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H57" t="n">
         <v>1</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
         <v>2</v>
       </c>
-      <c r="R56" s="2" t="inlineStr">
+      <c r="R57" s="2" t="inlineStr">
         <is>
           <t>Hasselticka
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S56">
+      <c r="S57">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 42520-2020.xlsx", "A 42520-2020")</f>
         <v/>
       </c>
-      <c r="T56">
+      <c r="T57">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 42520-2020.png", "A 42520-2020")</f>
         <v/>
       </c>
-      <c r="V56">
+      <c r="V57">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 42520-2020.docx", "A 42520-2020")</f>
         <v/>
       </c>
-      <c r="W56">
+      <c r="W57">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 42520-2020.docx", "A 42520-2020")</f>
         <v/>
       </c>
-      <c r="X56">
+      <c r="X57">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 42520-2020.docx", "A 42520-2020")</f>
         <v/>
       </c>
-      <c r="Y56">
+      <c r="Y57">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 42520-2020.docx", "A 42520-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="A57" t="inlineStr">
+    <row r="58" ht="15" customHeight="1">
+      <c r="A58" t="inlineStr">
         <is>
           <t>A 59416-2020</t>
         </is>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B58" s="1" t="n">
         <v>44148</v>
       </c>
-      <c r="C57" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
+      <c r="C58" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G57" t="n">
+      <c r="G58" t="n">
         <v>1.7</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H58" t="n">
         <v>2</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
         <v>1</v>
       </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
         <v>1</v>
       </c>
-      <c r="M57" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
         <v>2</v>
       </c>
-      <c r="P57" t="n">
+      <c r="P58" t="n">
         <v>1</v>
       </c>
-      <c r="Q57" t="n">
+      <c r="Q58" t="n">
         <v>2</v>
       </c>
-      <c r="R57" s="2" t="inlineStr">
+      <c r="R58" s="2" t="inlineStr">
         <is>
           <t>Grönfink
 Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S57">
+      <c r="S58">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 59416-2020.xlsx", "A 59416-2020")</f>
         <v/>
       </c>
-      <c r="T57">
+      <c r="T58">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 59416-2020.png", "A 59416-2020")</f>
         <v/>
       </c>
-      <c r="V57">
+      <c r="V58">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 59416-2020.docx", "A 59416-2020")</f>
         <v/>
       </c>
-      <c r="W57">
+      <c r="W58">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 59416-2020.docx", "A 59416-2020")</f>
         <v/>
       </c>
-      <c r="X57">
+      <c r="X58">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 59416-2020.docx", "A 59416-2020")</f>
         <v/>
       </c>
-      <c r="Y57">
+      <c r="Y58">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 59416-2020.docx", "A 59416-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1">
-      <c r="A58" t="inlineStr">
+    <row r="59" ht="15" customHeight="1">
+      <c r="A59" t="inlineStr">
         <is>
           <t>A 6223-2021</t>
         </is>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B59" s="1" t="n">
         <v>44235</v>
       </c>
-      <c r="C58" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
+      <c r="C59" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
         <v>0.5</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H59" t="n">
         <v>2</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="n">
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
         <v>2</v>
       </c>
-      <c r="R58" s="2" t="inlineStr">
+      <c r="R59" s="2" t="inlineStr">
         <is>
           <t>Blåsippa
 Gullviva</t>
         </is>
       </c>
-      <c r="S58">
+      <c r="S59">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 6223-2021.xlsx", "A 6223-2021")</f>
         <v/>
       </c>
-      <c r="T58">
+      <c r="T59">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 6223-2021.png", "A 6223-2021")</f>
         <v/>
       </c>
-      <c r="V58">
+      <c r="V59">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 6223-2021.docx", "A 6223-2021")</f>
         <v/>
       </c>
-      <c r="W58">
+      <c r="W59">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 6223-2021.docx", "A 6223-2021")</f>
         <v/>
       </c>
-      <c r="X58">
+      <c r="X59">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 6223-2021.docx", "A 6223-2021")</f>
         <v/>
       </c>
-      <c r="Y58">
+      <c r="Y59">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 6223-2021.docx", "A 6223-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" t="inlineStr">
+    <row r="60" ht="15" customHeight="1">
+      <c r="A60" t="inlineStr">
         <is>
           <t>A 60078-2021</t>
         </is>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B60" s="1" t="n">
         <v>44495</v>
       </c>
-      <c r="C59" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
+      <c r="C60" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
         <v>1.1</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
         <v>1</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K60" t="n">
         <v>1</v>
       </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
         <v>2</v>
       </c>
-      <c r="P59" t="n">
+      <c r="P60" t="n">
         <v>1</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q60" t="n">
         <v>2</v>
       </c>
-      <c r="R59" s="2" t="inlineStr">
+      <c r="R60" s="2" t="inlineStr">
         <is>
           <t>Violgubbe
 Blek fingersvamp</t>
         </is>
       </c>
-      <c r="S59">
+      <c r="S60">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 60078-2021.xlsx", "A 60078-2021")</f>
         <v/>
       </c>
-      <c r="T59">
+      <c r="T60">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 60078-2021.png", "A 60078-2021")</f>
         <v/>
       </c>
-      <c r="V59">
+      <c r="V60">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 60078-2021.docx", "A 60078-2021")</f>
         <v/>
       </c>
-      <c r="W59">
+      <c r="W60">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 60078-2021.docx", "A 60078-2021")</f>
         <v/>
       </c>
-      <c r="X59">
+      <c r="X60">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 60078-2021.docx", "A 60078-2021")</f>
         <v/>
       </c>
-      <c r="Y59">
+      <c r="Y60">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 60078-2021.docx", "A 60078-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1">
-      <c r="A60" t="inlineStr">
+    <row r="61" ht="15" customHeight="1">
+      <c r="A61" t="inlineStr">
         <is>
           <t>A 67855-2021</t>
         </is>
       </c>
-      <c r="B60" s="1" t="n">
+      <c r="B61" s="1" t="n">
         <v>44525</v>
       </c>
-      <c r="C60" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
+      <c r="C61" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
         <v>7.5</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>2</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
         <v>2</v>
       </c>
-      <c r="R60" s="2" t="inlineStr">
+      <c r="R61" s="2" t="inlineStr">
         <is>
           <t>Guldkremla
 Kamjordstjärna</t>
         </is>
       </c>
-      <c r="S60">
+      <c r="S61">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 67855-2021.xlsx", "A 67855-2021")</f>
         <v/>
       </c>
-      <c r="T60">
+      <c r="T61">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 67855-2021.png", "A 67855-2021")</f>
         <v/>
       </c>
-      <c r="V60">
+      <c r="V61">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 67855-2021.docx", "A 67855-2021")</f>
         <v/>
       </c>
-      <c r="W60">
+      <c r="W61">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 67855-2021.docx", "A 67855-2021")</f>
         <v/>
       </c>
-      <c r="X60">
+      <c r="X61">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 67855-2021.docx", "A 67855-2021")</f>
         <v/>
       </c>
-      <c r="Y60">
+      <c r="Y61">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 67855-2021.docx", "A 67855-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="A61" t="inlineStr">
+    <row r="62" ht="15" customHeight="1">
+      <c r="A62" t="inlineStr">
         <is>
           <t>A 69241-2021</t>
         </is>
       </c>
-      <c r="B61" s="1" t="n">
+      <c r="B62" s="1" t="n">
         <v>44529</v>
       </c>
-      <c r="C61" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
+      <c r="C62" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
         <v>0.7</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>1</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J62" t="n">
         <v>1</v>
       </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="n">
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
         <v>2</v>
       </c>
-      <c r="R61" s="2" t="inlineStr">
+      <c r="R62" s="2" t="inlineStr">
         <is>
           <t>Harticka
 Zontaggsvamp</t>
         </is>
       </c>
-      <c r="S61">
+      <c r="S62">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 69241-2021.xlsx", "A 69241-2021")</f>
         <v/>
       </c>
-      <c r="T61">
+      <c r="T62">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 69241-2021.png", "A 69241-2021")</f>
         <v/>
       </c>
-      <c r="V61">
+      <c r="V62">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 69241-2021.docx", "A 69241-2021")</f>
         <v/>
       </c>
-      <c r="W61">
+      <c r="W62">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 69241-2021.docx", "A 69241-2021")</f>
         <v/>
       </c>
-      <c r="X61">
+      <c r="X62">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 69241-2021.docx", "A 69241-2021")</f>
         <v/>
       </c>
-      <c r="Y61">
+      <c r="Y62">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 69241-2021.docx", "A 69241-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1">
-      <c r="A62" t="inlineStr">
+    <row r="63" ht="15" customHeight="1">
+      <c r="A63" t="inlineStr">
         <is>
           <t>A 73981-2021</t>
         </is>
       </c>
-      <c r="B62" s="1" t="n">
+      <c r="B63" s="1" t="n">
         <v>44555</v>
       </c>
-      <c r="C62" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G62" t="n">
+      <c r="C63" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
         <v>2.4</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J63" t="n">
         <v>1</v>
       </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
         <v>2</v>
       </c>
-      <c r="R62" s="2" t="inlineStr">
+      <c r="R63" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka
 Vårärt</t>
         </is>
       </c>
-      <c r="S62">
+      <c r="S63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 73981-2021.xlsx", "A 73981-2021")</f>
         <v/>
       </c>
-      <c r="T62">
+      <c r="T63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 73981-2021.png", "A 73981-2021")</f>
         <v/>
       </c>
-      <c r="V62">
+      <c r="V63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 73981-2021.docx", "A 73981-2021")</f>
         <v/>
       </c>
-      <c r="W62">
+      <c r="W63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 73981-2021.docx", "A 73981-2021")</f>
         <v/>
       </c>
-      <c r="X62">
+      <c r="X63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 73981-2021.docx", "A 73981-2021")</f>
         <v/>
       </c>
-      <c r="Y62">
+      <c r="Y63">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 73981-2021.docx", "A 73981-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" t="inlineStr">
+    <row r="64" ht="15" customHeight="1">
+      <c r="A64" t="inlineStr">
         <is>
           <t>A 8290-2022</t>
         </is>
       </c>
-      <c r="B63" s="1" t="n">
+      <c r="B64" s="1" t="n">
         <v>44610</v>
       </c>
-      <c r="C63" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G63" t="n">
+      <c r="C64" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
         <v>3.5</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
         <v>1</v>
       </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P63" t="n">
+      <c r="P64" t="n">
         <v>1</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q64" t="n">
         <v>2</v>
       </c>
-      <c r="R63" s="2" t="inlineStr">
+      <c r="R64" s="2" t="inlineStr">
         <is>
           <t>Gul lammticka
 Brandmusseron</t>
         </is>
       </c>
-      <c r="S63">
+      <c r="S64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 8290-2022.xlsx", "A 8290-2022")</f>
         <v/>
       </c>
-      <c r="T63">
+      <c r="T64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 8290-2022.png", "A 8290-2022")</f>
         <v/>
       </c>
-      <c r="V63">
+      <c r="V64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 8290-2022.docx", "A 8290-2022")</f>
         <v/>
       </c>
-      <c r="W63">
+      <c r="W64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 8290-2022.docx", "A 8290-2022")</f>
         <v/>
       </c>
-      <c r="X63">
+      <c r="X64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 8290-2022.docx", "A 8290-2022")</f>
         <v/>
       </c>
-      <c r="Y63">
+      <c r="Y64">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 8290-2022.docx", "A 8290-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1">
-      <c r="A64" t="inlineStr">
+    <row r="65" ht="15" customHeight="1">
+      <c r="A65" t="inlineStr">
         <is>
           <t>A 13287-2022</t>
         </is>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B65" s="1" t="n">
         <v>44644</v>
       </c>
-      <c r="C64" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G64" t="n">
+      <c r="C65" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
         <v>14.6</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>1</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
         <v>1</v>
       </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P64" t="n">
+      <c r="P65" t="n">
         <v>1</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q65" t="n">
         <v>2</v>
       </c>
-      <c r="R64" s="2" t="inlineStr">
+      <c r="R65" s="2" t="inlineStr">
         <is>
           <t>Bullspindling
 Olivspindling</t>
         </is>
       </c>
-      <c r="S64">
+      <c r="S65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 13287-2022.xlsx", "A 13287-2022")</f>
         <v/>
       </c>
-      <c r="T64">
+      <c r="T65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 13287-2022.png", "A 13287-2022")</f>
         <v/>
       </c>
-      <c r="V64">
+      <c r="V65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 13287-2022.docx", "A 13287-2022")</f>
         <v/>
       </c>
-      <c r="W64">
+      <c r="W65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 13287-2022.docx", "A 13287-2022")</f>
         <v/>
       </c>
-      <c r="X64">
+      <c r="X65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 13287-2022.docx", "A 13287-2022")</f>
         <v/>
       </c>
-      <c r="Y64">
+      <c r="Y65">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 13287-2022.docx", "A 13287-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1">
-      <c r="A65" t="inlineStr">
+    <row r="66" ht="15" customHeight="1">
+      <c r="A66" t="inlineStr">
         <is>
           <t>A 49910-2022</t>
         </is>
       </c>
-      <c r="B65" s="1" t="n">
+      <c r="B66" s="1" t="n">
         <v>44865</v>
       </c>
-      <c r="C65" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
+      <c r="C66" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G65" t="n">
+      <c r="G66" t="n">
         <v>5.7</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H66" t="n">
         <v>2</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="n">
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
         <v>2</v>
       </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
         <v>2</v>
       </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
         <v>2</v>
       </c>
-      <c r="R65" s="2" t="inlineStr">
+      <c r="R66" s="2" t="inlineStr">
         <is>
           <t>Svartvit flugsnappare
 Sävsparv</t>
         </is>
       </c>
-      <c r="S65">
+      <c r="S66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 49910-2022.xlsx", "A 49910-2022")</f>
         <v/>
       </c>
-      <c r="T65">
+      <c r="T66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 49910-2022.png", "A 49910-2022")</f>
         <v/>
       </c>
-      <c r="V65">
+      <c r="V66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 49910-2022.docx", "A 49910-2022")</f>
         <v/>
       </c>
-      <c r="W65">
+      <c r="W66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 49910-2022.docx", "A 49910-2022")</f>
         <v/>
       </c>
-      <c r="X65">
+      <c r="X66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 49910-2022.docx", "A 49910-2022")</f>
         <v/>
       </c>
-      <c r="Y65">
+      <c r="Y66">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 49910-2022.docx", "A 49910-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1">
-      <c r="A66" t="inlineStr">
+    <row r="67" ht="15" customHeight="1">
+      <c r="A67" t="inlineStr">
         <is>
           <t>A 52658-2022</t>
         </is>
       </c>
-      <c r="B66" s="1" t="n">
+      <c r="B67" s="1" t="n">
         <v>44874</v>
       </c>
-      <c r="C66" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
+      <c r="C67" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G66" t="n">
+      <c r="G67" t="n">
         <v>1.4</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H67" t="n">
         <v>2</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
         <v>2</v>
       </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" t="n">
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
         <v>2</v>
       </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
         <v>2</v>
       </c>
-      <c r="R66" s="2" t="inlineStr">
+      <c r="R67" s="2" t="inlineStr">
         <is>
           <t>Strandskata
 Svartvit flugsnappare</t>
         </is>
       </c>
-      <c r="S66">
+      <c r="S67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52658-2022.xlsx", "A 52658-2022")</f>
         <v/>
       </c>
-      <c r="T66">
+      <c r="T67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52658-2022.png", "A 52658-2022")</f>
         <v/>
       </c>
-      <c r="V66">
+      <c r="V67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52658-2022.docx", "A 52658-2022")</f>
         <v/>
       </c>
-      <c r="W66">
+      <c r="W67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52658-2022.docx", "A 52658-2022")</f>
         <v/>
       </c>
-      <c r="X66">
+      <c r="X67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52658-2022.docx", "A 52658-2022")</f>
         <v/>
       </c>
-      <c r="Y66">
+      <c r="Y67">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52658-2022.docx", "A 52658-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="A67" t="inlineStr">
+    <row r="68" ht="15" customHeight="1">
+      <c r="A68" t="inlineStr">
         <is>
           <t>A 52654-2022</t>
         </is>
       </c>
-      <c r="B67" s="1" t="n">
+      <c r="B68" s="1" t="n">
         <v>44874</v>
       </c>
-      <c r="C67" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
+      <c r="C68" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>Bergvik skog öst AB</t>
         </is>
       </c>
-      <c r="G67" t="n">
+      <c r="G68" t="n">
         <v>5.2</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H68" t="n">
         <v>2</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
         <v>2</v>
       </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
         <v>2</v>
       </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
         <v>2</v>
       </c>
-      <c r="R67" s="2" t="inlineStr">
+      <c r="R68" s="2" t="inlineStr">
         <is>
           <t>Fiskmås
 Strandskata</t>
         </is>
       </c>
-      <c r="S67">
+      <c r="S68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52654-2022.xlsx", "A 52654-2022")</f>
         <v/>
       </c>
-      <c r="T67">
+      <c r="T68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52654-2022.png", "A 52654-2022")</f>
         <v/>
       </c>
-      <c r="V67">
+      <c r="V68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52654-2022.docx", "A 52654-2022")</f>
         <v/>
       </c>
-      <c r="W67">
+      <c r="W68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52654-2022.docx", "A 52654-2022")</f>
         <v/>
       </c>
-      <c r="X67">
+      <c r="X68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52654-2022.docx", "A 52654-2022")</f>
         <v/>
       </c>
-      <c r="Y67">
+      <c r="Y68">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52654-2022.docx", "A 52654-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1">
-      <c r="A68" t="inlineStr">
+    <row r="69" ht="15" customHeight="1">
+      <c r="A69" t="inlineStr">
         <is>
           <t>A 6981-2023</t>
         </is>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B69" s="1" t="n">
         <v>44967</v>
       </c>
-      <c r="C68" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G68" t="n">
+      <c r="C69" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
         <v>3.2</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H69" t="n">
         <v>1</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
         <v>1</v>
       </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
         <v>2</v>
       </c>
-      <c r="R68" s="2" t="inlineStr">
+      <c r="R69" s="2" t="inlineStr">
         <is>
           <t>Tallticka
 Större vattensalamander</t>
         </is>
       </c>
-      <c r="S68">
+      <c r="S69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 6981-2023.xlsx", "A 6981-2023")</f>
         <v/>
       </c>
-      <c r="T68">
+      <c r="T69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 6981-2023.png", "A 6981-2023")</f>
         <v/>
       </c>
-      <c r="V68">
+      <c r="V69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 6981-2023.docx", "A 6981-2023")</f>
         <v/>
       </c>
-      <c r="W68">
+      <c r="W69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 6981-2023.docx", "A 6981-2023")</f>
         <v/>
       </c>
-      <c r="X68">
+      <c r="X69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 6981-2023.docx", "A 6981-2023")</f>
         <v/>
       </c>
-      <c r="Y68">
+      <c r="Y69">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 6981-2023.docx", "A 6981-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" t="inlineStr">
+    <row r="70" ht="15" customHeight="1">
+      <c r="A70" t="inlineStr">
         <is>
           <t>A 21422-2023</t>
         </is>
       </c>
-      <c r="B69" s="1" t="n">
+      <c r="B70" s="1" t="n">
         <v>45063</v>
       </c>
-      <c r="C69" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
+      <c r="C70" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G69" t="n">
+      <c r="G70" t="n">
         <v>2.8</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H70" t="n">
         <v>2</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
         <v>1</v>
       </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
         <v>2</v>
       </c>
-      <c r="R69" s="2" t="inlineStr">
+      <c r="R70" s="2" t="inlineStr">
         <is>
           <t>Nordfladdermus
 Dvärgpipistrell</t>
         </is>
       </c>
-      <c r="S69">
+      <c r="S70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 21422-2023.xlsx", "A 21422-2023")</f>
         <v/>
       </c>
-      <c r="T69">
+      <c r="T70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 21422-2023.png", "A 21422-2023")</f>
         <v/>
       </c>
-      <c r="V69">
+      <c r="V70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 21422-2023.docx", "A 21422-2023")</f>
         <v/>
       </c>
-      <c r="W69">
+      <c r="W70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 21422-2023.docx", "A 21422-2023")</f>
         <v/>
       </c>
-      <c r="X69">
+      <c r="X70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 21422-2023.docx", "A 21422-2023")</f>
         <v/>
       </c>
-      <c r="Y69">
+      <c r="Y70">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 21422-2023.docx", "A 21422-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1">
-      <c r="A70" t="inlineStr">
+    <row r="71" ht="15" customHeight="1">
+      <c r="A71" t="inlineStr">
         <is>
           <t>A 26602-2023</t>
         </is>
       </c>
-      <c r="B70" s="1" t="n">
+      <c r="B71" s="1" t="n">
         <v>45092</v>
       </c>
-      <c r="C70" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
+      <c r="C71" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G70" t="n">
+      <c r="G71" t="n">
         <v>1.6</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H71" t="n">
         <v>2</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
         <v>2</v>
       </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0</v>
-      </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
         <v>2</v>
       </c>
-      <c r="P70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="n">
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
         <v>2</v>
       </c>
-      <c r="R70" s="2" t="inlineStr">
+      <c r="R71" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Skrattmås</t>
         </is>
       </c>
-      <c r="S70">
+      <c r="S71">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 26602-2023.xlsx", "A 26602-2023")</f>
         <v/>
       </c>
-      <c r="T70">
+      <c r="T71">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 26602-2023.png", "A 26602-2023")</f>
         <v/>
       </c>
-      <c r="V70">
+      <c r="V71">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 26602-2023.docx", "A 26602-2023")</f>
         <v/>
       </c>
-      <c r="W70">
+      <c r="W71">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 26602-2023.docx", "A 26602-2023")</f>
         <v/>
       </c>
-      <c r="X70">
+      <c r="X71">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 26602-2023.docx", "A 26602-2023")</f>
         <v/>
       </c>
-      <c r="Y70">
+      <c r="Y71">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 26602-2023.docx", "A 26602-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1">
-      <c r="A71" t="inlineStr">
+    <row r="72" ht="15" customHeight="1">
+      <c r="A72" t="inlineStr">
         <is>
           <t>A 36876-2023</t>
         </is>
       </c>
-      <c r="B71" s="1" t="n">
+      <c r="B72" s="1" t="n">
         <v>45154</v>
       </c>
-      <c r="C71" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
+      <c r="C72" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G71" t="n">
+      <c r="G72" t="n">
         <v>12.6</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H72" t="n">
         <v>1</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
         <v>2</v>
       </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
         <v>2</v>
       </c>
-      <c r="P71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="n">
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
         <v>2</v>
       </c>
-      <c r="R71" s="2" t="inlineStr">
+      <c r="R72" s="2" t="inlineStr">
         <is>
           <t>Slaguggla
 Slåtterfibbla</t>
         </is>
       </c>
-      <c r="S71">
+      <c r="S72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 36876-2023.xlsx", "A 36876-2023")</f>
         <v/>
       </c>
-      <c r="T71">
+      <c r="T72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 36876-2023.png", "A 36876-2023")</f>
         <v/>
       </c>
-      <c r="V71">
+      <c r="V72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 36876-2023.docx", "A 36876-2023")</f>
         <v/>
       </c>
-      <c r="W71">
+      <c r="W72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 36876-2023.docx", "A 36876-2023")</f>
         <v/>
       </c>
-      <c r="X71">
+      <c r="X72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 36876-2023.docx", "A 36876-2023")</f>
         <v/>
       </c>
-      <c r="Y71">
+      <c r="Y72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 36876-2023.docx", "A 36876-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>A 47201-2018</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>43369</v>
-      </c>
-      <c r="C72" s="1" t="n">
-        <v>45190</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>1</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>1</v>
-      </c>
-      <c r="R72" s="2" t="inlineStr">
-        <is>
-          <t>Korskovall</t>
-        </is>
-      </c>
-      <c r="S72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 47201-2018.xlsx", "A 47201-2018")</f>
-        <v/>
-      </c>
-      <c r="T72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 47201-2018.png", "A 47201-2018")</f>
-        <v/>
-      </c>
-      <c r="U72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/knärot/A 47201-2018.png", "A 47201-2018")</f>
-        <v/>
-      </c>
-      <c r="V72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 47201-2018.docx", "A 47201-2018")</f>
-        <v/>
-      </c>
-      <c r="W72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 47201-2018.docx", "A 47201-2018")</f>
-        <v/>
-      </c>
-      <c r="X72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 47201-2018.docx", "A 47201-2018")</f>
-        <v/>
-      </c>
-      <c r="Y72">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 47201-2018.docx", "A 47201-2018")</f>
         <v/>
       </c>
     </row>
@@ -7061,7 +7062,7 @@
         <v>43462</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7146,7 +7147,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7231,7 +7232,7 @@
         <v>43538</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7316,7 +7317,7 @@
         <v>43689</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7401,7 +7402,7 @@
         <v>43742</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7486,7 +7487,7 @@
         <v>43959</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7571,7 +7572,7 @@
         <v>44007</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7656,7 +7657,7 @@
         <v>44090</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7746,7 +7747,7 @@
         <v>44154</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7831,7 +7832,7 @@
         <v>44369</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7916,7 +7917,7 @@
         <v>44445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8006,7 +8007,7 @@
         <v>44455</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8091,7 +8092,7 @@
         <v>44455</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8176,7 +8177,7 @@
         <v>44501</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8266,7 +8267,7 @@
         <v>44501</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8356,7 +8357,7 @@
         <v>44509</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8441,7 +8442,7 @@
         <v>44511</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8526,7 +8527,7 @@
         <v>44517</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8611,7 +8612,7 @@
         <v>44536</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8696,7 +8697,7 @@
         <v>44571</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8781,7 +8782,7 @@
         <v>44606</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8866,7 +8867,7 @@
         <v>44607</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8951,7 +8952,7 @@
         <v>44712</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9041,7 +9042,7 @@
         <v>44728</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9131,7 +9132,7 @@
         <v>44742</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9216,7 +9217,7 @@
         <v>44796</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9306,7 +9307,7 @@
         <v>44874</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9396,7 +9397,7 @@
         <v>44874</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9486,7 +9487,7 @@
         <v>44875</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9571,7 +9572,7 @@
         <v>44938</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9656,7 +9657,7 @@
         <v>45013</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9741,7 +9742,7 @@
         <v>45021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9831,7 +9832,7 @@
         <v>45021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9925,7 +9926,7 @@
         <v>45048</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10015,7 +10016,7 @@
         <v>45063</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10105,7 +10106,7 @@
         <v>45063</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10195,7 +10196,7 @@
         <v>45070</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10285,7 +10286,7 @@
         <v>45070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10370,7 +10371,7 @@
         <v>45071</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10455,7 +10456,7 @@
         <v>45075</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10540,7 +10541,7 @@
         <v>45078</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10625,7 +10626,7 @@
         <v>45093</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10710,7 +10711,7 @@
         <v>45107</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10800,7 +10801,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10885,7 +10886,7 @@
         <v>45135</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10975,7 +10976,7 @@
         <v>43320</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11032,7 +11033,7 @@
         <v>43327</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11089,7 +11090,7 @@
         <v>43343</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11151,7 +11152,7 @@
         <v>43343</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11213,7 +11214,7 @@
         <v>43355</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11270,7 +11271,7 @@
         <v>43360</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11332,7 +11333,7 @@
         <v>43376</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11389,7 +11390,7 @@
         <v>43376</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11446,7 +11447,7 @@
         <v>43381</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11503,7 +11504,7 @@
         <v>43384</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11565,7 +11566,7 @@
         <v>43398</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11622,7 +11623,7 @@
         <v>43410</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11684,7 +11685,7 @@
         <v>43423</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11741,7 +11742,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11798,7 +11799,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11855,7 +11856,7 @@
         <v>43423</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11912,7 +11913,7 @@
         <v>43430</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11974,7 +11975,7 @@
         <v>43432</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12036,7 +12037,7 @@
         <v>43448</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12098,7 +12099,7 @@
         <v>43453</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12155,7 +12156,7 @@
         <v>43468</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12212,7 +12213,7 @@
         <v>43468</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12269,7 +12270,7 @@
         <v>43469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12326,7 +12327,7 @@
         <v>43469</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12383,7 +12384,7 @@
         <v>43472</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12440,7 +12441,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12502,7 +12503,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12559,7 +12560,7 @@
         <v>43472</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12621,7 +12622,7 @@
         <v>43473</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12678,7 +12679,7 @@
         <v>43474</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12735,7 +12736,7 @@
         <v>43475</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12797,7 +12798,7 @@
         <v>43476</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12859,7 +12860,7 @@
         <v>43479</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12916,7 +12917,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12973,7 +12974,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13030,7 +13031,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13087,7 +13088,7 @@
         <v>43480</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13144,7 +13145,7 @@
         <v>43482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13201,7 +13202,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13258,7 +13259,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13315,7 +13316,7 @@
         <v>43483</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13372,7 +13373,7 @@
         <v>43483</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13434,7 +13435,7 @@
         <v>43484</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13491,7 +13492,7 @@
         <v>43485</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13548,7 +13549,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13605,7 +13606,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13662,7 +13663,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13719,7 +13720,7 @@
         <v>43485</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13776,7 +13777,7 @@
         <v>43486</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13833,7 +13834,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13890,7 +13891,7 @@
         <v>43487</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13947,7 +13948,7 @@
         <v>43489</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14004,7 +14005,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14061,7 +14062,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14118,7 +14119,7 @@
         <v>43493</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14175,7 +14176,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14232,7 +14233,7 @@
         <v>43493</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14289,7 +14290,7 @@
         <v>43494</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14346,7 +14347,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14403,7 +14404,7 @@
         <v>43495</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14460,7 +14461,7 @@
         <v>43500</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14517,7 +14518,7 @@
         <v>43500</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14574,7 +14575,7 @@
         <v>43502</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14631,7 +14632,7 @@
         <v>43503</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14693,7 +14694,7 @@
         <v>43507</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14755,7 +14756,7 @@
         <v>43507</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14812,7 +14813,7 @@
         <v>43508</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14874,7 +14875,7 @@
         <v>43508</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14936,7 +14937,7 @@
         <v>43509</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14998,7 +14999,7 @@
         <v>43514</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15055,7 +15056,7 @@
         <v>43515</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15112,7 +15113,7 @@
         <v>43517</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15174,7 +15175,7 @@
         <v>43518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15231,7 +15232,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15288,7 +15289,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15345,7 +15346,7 @@
         <v>43518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15402,7 +15403,7 @@
         <v>43521</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15459,7 +15460,7 @@
         <v>43522</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15516,7 +15517,7 @@
         <v>43523</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15573,7 +15574,7 @@
         <v>43524</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15630,7 +15631,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15687,7 +15688,7 @@
         <v>43524</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15744,7 +15745,7 @@
         <v>43529</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15806,7 +15807,7 @@
         <v>43530</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15863,7 +15864,7 @@
         <v>43531</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15925,7 +15926,7 @@
         <v>43535</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15982,7 +15983,7 @@
         <v>43535</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16039,7 +16040,7 @@
         <v>43536</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16096,7 +16097,7 @@
         <v>43537</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16158,7 +16159,7 @@
         <v>43537</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16220,7 +16221,7 @@
         <v>43538</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16277,7 +16278,7 @@
         <v>43545</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16339,7 +16340,7 @@
         <v>43545</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16401,7 +16402,7 @@
         <v>43550</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16463,7 +16464,7 @@
         <v>43560</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16520,7 +16521,7 @@
         <v>43561</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16582,7 +16583,7 @@
         <v>43562</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16639,7 +16640,7 @@
         <v>43562</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16701,7 +16702,7 @@
         <v>43573</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16758,7 +16759,7 @@
         <v>43580</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16820,7 +16821,7 @@
         <v>43590</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16897,7 +16898,7 @@
         <v>43590</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16954,7 +16955,7 @@
         <v>43591</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17011,7 +17012,7 @@
         <v>43605</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17068,7 +17069,7 @@
         <v>43607</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17130,7 +17131,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17192,7 +17193,7 @@
         <v>43607</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17254,7 +17255,7 @@
         <v>43612</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17311,7 +17312,7 @@
         <v>43613</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17373,7 +17374,7 @@
         <v>43613</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17435,7 +17436,7 @@
         <v>43618</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17497,7 +17498,7 @@
         <v>43623</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17554,7 +17555,7 @@
         <v>43635</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17616,7 +17617,7 @@
         <v>43642</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17673,7 +17674,7 @@
         <v>43642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17730,7 +17731,7 @@
         <v>43647</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17787,7 +17788,7 @@
         <v>43651</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17844,7 +17845,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17901,7 +17902,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17958,7 +17959,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18015,7 +18016,7 @@
         <v>43651</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18072,7 +18073,7 @@
         <v>43686</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18129,7 +18130,7 @@
         <v>43692</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18186,7 +18187,7 @@
         <v>43699</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18248,7 +18249,7 @@
         <v>43699</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18305,7 +18306,7 @@
         <v>43706</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18367,7 +18368,7 @@
         <v>43713</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18424,7 +18425,7 @@
         <v>43717</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18486,7 +18487,7 @@
         <v>43723</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18543,7 +18544,7 @@
         <v>43723</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18600,7 +18601,7 @@
         <v>43739</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18662,7 +18663,7 @@
         <v>43748</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18724,7 +18725,7 @@
         <v>43755</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18781,7 +18782,7 @@
         <v>43761</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18838,7 +18839,7 @@
         <v>43767</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18900,7 +18901,7 @@
         <v>43773</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18957,7 +18958,7 @@
         <v>43782</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19019,7 +19020,7 @@
         <v>43787</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19081,7 +19082,7 @@
         <v>43790</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19138,7 +19139,7 @@
         <v>43795</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19200,7 +19201,7 @@
         <v>43797</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19257,7 +19258,7 @@
         <v>43802</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19314,7 +19315,7 @@
         <v>43808</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19371,7 +19372,7 @@
         <v>43810</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19433,7 +19434,7 @@
         <v>43812</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19495,7 +19496,7 @@
         <v>43817</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19552,7 +19553,7 @@
         <v>43821</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19614,7 +19615,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19676,7 +19677,7 @@
         <v>43821</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19738,7 +19739,7 @@
         <v>43838</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19800,7 +19801,7 @@
         <v>43844</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19862,7 +19863,7 @@
         <v>43844</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19924,7 +19925,7 @@
         <v>43850</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19981,7 +19982,7 @@
         <v>43852</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20038,7 +20039,7 @@
         <v>43855</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20100,7 +20101,7 @@
         <v>43864</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20157,7 +20158,7 @@
         <v>43865</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20219,7 +20220,7 @@
         <v>43873</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20281,7 +20282,7 @@
         <v>43882</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20338,7 +20339,7 @@
         <v>43885</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20400,7 +20401,7 @@
         <v>43885</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20462,7 +20463,7 @@
         <v>43895</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20524,7 +20525,7 @@
         <v>43901</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20586,7 +20587,7 @@
         <v>43902</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20648,7 +20649,7 @@
         <v>43903</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20710,7 +20711,7 @@
         <v>43906</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20767,7 +20768,7 @@
         <v>43909</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20829,7 +20830,7 @@
         <v>43909</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20891,7 +20892,7 @@
         <v>43910</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20953,7 +20954,7 @@
         <v>43920</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21010,7 +21011,7 @@
         <v>43936</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21067,7 +21068,7 @@
         <v>43969</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21129,7 +21130,7 @@
         <v>43986</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21191,7 +21192,7 @@
         <v>44007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21248,7 +21249,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21305,7 +21306,7 @@
         <v>44015</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21362,7 +21363,7 @@
         <v>44021</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21419,7 +21420,7 @@
         <v>44038</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21481,7 +21482,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21543,7 +21544,7 @@
         <v>44038</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21605,7 +21606,7 @@
         <v>44040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21667,7 +21668,7 @@
         <v>44040</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21729,7 +21730,7 @@
         <v>44043</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21791,7 +21792,7 @@
         <v>44060</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21848,7 +21849,7 @@
         <v>44061</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21910,7 +21911,7 @@
         <v>44064</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -21972,7 +21973,7 @@
         <v>44074</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22034,7 +22035,7 @@
         <v>44077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22091,7 +22092,7 @@
         <v>44092</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22153,7 +22154,7 @@
         <v>44095</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22210,7 +22211,7 @@
         <v>44098</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22267,7 +22268,7 @@
         <v>44105</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22329,7 +22330,7 @@
         <v>44105</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22391,7 +22392,7 @@
         <v>44118</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22448,7 +22449,7 @@
         <v>44118</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22505,7 +22506,7 @@
         <v>44120</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22562,7 +22563,7 @@
         <v>44133</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22624,7 +22625,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22686,7 +22687,7 @@
         <v>44133</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22748,7 +22749,7 @@
         <v>44140</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22810,7 +22811,7 @@
         <v>44148</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22872,7 +22873,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22934,7 +22935,7 @@
         <v>44148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -22996,7 +22997,7 @@
         <v>44151</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23058,7 +23059,7 @@
         <v>44151</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23115,7 +23116,7 @@
         <v>44155</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23177,7 +23178,7 @@
         <v>44160</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23234,7 +23235,7 @@
         <v>44162</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23291,7 +23292,7 @@
         <v>44165</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23348,7 +23349,7 @@
         <v>44167</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23405,7 +23406,7 @@
         <v>44173</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23462,7 +23463,7 @@
         <v>44183</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23519,7 +23520,7 @@
         <v>44186</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23576,7 +23577,7 @@
         <v>44196</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23638,7 +23639,7 @@
         <v>44221</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23695,7 +23696,7 @@
         <v>44221</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23752,7 +23753,7 @@
         <v>44224</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23814,7 +23815,7 @@
         <v>44235</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23871,7 +23872,7 @@
         <v>44238</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23933,7 +23934,7 @@
         <v>44243</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -23990,7 +23991,7 @@
         <v>44257</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24052,7 +24053,7 @@
         <v>44258</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24114,7 +24115,7 @@
         <v>44278</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24176,7 +24177,7 @@
         <v>44287</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24233,7 +24234,7 @@
         <v>44287</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24290,7 +24291,7 @@
         <v>44308</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24347,7 +24348,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24404,7 +24405,7 @@
         <v>44308</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24461,7 +24462,7 @@
         <v>44312</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24518,7 +24519,7 @@
         <v>44330</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24575,7 +24576,7 @@
         <v>44336</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24632,7 +24633,7 @@
         <v>44337</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24689,7 +24690,7 @@
         <v>44347</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24746,7 +24747,7 @@
         <v>44354</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24803,7 +24804,7 @@
         <v>44361</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24860,7 +24861,7 @@
         <v>44365</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24922,7 +24923,7 @@
         <v>44368</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -24979,7 +24980,7 @@
         <v>44376</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25036,7 +25037,7 @@
         <v>44420</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25093,7 +25094,7 @@
         <v>44425</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25155,7 +25156,7 @@
         <v>44432</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25212,7 +25213,7 @@
         <v>44450</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25269,7 +25270,7 @@
         <v>44460</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25326,7 +25327,7 @@
         <v>44461</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25383,7 +25384,7 @@
         <v>44461</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25440,7 +25441,7 @@
         <v>44462</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25497,7 +25498,7 @@
         <v>44466</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25554,7 +25555,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25616,7 +25617,7 @@
         <v>44466</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25673,7 +25674,7 @@
         <v>44467</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25730,7 +25731,7 @@
         <v>44488</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25787,7 +25788,7 @@
         <v>44491</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25849,7 +25850,7 @@
         <v>44495</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25911,7 +25912,7 @@
         <v>44496</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -25968,7 +25969,7 @@
         <v>44498</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26025,7 +26026,7 @@
         <v>44504</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26082,7 +26083,7 @@
         <v>44511</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26139,7 +26140,7 @@
         <v>44512</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26196,7 +26197,7 @@
         <v>44512</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26253,7 +26254,7 @@
         <v>44515</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26315,7 +26316,7 @@
         <v>44515</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26377,7 +26378,7 @@
         <v>44522</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26434,7 +26435,7 @@
         <v>44523</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26491,7 +26492,7 @@
         <v>44525</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26548,7 +26549,7 @@
         <v>44531</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26610,7 +26611,7 @@
         <v>44531</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26667,7 +26668,7 @@
         <v>44536</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26724,7 +26725,7 @@
         <v>44546</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26786,7 +26787,7 @@
         <v>44546</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26843,7 +26844,7 @@
         <v>44548</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26905,7 +26906,7 @@
         <v>44550</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -26962,7 +26963,7 @@
         <v>44573</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27019,7 +27020,7 @@
         <v>44578</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27076,7 +27077,7 @@
         <v>44578</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27133,7 +27134,7 @@
         <v>44586</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27190,7 +27191,7 @@
         <v>44588</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27252,7 +27253,7 @@
         <v>44588</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27309,7 +27310,7 @@
         <v>44589</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27366,7 +27367,7 @@
         <v>44591</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27423,7 +27424,7 @@
         <v>44597</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27480,7 +27481,7 @@
         <v>44599</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27537,7 +27538,7 @@
         <v>44602</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27599,7 +27600,7 @@
         <v>44605</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27661,7 +27662,7 @@
         <v>44606</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27718,7 +27719,7 @@
         <v>44608</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27775,7 +27776,7 @@
         <v>44608</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27832,7 +27833,7 @@
         <v>44609</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27889,7 +27890,7 @@
         <v>44613</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27946,7 +27947,7 @@
         <v>44613</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28003,7 +28004,7 @@
         <v>44614</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28060,7 +28061,7 @@
         <v>44614</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28117,7 +28118,7 @@
         <v>44622</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28179,7 +28180,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28241,7 +28242,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28303,7 +28304,7 @@
         <v>44622</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28365,7 +28366,7 @@
         <v>44636</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28422,7 +28423,7 @@
         <v>44643</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28479,7 +28480,7 @@
         <v>44644</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28536,7 +28537,7 @@
         <v>44644</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28593,7 +28594,7 @@
         <v>44657</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28650,7 +28651,7 @@
         <v>44659</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28707,7 +28708,7 @@
         <v>44664</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28764,7 +28765,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28821,7 +28822,7 @@
         <v>44664</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28878,7 +28879,7 @@
         <v>44665</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28940,7 +28941,7 @@
         <v>44665</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29002,7 +29003,7 @@
         <v>44667</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29064,7 +29065,7 @@
         <v>44669</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29126,7 +29127,7 @@
         <v>44670</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29183,7 +29184,7 @@
         <v>44676</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29240,7 +29241,7 @@
         <v>44676</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29302,7 +29303,7 @@
         <v>44683</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29359,7 +29360,7 @@
         <v>44684</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29416,7 +29417,7 @@
         <v>44687</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29473,7 +29474,7 @@
         <v>44691</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29530,7 +29531,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29587,7 +29588,7 @@
         <v>44694</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29649,7 +29650,7 @@
         <v>44699</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29706,7 +29707,7 @@
         <v>44706</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29763,7 +29764,7 @@
         <v>44710</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29825,7 +29826,7 @@
         <v>44714</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29882,7 +29883,7 @@
         <v>44715</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29939,7 +29940,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -29996,7 +29997,7 @@
         <v>44718</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30058,7 +30059,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30120,7 +30121,7 @@
         <v>44721</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30182,7 +30183,7 @@
         <v>44725</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30239,7 +30240,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30296,7 +30297,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30353,7 +30354,7 @@
         <v>44728</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30415,7 +30416,7 @@
         <v>44729</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30477,7 +30478,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30534,7 +30535,7 @@
         <v>44734</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30591,7 +30592,7 @@
         <v>44739</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30648,7 +30649,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30710,7 +30711,7 @@
         <v>44755</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30767,7 +30768,7 @@
         <v>44770</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30829,7 +30830,7 @@
         <v>44771</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30891,7 +30892,7 @@
         <v>44775</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30948,7 +30949,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31005,7 +31006,7 @@
         <v>44778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31062,7 +31063,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31119,7 +31120,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31176,7 +31177,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31233,7 +31234,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31290,7 +31291,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31352,7 +31353,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31414,7 +31415,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31476,7 +31477,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31533,7 +31534,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31595,7 +31596,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31652,7 +31653,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31709,7 +31710,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31766,7 +31767,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31823,7 +31824,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31880,7 +31881,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31942,7 +31943,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -31999,7 +32000,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32056,7 +32057,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32113,7 +32114,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32175,7 +32176,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32237,7 +32238,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32299,7 +32300,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32361,7 +32362,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32418,7 +32419,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32475,7 +32476,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32537,7 +32538,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32599,7 +32600,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32656,7 +32657,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32713,7 +32714,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32770,7 +32771,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32827,7 +32828,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32884,7 +32885,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32941,7 +32942,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -32998,7 +32999,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33055,7 +33056,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33112,7 +33113,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33174,7 +33175,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33231,7 +33232,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33293,7 +33294,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33350,7 +33351,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33407,7 +33408,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33464,7 +33465,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33521,7 +33522,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33578,7 +33579,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33635,7 +33636,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33692,7 +33693,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33749,7 +33750,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33806,7 +33807,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33868,7 +33869,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33930,7 +33931,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -33992,7 +33993,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34054,7 +34055,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34116,7 +34117,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34178,7 +34179,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34240,7 +34241,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34302,7 +34303,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34364,7 +34365,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34426,7 +34427,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34483,7 +34484,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34540,7 +34541,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34602,7 +34603,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34664,7 +34665,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34726,7 +34727,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34783,7 +34784,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34840,7 +34841,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34897,7 +34898,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34954,7 +34955,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35011,7 +35012,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35068,7 +35069,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35125,7 +35126,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35182,7 +35183,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35239,7 +35240,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35296,7 +35297,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35353,7 +35354,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35410,7 +35411,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35467,7 +35468,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35524,7 +35525,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35581,7 +35582,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35638,7 +35639,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35700,7 +35701,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35757,7 +35758,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35819,7 +35820,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35876,7 +35877,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35933,7 +35934,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -35990,7 +35991,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36047,7 +36048,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36109,7 +36110,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36171,7 +36172,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36233,7 +36234,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36295,7 +36296,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36357,7 +36358,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36414,7 +36415,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36476,7 +36477,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36538,7 +36539,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36600,7 +36601,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36662,7 +36663,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36724,7 +36725,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36786,7 +36787,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36843,7 +36844,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36900,7 +36901,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -36957,7 +36958,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37014,7 +37015,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37071,7 +37072,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37128,7 +37129,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37190,7 +37191,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37252,7 +37253,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37309,7 +37310,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37371,7 +37372,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37428,7 +37429,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37485,7 +37486,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37542,7 +37543,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37599,7 +37600,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37656,7 +37657,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37718,7 +37719,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37775,7 +37776,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37837,7 +37838,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37894,7 +37895,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -37956,7 +37957,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38013,7 +38014,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38070,7 +38071,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38132,7 +38133,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38194,7 +38195,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38256,7 +38257,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38318,7 +38319,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38375,7 +38376,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38432,7 +38433,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38489,7 +38490,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38551,7 +38552,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38613,7 +38614,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38675,7 +38676,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38737,7 +38738,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38799,7 +38800,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38861,7 +38862,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38923,7 +38924,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -38980,7 +38981,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39037,7 +39038,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39099,7 +39100,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39161,7 +39162,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39223,7 +39224,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39285,7 +39286,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39347,7 +39348,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39409,7 +39410,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39471,7 +39472,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39533,7 +39534,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39595,7 +39596,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39657,7 +39658,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39719,7 +39720,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39776,7 +39777,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39833,7 +39834,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39895,7 +39896,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39952,7 +39953,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40014,7 +40015,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40071,7 +40072,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40128,7 +40129,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40190,7 +40191,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40252,7 +40253,7 @@
         <v>45187</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44063</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44779</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43635</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44021</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44546</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>44614</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44662</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>45006</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45076</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43573</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44376</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44684</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44858</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44874</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>44995</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>44376</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44531</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44739</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44875</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44998</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45016</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45054</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43846</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43882</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44077</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44235</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44529</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44610</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44865</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>44874</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44967</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>45063</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45092</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45154</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43462</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43538</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43742</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43959</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>44007</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44090</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44154</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44445</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44455</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>44455</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44501</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>44501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>44511</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44536</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>44571</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44607</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>44712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>44728</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44742</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44874</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44874</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44938</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>45013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>45021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>45021</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45048</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>45063</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45063</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>45070</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>45071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>45075</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>45093</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45107</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45135</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43320</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43327</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>43343</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43343</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>43355</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43376</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43381</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43384</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43398</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>43423</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>43423</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43430</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43432</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>43448</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>43453</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>43468</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>43468</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43469</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43469</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43472</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43473</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43474</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>43476</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>43483</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>43483</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>43484</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>43485</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>43485</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>43486</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>43487</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>43489</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>43493</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>43493</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>43494</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>43495</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>43500</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>43500</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>43502</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>43503</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>43507</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>43507</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43508</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>43508</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>43514</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>43515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43517</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43521</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43522</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43523</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43524</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43524</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43529</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43530</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43531</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>43535</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>43535</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43536</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>43537</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>43537</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>43538</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>43545</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>43545</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43560</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>43561</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43562</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43562</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43573</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43580</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43590</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>43590</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>43591</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>43605</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43607</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>43607</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43612</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43613</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>43613</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>43618</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>43623</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>43635</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>43642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>43642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>43647</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>43651</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>43651</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>43686</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>43692</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>43699</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>43699</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>43706</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>43713</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>43717</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>43723</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>43723</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>43739</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>43748</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>43761</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>43767</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43787</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>43797</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>43802</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>43808</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>43810</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43812</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>43817</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>43821</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43821</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43838</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43844</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43844</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43864</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>43865</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43873</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>43882</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>43885</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>43885</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>43902</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>43906</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>43909</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>43909</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>43910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>43920</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>43936</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>43969</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44015</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44038</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44038</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44040</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44040</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44043</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44061</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>44074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44077</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44092</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22254,7 +22254,7 @@
         <v>44095</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22311,7 +22311,7 @@
         <v>44098</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44105</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44105</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44118</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44118</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44120</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44133</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44133</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44140</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23097,7 +23097,7 @@
         <v>44151</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44151</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44160</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44162</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44165</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44173</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>44183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>44186</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23677,7 +23677,7 @@
         <v>44196</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44221</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44221</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44224</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44235</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44238</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44243</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44257</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44258</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44287</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44287</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44308</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44308</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44312</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44330</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44336</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44337</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44347</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44354</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44361</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44365</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>44368</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>44376</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>44425</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44432</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44450</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44460</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44461</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44461</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44462</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44466</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>44466</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>44467</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>44488</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44491</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>44495</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>44496</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>44498</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>44504</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44511</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44512</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44512</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44515</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         <v>44515</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
         <v>44522</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>44523</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>44525</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44531</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44531</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44536</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44546</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44546</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44548</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44550</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44573</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44578</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44578</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44586</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44588</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27353,7 +27353,7 @@
         <v>44588</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27410,7 +27410,7 @@
         <v>44589</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44591</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44597</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44599</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44602</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>44605</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>44606</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>44608</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>44608</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>44609</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>44613</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44613</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44614</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28161,7 +28161,7 @@
         <v>44614</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28218,7 +28218,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44622</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>44622</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>44636</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>44643</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44644</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44644</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>44657</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>44659</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>44664</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>44664</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>44665</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>44665</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44669</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44670</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44676</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44676</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44684</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44687</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>44691</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44694</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44699</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44706</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44710</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44714</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44715</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44718</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44721</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>44725</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44728</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44729</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>44734</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44739</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>44755</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44770</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30930,7 +30930,7 @@
         <v>44771</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30992,7 +30992,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31049,7 +31049,7 @@
         <v>44775</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31220,7 +31220,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31277,7 +31277,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32281,7 +32281,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32405,7 +32405,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32581,7 +32581,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33679,7 +33679,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33736,7 +33736,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33793,7 +33793,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33912,7 +33912,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34160,7 +34160,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34470,7 +34470,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34527,7 +34527,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34584,7 +34584,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34708,7 +34708,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35744,7 +35744,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35801,7 +35801,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35863,7 +35863,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35920,7 +35920,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35977,7 +35977,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36034,7 +36034,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36153,7 +36153,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36215,7 +36215,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36339,7 +36339,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36768,7 +36768,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37172,7 +37172,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37234,7 +37234,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37762,7 +37762,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37881,7 +37881,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38057,7 +38057,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38114,7 +38114,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38176,7 +38176,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38238,7 +38238,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38595,7 +38595,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38657,7 +38657,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38967,7 +38967,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39143,7 +39143,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39205,7 +39205,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39267,7 +39267,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39329,7 +39329,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39391,7 +39391,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39701,7 +39701,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39820,7 +39820,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39877,7 +39877,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39996,7 +39996,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40058,7 +40058,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40172,7 +40172,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40296,7 +40296,7 @@
         <v>45187</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y614"/>
+  <dimension ref="A1:Y616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44063</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44779</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43635</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44021</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44546</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>44614</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44662</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>45006</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45076</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43573</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44376</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44684</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44858</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44874</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>44995</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>44376</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44531</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44739</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44875</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44998</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45016</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45054</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43846</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43882</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44077</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44235</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44529</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44610</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44865</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>44874</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44967</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>45063</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         <v>45092</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45154</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
         <v>43462</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7247,7 +7247,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7332,7 +7332,7 @@
         <v>43538</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7417,7 +7417,7 @@
         <v>43689</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>43742</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>43959</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7672,7 +7672,7 @@
         <v>44007</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44090</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
         <v>44154</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7932,7 +7932,7 @@
         <v>44369</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8017,7 +8017,7 @@
         <v>44445</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44455</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8192,7 +8192,7 @@
         <v>44455</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>44501</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>44501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8457,7 +8457,7 @@
         <v>44509</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8542,7 +8542,7 @@
         <v>44511</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         <v>44517</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         <v>44536</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8797,7 +8797,7 @@
         <v>44571</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>44606</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>44607</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>44712</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9142,7 +9142,7 @@
         <v>44728</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>44742</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>44796</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9407,7 +9407,7 @@
         <v>44874</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44874</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9587,7 +9587,7 @@
         <v>44875</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>44938</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9757,7 +9757,7 @@
         <v>45013</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9842,7 +9842,7 @@
         <v>45021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9932,7 +9932,7 @@
         <v>45021</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
         <v>45048</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
         <v>45063</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45063</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>45070</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>45071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>45075</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>45078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>45093</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10811,7 +10811,7 @@
         <v>45107</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
         <v>45135</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>43320</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>43327</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>43343</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>43343</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>43355</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11371,7 +11371,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>43376</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>43381</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>43384</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>43398</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>43423</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>43423</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>43430</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12075,7 +12075,7 @@
         <v>43432</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
         <v>43448</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12199,7 +12199,7 @@
         <v>43453</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12256,7 +12256,7 @@
         <v>43468</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>43468</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12370,7 +12370,7 @@
         <v>43469</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12427,7 +12427,7 @@
         <v>43469</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12484,7 +12484,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12541,7 +12541,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12603,7 +12603,7 @@
         <v>43472</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12660,7 +12660,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12722,7 +12722,7 @@
         <v>43473</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12779,7 +12779,7 @@
         <v>43474</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12836,7 +12836,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12898,7 +12898,7 @@
         <v>43476</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12960,7 +12960,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13017,7 +13017,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13074,7 +13074,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13131,7 +13131,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13188,7 +13188,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13245,7 +13245,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13302,7 +13302,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13359,7 +13359,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13416,7 +13416,7 @@
         <v>43483</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13473,7 +13473,7 @@
         <v>43483</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13535,7 +13535,7 @@
         <v>43484</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13592,7 +13592,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13649,7 +13649,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13706,7 +13706,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13763,7 +13763,7 @@
         <v>43485</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13820,7 +13820,7 @@
         <v>43485</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13934,7 +13934,7 @@
         <v>43486</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>43487</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14048,7 +14048,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14105,7 +14105,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14162,7 +14162,7 @@
         <v>43489</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14219,7 +14219,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14276,7 +14276,7 @@
         <v>43493</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14333,7 +14333,7 @@
         <v>43493</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14390,7 +14390,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14447,7 +14447,7 @@
         <v>43494</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14504,7 +14504,7 @@
         <v>43495</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14561,7 +14561,7 @@
         <v>43500</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>43500</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>43502</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>43503</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14794,7 +14794,7 @@
         <v>43507</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>43507</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         <v>43508</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>43508</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>43509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>43514</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15156,7 +15156,7 @@
         <v>43515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15213,7 +15213,7 @@
         <v>43517</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>43518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>43518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>43521</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>43522</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>43523</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>43524</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>43524</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>43529</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>43530</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15964,7 +15964,7 @@
         <v>43531</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16026,7 +16026,7 @@
         <v>43535</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16083,7 +16083,7 @@
         <v>43535</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>43536</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16197,7 +16197,7 @@
         <v>43537</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16259,7 +16259,7 @@
         <v>43537</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>43538</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>43545</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>43545</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16502,7 +16502,7 @@
         <v>43550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>43560</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>43561</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16683,7 +16683,7 @@
         <v>43562</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16740,7 +16740,7 @@
         <v>43562</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16802,7 +16802,7 @@
         <v>43573</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
         <v>43580</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
         <v>43590</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16998,7 +16998,7 @@
         <v>43590</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17055,7 +17055,7 @@
         <v>43591</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17112,7 +17112,7 @@
         <v>43605</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17169,7 +17169,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17231,7 +17231,7 @@
         <v>43607</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17293,7 +17293,7 @@
         <v>43607</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17355,7 +17355,7 @@
         <v>43612</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17412,7 +17412,7 @@
         <v>43613</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17474,7 +17474,7 @@
         <v>43613</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17536,7 +17536,7 @@
         <v>43618</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>43623</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17655,7 +17655,7 @@
         <v>43635</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17717,7 +17717,7 @@
         <v>43642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17774,7 +17774,7 @@
         <v>43642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17831,7 +17831,7 @@
         <v>43647</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17888,7 +17888,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17945,7 +17945,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18002,7 +18002,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>43651</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>43651</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>43686</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>43692</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18287,7 +18287,7 @@
         <v>43699</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18349,7 +18349,7 @@
         <v>43699</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18406,7 +18406,7 @@
         <v>43706</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         <v>43713</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18525,7 +18525,7 @@
         <v>43717</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18587,7 +18587,7 @@
         <v>43723</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18644,7 +18644,7 @@
         <v>43723</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18701,7 +18701,7 @@
         <v>43739</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18763,7 +18763,7 @@
         <v>43748</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18825,7 +18825,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18882,7 +18882,7 @@
         <v>43761</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18939,7 +18939,7 @@
         <v>43767</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19001,7 +19001,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19058,7 +19058,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>43787</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19182,7 +19182,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19239,7 +19239,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19301,7 +19301,7 @@
         <v>43797</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19358,7 +19358,7 @@
         <v>43802</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19415,7 +19415,7 @@
         <v>43808</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19472,7 +19472,7 @@
         <v>43810</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>43812</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>43817</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19653,7 +19653,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19715,7 +19715,7 @@
         <v>43821</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19777,7 +19777,7 @@
         <v>43821</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>43838</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19901,7 +19901,7 @@
         <v>43844</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19963,7 +19963,7 @@
         <v>43844</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>43852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>43855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>43864</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>43865</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>43873</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>43882</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20439,7 +20439,7 @@
         <v>43885</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20501,7 +20501,7 @@
         <v>43885</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20563,7 +20563,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20625,7 +20625,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>43902</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20749,7 +20749,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>43906</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>43909</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>43909</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>43910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>43920</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>43936</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>43969</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>44015</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21520,7 +21520,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21582,7 +21582,7 @@
         <v>44038</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21644,7 +21644,7 @@
         <v>44038</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>44040</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21768,7 +21768,7 @@
         <v>44040</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21830,7 +21830,7 @@
         <v>44043</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21892,7 +21892,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21949,7 +21949,7 @@
         <v>44061</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22011,7 +22011,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
         <v>44074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22135,7 +22135,7 @@
         <v>44077</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22192,7 +22192,7 @@
         <v>44092</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22254,7 +22254,7 @@
         <v>44095</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22311,7 +22311,7 @@
         <v>44098</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22368,7 +22368,7 @@
         <v>44105</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22430,7 +22430,7 @@
         <v>44105</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22492,7 +22492,7 @@
         <v>44118</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22549,7 +22549,7 @@
         <v>44118</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22606,7 +22606,7 @@
         <v>44120</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22663,7 +22663,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22725,7 +22725,7 @@
         <v>44133</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44133</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22849,7 +22849,7 @@
         <v>44140</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22911,7 +22911,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>44148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23035,7 +23035,7 @@
         <v>44148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23097,7 +23097,7 @@
         <v>44151</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>44151</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>44155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>44160</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>44162</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>44165</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44173</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23563,7 +23563,7 @@
         <v>44183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23620,7 +23620,7 @@
         <v>44186</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23677,7 +23677,7 @@
         <v>44196</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>44221</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>44221</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>44224</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23915,7 +23915,7 @@
         <v>44235</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23972,7 +23972,7 @@
         <v>44238</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44243</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44257</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44258</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
         <v>44287</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44287</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24391,7 +24391,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24448,7 +24448,7 @@
         <v>44308</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24505,7 +24505,7 @@
         <v>44308</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24562,7 +24562,7 @@
         <v>44312</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24619,7 +24619,7 @@
         <v>44330</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24676,7 +24676,7 @@
         <v>44336</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24733,7 +24733,7 @@
         <v>44337</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24790,7 +24790,7 @@
         <v>44347</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24847,7 +24847,7 @@
         <v>44354</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24904,7 +24904,7 @@
         <v>44361</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24961,7 +24961,7 @@
         <v>44365</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25023,7 +25023,7 @@
         <v>44368</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25080,7 +25080,7 @@
         <v>44376</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25137,7 +25137,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25194,7 +25194,7 @@
         <v>44425</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25256,7 +25256,7 @@
         <v>44432</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25313,7 +25313,7 @@
         <v>44450</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25370,7 +25370,7 @@
         <v>44460</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25427,7 +25427,7 @@
         <v>44461</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25484,7 +25484,7 @@
         <v>44461</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25541,7 +25541,7 @@
         <v>44462</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25598,7 +25598,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25655,7 +25655,7 @@
         <v>44466</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25717,7 +25717,7 @@
         <v>44466</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25774,7 +25774,7 @@
         <v>44467</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25831,7 +25831,7 @@
         <v>44488</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25888,7 +25888,7 @@
         <v>44491</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25950,7 +25950,7 @@
         <v>44495</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26012,7 +26012,7 @@
         <v>44496</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26069,7 +26069,7 @@
         <v>44498</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26126,7 +26126,7 @@
         <v>44504</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26183,7 +26183,7 @@
         <v>44511</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>44512</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26297,7 +26297,7 @@
         <v>44512</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26354,7 +26354,7 @@
         <v>44515</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26416,7 +26416,7 @@
         <v>44515</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
         <v>44522</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>44523</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>44525</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>44531</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>44531</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26768,7 +26768,7 @@
         <v>44536</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26825,7 +26825,7 @@
         <v>44546</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26887,7 +26887,7 @@
         <v>44546</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26944,7 +26944,7 @@
         <v>44548</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44550</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44573</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>44578</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44578</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44586</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44588</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27353,7 +27353,7 @@
         <v>44588</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27410,7 +27410,7 @@
         <v>44589</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27467,7 +27467,7 @@
         <v>44591</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>44597</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27581,7 +27581,7 @@
         <v>44599</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27638,7 +27638,7 @@
         <v>44602</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27700,7 +27700,7 @@
         <v>44605</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27762,7 +27762,7 @@
         <v>44606</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
         <v>44608</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27876,7 +27876,7 @@
         <v>44608</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>44609</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>44613</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44613</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44614</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28161,7 +28161,7 @@
         <v>44614</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28218,7 +28218,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28280,7 +28280,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44622</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28404,7 +28404,7 @@
         <v>44622</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>44636</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>44643</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>44644</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>44644</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>44657</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>44659</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>44664</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28922,7 +28922,7 @@
         <v>44664</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -28979,7 +28979,7 @@
         <v>44665</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>44665</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>44667</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29165,7 +29165,7 @@
         <v>44669</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29227,7 +29227,7 @@
         <v>44670</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29284,7 +29284,7 @@
         <v>44676</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -29341,7 +29341,7 @@
         <v>44676</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -29403,7 +29403,7 @@
         <v>44683</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -29460,7 +29460,7 @@
         <v>44684</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -29517,7 +29517,7 @@
         <v>44687</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -29574,7 +29574,7 @@
         <v>44691</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -29631,7 +29631,7 @@
         <v>44691</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>44694</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -29750,7 +29750,7 @@
         <v>44699</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -29807,7 +29807,7 @@
         <v>44706</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -29864,7 +29864,7 @@
         <v>44710</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -29926,7 +29926,7 @@
         <v>44714</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -29983,7 +29983,7 @@
         <v>44715</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30040,7 +30040,7 @@
         <v>44715</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30097,7 +30097,7 @@
         <v>44718</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30159,7 +30159,7 @@
         <v>44718</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30221,7 +30221,7 @@
         <v>44721</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30283,7 +30283,7 @@
         <v>44725</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -30340,7 +30340,7 @@
         <v>44725</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -30397,7 +30397,7 @@
         <v>44725</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>44728</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -30516,7 +30516,7 @@
         <v>44729</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -30578,7 +30578,7 @@
         <v>44729</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -30635,7 +30635,7 @@
         <v>44734</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -30692,7 +30692,7 @@
         <v>44739</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -30749,7 +30749,7 @@
         <v>44739</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -30811,7 +30811,7 @@
         <v>44755</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -30868,7 +30868,7 @@
         <v>44770</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -30930,7 +30930,7 @@
         <v>44771</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -30992,7 +30992,7 @@
         <v>44775</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31049,7 +31049,7 @@
         <v>44775</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31106,7 +31106,7 @@
         <v>44792</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31163,7 +31163,7 @@
         <v>44809</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31220,7 +31220,7 @@
         <v>44810</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31277,7 +31277,7 @@
         <v>44810</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>44813</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44813</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>44824</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>44824</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>44825</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44839</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44848</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44858</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44860</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44861</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44865</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>44866</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>44868</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>44872</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44874</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>44874</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32281,7 +32281,7 @@
         <v>44874</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -32343,7 +32343,7 @@
         <v>44874</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -32405,7 +32405,7 @@
         <v>44876</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -32462,7 +32462,7 @@
         <v>44883</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -32519,7 +32519,7 @@
         <v>44890</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -32581,7 +32581,7 @@
         <v>44900</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -32643,7 +32643,7 @@
         <v>44903</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -32700,7 +32700,7 @@
         <v>44903</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -32757,7 +32757,7 @@
         <v>44907</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -32814,7 +32814,7 @@
         <v>44909</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>44916</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>44938</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>44938</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33042,7 +33042,7 @@
         <v>44938</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33099,7 +33099,7 @@
         <v>44943</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33156,7 +33156,7 @@
         <v>44945</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33218,7 +33218,7 @@
         <v>44948</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33275,7 +33275,7 @@
         <v>44950</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -33337,7 +33337,7 @@
         <v>44952</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -33394,7 +33394,7 @@
         <v>44957</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -33451,7 +33451,7 @@
         <v>44960</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -33508,7 +33508,7 @@
         <v>44960</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -33565,7 +33565,7 @@
         <v>44963</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -33622,7 +33622,7 @@
         <v>44963</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -33679,7 +33679,7 @@
         <v>44963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -33736,7 +33736,7 @@
         <v>44970</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -33793,7 +33793,7 @@
         <v>44970</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
         <v>44972</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -33912,7 +33912,7 @@
         <v>44972</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>44973</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34036,7 +34036,7 @@
         <v>44977</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
         <v>44978</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34160,7 +34160,7 @@
         <v>44978</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34222,7 +34222,7 @@
         <v>44979</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34284,7 +34284,7 @@
         <v>44980</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34346,7 +34346,7 @@
         <v>44981</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -34408,7 +34408,7 @@
         <v>44981</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -34470,7 +34470,7 @@
         <v>44985</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -34527,7 +34527,7 @@
         <v>44987</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -34584,7 +34584,7 @@
         <v>44991</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>44991</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -34708,7 +34708,7 @@
         <v>44991</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -34770,7 +34770,7 @@
         <v>44991</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -34827,7 +34827,7 @@
         <v>44995</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -34884,7 +34884,7 @@
         <v>44995</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -34941,7 +34941,7 @@
         <v>44995</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -34998,7 +34998,7 @@
         <v>44998</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>44998</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>45005</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>45005</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35226,7 +35226,7 @@
         <v>45006</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35283,7 +35283,7 @@
         <v>45006</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35340,7 +35340,7 @@
         <v>45007</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -35397,7 +35397,7 @@
         <v>45007</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -35454,7 +35454,7 @@
         <v>45007</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -35511,7 +35511,7 @@
         <v>45014</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -35568,7 +35568,7 @@
         <v>45019</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -35625,7 +35625,7 @@
         <v>45027</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -35682,7 +35682,7 @@
         <v>45028</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -35744,7 +35744,7 @@
         <v>45030</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -35801,7 +35801,7 @@
         <v>45034</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -35863,7 +35863,7 @@
         <v>45037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -35920,7 +35920,7 @@
         <v>45040</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -35977,7 +35977,7 @@
         <v>45040</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36034,7 +36034,7 @@
         <v>45041</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36091,7 +36091,7 @@
         <v>45042</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36153,7 +36153,7 @@
         <v>45042</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36215,7 +36215,7 @@
         <v>45042</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36277,7 +36277,7 @@
         <v>45042</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36339,7 +36339,7 @@
         <v>45042</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -36401,7 +36401,7 @@
         <v>45044</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -36458,7 +36458,7 @@
         <v>45045</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>45045</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -36582,7 +36582,7 @@
         <v>45045</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -36644,7 +36644,7 @@
         <v>45047</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -36706,7 +36706,7 @@
         <v>45047</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -36768,7 +36768,7 @@
         <v>45048</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -36830,7 +36830,7 @@
         <v>45051</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -36887,7 +36887,7 @@
         <v>45051</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -36944,7 +36944,7 @@
         <v>45054</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37001,7 +37001,7 @@
         <v>45054</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37058,7 +37058,7 @@
         <v>45054</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37115,7 +37115,7 @@
         <v>45056</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37172,7 +37172,7 @@
         <v>45058</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37234,7 +37234,7 @@
         <v>45058</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37296,7 +37296,7 @@
         <v>45068</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37353,7 +37353,7 @@
         <v>45070</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -37415,7 +37415,7 @@
         <v>45071</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -37472,7 +37472,7 @@
         <v>45072</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -37529,7 +37529,7 @@
         <v>45075</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         <v>45075</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -37643,7 +37643,7 @@
         <v>45075</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -37700,7 +37700,7 @@
         <v>45075</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -37762,7 +37762,7 @@
         <v>45075</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -37819,7 +37819,7 @@
         <v>45075</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -37881,7 +37881,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -37938,7 +37938,7 @@
         <v>45078</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38000,7 +38000,7 @@
         <v>45089</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38057,7 +38057,7 @@
         <v>45089</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38114,7 +38114,7 @@
         <v>45090</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38176,7 +38176,7 @@
         <v>45090</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38238,7 +38238,7 @@
         <v>45090</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38300,7 +38300,7 @@
         <v>45093</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38362,7 +38362,7 @@
         <v>45093</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -38419,7 +38419,7 @@
         <v>45097</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -38476,7 +38476,7 @@
         <v>45097</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -38533,7 +38533,7 @@
         <v>45102</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -38595,7 +38595,7 @@
         <v>45102</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -38657,7 +38657,7 @@
         <v>45103</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -38719,7 +38719,7 @@
         <v>45106</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -38781,7 +38781,7 @@
         <v>45106</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -38843,7 +38843,7 @@
         <v>45107</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -38905,7 +38905,7 @@
         <v>45107</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -38967,7 +38967,7 @@
         <v>45111</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39024,7 +39024,7 @@
         <v>45111</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39081,7 +39081,7 @@
         <v>45112</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39143,7 +39143,7 @@
         <v>45114</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39205,7 +39205,7 @@
         <v>45114</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39267,7 +39267,7 @@
         <v>45119</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39329,7 +39329,7 @@
         <v>45119</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39391,7 +39391,7 @@
         <v>45119</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39453,7 +39453,7 @@
         <v>45120</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -39515,7 +39515,7 @@
         <v>45123</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45124</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -39639,7 +39639,7 @@
         <v>45135</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -39701,7 +39701,7 @@
         <v>45139</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -39763,7 +39763,7 @@
         <v>45146</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -39820,7 +39820,7 @@
         <v>45154</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -39877,7 +39877,7 @@
         <v>45154</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -39939,7 +39939,7 @@
         <v>45154</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -39996,7 +39996,7 @@
         <v>45160</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40058,7 +40058,7 @@
         <v>45160</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40115,7 +40115,7 @@
         <v>45160</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40172,7 +40172,7 @@
         <v>45161</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40234,7 +40234,7 @@
         <v>45169</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40286,7 +40286,7 @@
       </c>
       <c r="R613" s="2" t="inlineStr"/>
     </row>
-    <row r="614">
+    <row r="614" ht="15" customHeight="1">
       <c r="A614" t="inlineStr">
         <is>
           <t>A 43732-2023</t>
@@ -40296,7 +40296,7 @@
         <v>45187</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40347,6 +40347,125 @@
         <v>0</v>
       </c>
       <c r="R614" s="2" t="inlineStr"/>
+    </row>
+    <row r="615" ht="15" customHeight="1">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>A 47390-2023</t>
+        </is>
+      </c>
+      <c r="B615" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C615" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="G615" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="n">
+        <v>0</v>
+      </c>
+      <c r="J615" t="n">
+        <v>0</v>
+      </c>
+      <c r="K615" t="n">
+        <v>0</v>
+      </c>
+      <c r="L615" t="n">
+        <v>0</v>
+      </c>
+      <c r="M615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N615" t="n">
+        <v>0</v>
+      </c>
+      <c r="O615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R615" s="2" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>A 47374-2023</t>
+        </is>
+      </c>
+      <c r="B616" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C616" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G616" t="n">
+        <v>2</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="n">
+        <v>0</v>
+      </c>
+      <c r="J616" t="n">
+        <v>0</v>
+      </c>
+      <c r="K616" t="n">
+        <v>0</v>
+      </c>
+      <c r="L616" t="n">
+        <v>0</v>
+      </c>
+      <c r="M616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N616" t="n">
+        <v>0</v>
+      </c>
+      <c r="O616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R616" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ÖSTHAMMAR.xlsx
+++ b/Översikt ÖSTHAMMAR.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y616"/>
+  <dimension ref="A1:Y617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>45098</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         <v>44063</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         <v>43689</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>44077</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44999</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>45077</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44439</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>44482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1418,7 +1418,7 @@
         <v>44698</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44771</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43647</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1789,7 +1789,7 @@
         <v>44312</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1880,7 +1880,7 @@
         <v>44335</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>44021</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44387</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         <v>44779</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2254,7 +2254,7 @@
         <v>45076</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
         <v>43447</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2438,7 +2438,7 @@
         <v>43538</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         <v>43635</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>44021</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2714,7 +2714,7 @@
         <v>44546</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
         <v>44559</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         <v>44572</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2981,7 +2981,7 @@
         <v>44614</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44662</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>44727</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         <v>44837</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3342,7 +3342,7 @@
         <v>45006</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45076</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>45099</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3614,7 +3614,7 @@
         <v>43573</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>44376</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         <v>44684</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3882,7 +3882,7 @@
         <v>44858</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>44874</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4063,7 +4063,7 @@
         <v>44995</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>45092</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>43480</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4423,7 +4423,7 @@
         <v>44376</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>44474</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44531</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>44739</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44875</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         <v>44998</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         <v>45002</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         <v>45016</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5129,7 +5129,7 @@
         <v>45054</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>45055</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         <v>43369</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>43508</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>43846</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>43882</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         <v>44077</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         <v>44148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5842,7 +5842,7 @@
         <v>44235</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44495</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         <v>44525</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         <v>44529</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>44555</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>44610</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6358,7 +6358,7 @@
         <v>44644</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         <v>44778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6530,7 +6530,7 @@
         <v>44865</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6621,7 +6621,7 @@
         <v>44874</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6712,7 +6712,7 @@
         <v>44874</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44967</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6882,14 +6882,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 21422-2023</t>
+          <t>A 21453-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
         <v>45063</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6903,20 +6903,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -6941,313 +6941,319 @@
       </c>
       <c r="R71" s="2" t="inlineStr">
         <is>
+          <t>Fransig jordstjärna
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S71">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 21453-2023.xlsx", "A 21453-2023")</f>
+        <v/>
+      </c>
+      <c r="T71">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 21453-2023.png", "A 21453-2023")</f>
+        <v/>
+      </c>
+      <c r="V71">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 21453-2023.docx", "A 21453-2023")</f>
+        <v/>
+      </c>
+      <c r="W71">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 21453-2023.docx", "A 21453-2023")</f>
+        <v/>
+      </c>
+      <c r="X71">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 21453-2023.docx", "A 21453-2023")</f>
+        <v/>
+      </c>
+      <c r="Y71">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 21453-2023.docx", "A 21453-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" ht="15" customHeight="1">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>A 21422-2023</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>45063</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" s="2" t="inlineStr">
+        <is>
           <t>Nordfladdermus
 Dvärgpipistrell</t>
         </is>
       </c>
-      <c r="S71">
+      <c r="S72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 21422-2023.xlsx", "A 21422-2023")</f>
         <v/>
       </c>
-      <c r="T71">
+      <c r="T72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 21422-2023.png", "A 21422-2023")</f>
         <v/>
       </c>
-      <c r="V71">
+      <c r="V72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 21422-2023.docx", "A 21422-2023")</f>
         <v/>
       </c>
-      <c r="W71">
+      <c r="W72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 21422-2023.docx", "A 21422-2023")</f>
         <v/>
       </c>
-      <c r="X71">
+      <c r="X72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 21422-2023.docx", "A 21422-2023")</f>
         <v/>
       </c>
-      <c r="Y71">
+      <c r="Y72">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 21422-2023.docx", "A 21422-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="A72" t="inlineStr">
+    <row r="73" ht="15" customHeight="1">
+      <c r="A73" t="inlineStr">
         <is>
           <t>A 26602-2023</t>
         </is>
       </c>
-      <c r="B72" s="1" t="n">
+      <c r="B73" s="1" t="n">
         <v>45092</v>
       </c>
-      <c r="C72" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
+      <c r="C73" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G72" t="n">
+      <c r="G73" t="n">
         <v>1.6</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H73" t="n">
         <v>2</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
         <v>2</v>
       </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
         <v>2</v>
       </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
         <v>2</v>
       </c>
-      <c r="R72" s="2" t="inlineStr">
+      <c r="R73" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Skrattmås</t>
         </is>
       </c>
-      <c r="S72">
+      <c r="S73">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 26602-2023.xlsx", "A 26602-2023")</f>
         <v/>
       </c>
-      <c r="T72">
+      <c r="T73">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 26602-2023.png", "A 26602-2023")</f>
         <v/>
       </c>
-      <c r="V72">
+      <c r="V73">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 26602-2023.docx", "A 26602-2023")</f>
         <v/>
       </c>
-      <c r="W72">
+      <c r="W73">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 26602-2023.docx", "A 26602-2023")</f>
         <v/>
       </c>
-      <c r="X72">
+      <c r="X73">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 26602-2023.docx", "A 26602-2023")</f>
         <v/>
       </c>
-      <c r="Y72">
+      <c r="Y73">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 26602-2023.docx", "A 26602-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1">
-      <c r="A73" t="inlineStr">
+    <row r="74" ht="15" customHeight="1">
+      <c r="A74" t="inlineStr">
         <is>
           <t>A 36876-2023</t>
         </is>
       </c>
-      <c r="B73" s="1" t="n">
+      <c r="B74" s="1" t="n">
         <v>45154</v>
       </c>
-      <c r="C73" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
+      <c r="C74" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>UPPSALA LÄN</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>ÖSTHAMMAR</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G73" t="n">
+      <c r="G74" t="n">
         <v>12.6</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H74" t="n">
         <v>1</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
         <v>2</v>
       </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0</v>
-      </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
         <v>2</v>
       </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
         <v>2</v>
       </c>
-      <c r="R73" s="2" t="inlineStr">
+      <c r="R74" s="2" t="inlineStr">
         <is>
           <t>Slaguggla
 Slåtterfibbla</t>
         </is>
       </c>
-      <c r="S73">
+      <c r="S74">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 36876-2023.xlsx", "A 36876-2023")</f>
         <v/>
       </c>
-      <c r="T73">
+      <c r="T74">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 36876-2023.png", "A 36876-2023")</f>
         <v/>
       </c>
-      <c r="V73">
+      <c r="V74">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 36876-2023.docx", "A 36876-2023")</f>
         <v/>
       </c>
-      <c r="W73">
+      <c r="W74">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 36876-2023.docx", "A 36876-2023")</f>
         <v/>
       </c>
-      <c r="X73">
+      <c r="X74">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 36876-2023.docx", "A 36876-2023")</f>
         <v/>
       </c>
-      <c r="Y73">
+      <c r="Y74">
         <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 36876-2023.docx", "A 36876-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>A 72543-2018</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>43462</v>
-      </c>
-      <c r="C74" s="1" t="n">
-        <v>45204</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>UPPSALA LÄN</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>ÖSTHAMMAR</t>
-        </is>
-      </c>
-      <c r="G74" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
-        <v>1</v>
-      </c>
-      <c r="R74" s="2" t="inlineStr">
-        <is>
-          <t>Korallblylav</t>
-        </is>
-      </c>
-      <c r="S74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 72543-2018.xlsx", "A 72543-2018")</f>
-        <v/>
-      </c>
-      <c r="T74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 72543-2018.png", "A 72543-2018")</f>
-        <v/>
-      </c>
-      <c r="V74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 72543-2018.docx", "A 72543-2018")</f>
-        <v/>
-      </c>
-      <c r="W74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 72543-2018.docx", "A 72543-2018")</f>
-        <v/>
-      </c>
-      <c r="X74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 72543-2018.docx", "A 72543-2018")</f>
-        <v/>
-      </c>
-      <c r="Y74">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 72543-2018.docx", "A 72543-2018")</f>
         <v/>
       </c>
     </row>
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 463-2019</t>
+          <t>A 72543-2018</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>43468</v>
+        <v>43462</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7260,10 +7266,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -7294,45 +7300,45 @@
       </c>
       <c r="R75" s="2" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="S75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 463-2019.xlsx", "A 463-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 72543-2018.xlsx", "A 72543-2018")</f>
         <v/>
       </c>
       <c r="T75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 463-2019.png", "A 463-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 72543-2018.png", "A 72543-2018")</f>
         <v/>
       </c>
       <c r="V75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 463-2019.docx", "A 463-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 72543-2018.docx", "A 72543-2018")</f>
         <v/>
       </c>
       <c r="W75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 463-2019.docx", "A 463-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 72543-2018.docx", "A 72543-2018")</f>
         <v/>
       </c>
       <c r="X75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 463-2019.docx", "A 463-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 72543-2018.docx", "A 72543-2018")</f>
         <v/>
       </c>
       <c r="Y75">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 463-2019.docx", "A 463-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 72543-2018.docx", "A 72543-2018")</f>
         <v/>
       </c>
     </row>
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 15000-2019</t>
+          <t>A 463-2019</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>43538</v>
+        <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7345,7 +7351,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>12.3</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>1</v>
@@ -7383,41 +7389,41 @@
         </is>
       </c>
       <c r="S76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 15000-2019.xlsx", "A 15000-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 463-2019.xlsx", "A 463-2019")</f>
         <v/>
       </c>
       <c r="T76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 15000-2019.png", "A 15000-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 463-2019.png", "A 463-2019")</f>
         <v/>
       </c>
       <c r="V76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 15000-2019.docx", "A 15000-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 463-2019.docx", "A 463-2019")</f>
         <v/>
       </c>
       <c r="W76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 15000-2019.docx", "A 15000-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 463-2019.docx", "A 463-2019")</f>
         <v/>
       </c>
       <c r="X76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 15000-2019.docx", "A 15000-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 463-2019.docx", "A 463-2019")</f>
         <v/>
       </c>
       <c r="Y76">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 15000-2019.docx", "A 15000-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 463-2019.docx", "A 463-2019")</f>
         <v/>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 38957-2019</t>
+          <t>A 15000-2019</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>43689</v>
+        <v>43538</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7430,16 +7436,16 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>12.3</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -7454,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
@@ -7464,45 +7470,45 @@
       </c>
       <c r="R77" s="2" t="inlineStr">
         <is>
-          <t>Bredbrämad bastardsvärmare</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="S77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 38957-2019.xlsx", "A 38957-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 15000-2019.xlsx", "A 15000-2019")</f>
         <v/>
       </c>
       <c r="T77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 38957-2019.png", "A 38957-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 15000-2019.png", "A 15000-2019")</f>
         <v/>
       </c>
       <c r="V77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 38957-2019.docx", "A 38957-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 15000-2019.docx", "A 15000-2019")</f>
         <v/>
       </c>
       <c r="W77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 38957-2019.docx", "A 38957-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 15000-2019.docx", "A 15000-2019")</f>
         <v/>
       </c>
       <c r="X77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 38957-2019.docx", "A 38957-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 15000-2019.docx", "A 15000-2019")</f>
         <v/>
       </c>
       <c r="Y77">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 38957-2019.docx", "A 38957-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 15000-2019.docx", "A 15000-2019")</f>
         <v/>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52004-2019</t>
+          <t>A 38957-2019</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>43742</v>
+        <v>43689</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7515,17 +7521,17 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
         <v>1</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
@@ -7539,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P78" t="n">
         <v>0</v>
@@ -7549,45 +7555,45 @@
       </c>
       <c r="R78" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Bredbrämad bastardsvärmare</t>
         </is>
       </c>
       <c r="S78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52004-2019.xlsx", "A 52004-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 38957-2019.xlsx", "A 38957-2019")</f>
         <v/>
       </c>
       <c r="T78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52004-2019.png", "A 52004-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 38957-2019.png", "A 38957-2019")</f>
         <v/>
       </c>
       <c r="V78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52004-2019.docx", "A 52004-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 38957-2019.docx", "A 38957-2019")</f>
         <v/>
       </c>
       <c r="W78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52004-2019.docx", "A 52004-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 38957-2019.docx", "A 38957-2019")</f>
         <v/>
       </c>
       <c r="X78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52004-2019.docx", "A 52004-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 38957-2019.docx", "A 38957-2019")</f>
         <v/>
       </c>
       <c r="Y78">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52004-2019.docx", "A 52004-2019")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 38957-2019.docx", "A 38957-2019")</f>
         <v/>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 22044-2020</t>
+          <t>A 52004-2019</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>43959</v>
+        <v>43742</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7600,13 +7606,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
@@ -7634,45 +7640,45 @@
       </c>
       <c r="R79" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 22044-2020.xlsx", "A 22044-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52004-2019.xlsx", "A 52004-2019")</f>
         <v/>
       </c>
       <c r="T79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 22044-2020.png", "A 22044-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52004-2019.png", "A 52004-2019")</f>
         <v/>
       </c>
       <c r="V79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 22044-2020.docx", "A 22044-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52004-2019.docx", "A 52004-2019")</f>
         <v/>
       </c>
       <c r="W79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 22044-2020.docx", "A 22044-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52004-2019.docx", "A 52004-2019")</f>
         <v/>
       </c>
       <c r="X79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 22044-2020.docx", "A 22044-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52004-2019.docx", "A 52004-2019")</f>
         <v/>
       </c>
       <c r="Y79">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 22044-2020.docx", "A 22044-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52004-2019.docx", "A 52004-2019")</f>
         <v/>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 30405-2020</t>
+          <t>A 22044-2020</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44007</v>
+        <v>43959</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7685,19 +7691,19 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -7709,55 +7715,55 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80" t="n">
         <v>1</v>
       </c>
       <c r="R80" s="2" t="inlineStr">
         <is>
-          <t>Gulvit blekspik</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 30405-2020.xlsx", "A 30405-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 22044-2020.xlsx", "A 22044-2020")</f>
         <v/>
       </c>
       <c r="T80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 30405-2020.png", "A 30405-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 22044-2020.png", "A 22044-2020")</f>
         <v/>
       </c>
       <c r="V80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 30405-2020.docx", "A 30405-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 22044-2020.docx", "A 22044-2020")</f>
         <v/>
       </c>
       <c r="W80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 30405-2020.docx", "A 30405-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 22044-2020.docx", "A 22044-2020")</f>
         <v/>
       </c>
       <c r="X80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 30405-2020.docx", "A 30405-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 22044-2020.docx", "A 22044-2020")</f>
         <v/>
       </c>
       <c r="Y80">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 30405-2020.docx", "A 30405-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 22044-2020.docx", "A 22044-2020")</f>
         <v/>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45714-2020</t>
+          <t>A 30405-2020</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44090</v>
+        <v>44007</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7769,13 +7775,8 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>10.8</v>
+        <v>0.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -7784,10 +7785,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
         <v>1</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -7802,52 +7803,52 @@
         <v>1</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
       </c>
       <c r="R81" s="2" t="inlineStr">
         <is>
-          <t>Slåtterfibbla</t>
+          <t>Gulvit blekspik</t>
         </is>
       </c>
       <c r="S81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 45714-2020.xlsx", "A 45714-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 30405-2020.xlsx", "A 30405-2020")</f>
         <v/>
       </c>
       <c r="T81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 45714-2020.png", "A 45714-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 30405-2020.png", "A 30405-2020")</f>
         <v/>
       </c>
       <c r="V81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 45714-2020.docx", "A 45714-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 30405-2020.docx", "A 30405-2020")</f>
         <v/>
       </c>
       <c r="W81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 45714-2020.docx", "A 45714-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 30405-2020.docx", "A 30405-2020")</f>
         <v/>
       </c>
       <c r="X81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 45714-2020.docx", "A 45714-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 30405-2020.docx", "A 30405-2020")</f>
         <v/>
       </c>
       <c r="Y81">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 45714-2020.docx", "A 45714-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 30405-2020.docx", "A 30405-2020")</f>
         <v/>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 61479-2020</t>
+          <t>A 45714-2020</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44154</v>
+        <v>44090</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7859,18 +7860,23 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2.5</v>
+        <v>10.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
         <v>1</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
@@ -7884,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P82" t="n">
         <v>0</v>
@@ -7894,45 +7900,45 @@
       </c>
       <c r="R82" s="2" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Slåtterfibbla</t>
         </is>
       </c>
       <c r="S82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61479-2020.xlsx", "A 61479-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 45714-2020.xlsx", "A 45714-2020")</f>
         <v/>
       </c>
       <c r="T82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61479-2020.png", "A 61479-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 45714-2020.png", "A 45714-2020")</f>
         <v/>
       </c>
       <c r="V82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61479-2020.docx", "A 61479-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 45714-2020.docx", "A 45714-2020")</f>
         <v/>
       </c>
       <c r="W82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61479-2020.docx", "A 61479-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 45714-2020.docx", "A 45714-2020")</f>
         <v/>
       </c>
       <c r="X82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61479-2020.docx", "A 61479-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 45714-2020.docx", "A 45714-2020")</f>
         <v/>
       </c>
       <c r="Y82">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61479-2020.docx", "A 61479-2020")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 45714-2020.docx", "A 45714-2020")</f>
         <v/>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31622-2021</t>
+          <t>A 61479-2020</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44369</v>
+        <v>44154</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7945,13 +7951,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>12.6</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -7979,45 +7985,45 @@
       </c>
       <c r="R83" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="S83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 31622-2021.xlsx", "A 31622-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61479-2020.xlsx", "A 61479-2020")</f>
         <v/>
       </c>
       <c r="T83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 31622-2021.png", "A 31622-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61479-2020.png", "A 61479-2020")</f>
         <v/>
       </c>
       <c r="V83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 31622-2021.docx", "A 31622-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61479-2020.docx", "A 61479-2020")</f>
         <v/>
       </c>
       <c r="W83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 31622-2021.docx", "A 31622-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61479-2020.docx", "A 61479-2020")</f>
         <v/>
       </c>
       <c r="X83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 31622-2021.docx", "A 31622-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61479-2020.docx", "A 61479-2020")</f>
         <v/>
       </c>
       <c r="Y83">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 31622-2021.docx", "A 31622-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61479-2020.docx", "A 61479-2020")</f>
         <v/>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46417-2021</t>
+          <t>A 31622-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44445</v>
+        <v>44369</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8029,22 +8035,17 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>9.1</v>
+        <v>12.6</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
@@ -8059,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84" t="n">
         <v>0</v>
@@ -8069,45 +8070,45 @@
       </c>
       <c r="R84" s="2" t="inlineStr">
         <is>
-          <t>Klasefibbla</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 46417-2021.xlsx", "A 46417-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 31622-2021.xlsx", "A 31622-2021")</f>
         <v/>
       </c>
       <c r="T84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 46417-2021.png", "A 46417-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 31622-2021.png", "A 31622-2021")</f>
         <v/>
       </c>
       <c r="V84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 46417-2021.docx", "A 46417-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 31622-2021.docx", "A 31622-2021")</f>
         <v/>
       </c>
       <c r="W84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 46417-2021.docx", "A 46417-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 31622-2021.docx", "A 31622-2021")</f>
         <v/>
       </c>
       <c r="X84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 46417-2021.docx", "A 46417-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 31622-2021.docx", "A 31622-2021")</f>
         <v/>
       </c>
       <c r="Y84">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 46417-2021.docx", "A 46417-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 31622-2021.docx", "A 31622-2021")</f>
         <v/>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 49839-2021</t>
+          <t>A 46417-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44455</v>
+        <v>44445</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8119,8 +8120,13 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>9.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -8129,10 +8135,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>0</v>
@@ -8147,52 +8153,52 @@
         <v>1</v>
       </c>
       <c r="P85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
         <v>1</v>
       </c>
       <c r="R85" s="2" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Klasefibbla</t>
         </is>
       </c>
       <c r="S85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 49839-2021.xlsx", "A 49839-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 46417-2021.xlsx", "A 46417-2021")</f>
         <v/>
       </c>
       <c r="T85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 49839-2021.png", "A 49839-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 46417-2021.png", "A 46417-2021")</f>
         <v/>
       </c>
       <c r="V85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 49839-2021.docx", "A 49839-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 46417-2021.docx", "A 46417-2021")</f>
         <v/>
       </c>
       <c r="W85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 49839-2021.docx", "A 49839-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 46417-2021.docx", "A 46417-2021")</f>
         <v/>
       </c>
       <c r="X85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 49839-2021.docx", "A 49839-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 46417-2021.docx", "A 46417-2021")</f>
         <v/>
       </c>
       <c r="Y85">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 49839-2021.docx", "A 49839-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 46417-2021.docx", "A 46417-2021")</f>
         <v/>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 49871-2021</t>
+          <t>A 49839-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
         <v>44455</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8205,20 +8211,20 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
         <v>1</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
@@ -8229,55 +8235,55 @@
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86" t="n">
         <v>1</v>
       </c>
       <c r="R86" s="2" t="inlineStr">
         <is>
-          <t>Anisspindling</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="S86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 49871-2021.xlsx", "A 49871-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 49839-2021.xlsx", "A 49839-2021")</f>
         <v/>
       </c>
       <c r="T86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 49871-2021.png", "A 49871-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 49839-2021.png", "A 49839-2021")</f>
         <v/>
       </c>
       <c r="V86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 49871-2021.docx", "A 49871-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 49839-2021.docx", "A 49839-2021")</f>
         <v/>
       </c>
       <c r="W86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 49871-2021.docx", "A 49871-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 49839-2021.docx", "A 49839-2021")</f>
         <v/>
       </c>
       <c r="X86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 49871-2021.docx", "A 49871-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 49839-2021.docx", "A 49839-2021")</f>
         <v/>
       </c>
       <c r="Y86">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 49871-2021.docx", "A 49871-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 49839-2021.docx", "A 49839-2021")</f>
         <v/>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 61536-2021</t>
+          <t>A 49871-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44501</v>
+        <v>44455</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8289,22 +8295,17 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -8319,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -8329,45 +8330,45 @@
       </c>
       <c r="R87" s="2" t="inlineStr">
         <is>
-          <t>Klasefibbla</t>
+          <t>Anisspindling</t>
         </is>
       </c>
       <c r="S87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61536-2021.xlsx", "A 61536-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 49871-2021.xlsx", "A 49871-2021")</f>
         <v/>
       </c>
       <c r="T87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61536-2021.png", "A 61536-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 49871-2021.png", "A 49871-2021")</f>
         <v/>
       </c>
       <c r="V87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61536-2021.docx", "A 61536-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 49871-2021.docx", "A 49871-2021")</f>
         <v/>
       </c>
       <c r="W87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61536-2021.docx", "A 61536-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 49871-2021.docx", "A 49871-2021")</f>
         <v/>
       </c>
       <c r="X87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61536-2021.docx", "A 61536-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 49871-2021.docx", "A 49871-2021")</f>
         <v/>
       </c>
       <c r="Y87">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61536-2021.docx", "A 61536-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 49871-2021.docx", "A 49871-2021")</f>
         <v/>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 61559-2021</t>
+          <t>A 61536-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
         <v>44501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8385,7 +8386,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -8419,45 +8420,45 @@
       </c>
       <c r="R88" s="2" t="inlineStr">
         <is>
-          <t>Backklöver</t>
+          <t>Klasefibbla</t>
         </is>
       </c>
       <c r="S88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61559-2021.xlsx", "A 61559-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61536-2021.xlsx", "A 61536-2021")</f>
         <v/>
       </c>
       <c r="T88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61559-2021.png", "A 61559-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61536-2021.png", "A 61536-2021")</f>
         <v/>
       </c>
       <c r="V88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61559-2021.docx", "A 61559-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61536-2021.docx", "A 61536-2021")</f>
         <v/>
       </c>
       <c r="W88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61559-2021.docx", "A 61559-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61536-2021.docx", "A 61536-2021")</f>
         <v/>
       </c>
       <c r="X88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61559-2021.docx", "A 61559-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61536-2021.docx", "A 61536-2021")</f>
         <v/>
       </c>
       <c r="Y88">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61559-2021.docx", "A 61559-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61536-2021.docx", "A 61536-2021")</f>
         <v/>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 63615-2021</t>
+          <t>A 61559-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44509</v>
+        <v>44501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8469,8 +8470,13 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -8504,45 +8510,45 @@
       </c>
       <c r="R89" s="2" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Backklöver</t>
         </is>
       </c>
       <c r="S89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 63615-2021.xlsx", "A 63615-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 61559-2021.xlsx", "A 61559-2021")</f>
         <v/>
       </c>
       <c r="T89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 63615-2021.png", "A 63615-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 61559-2021.png", "A 61559-2021")</f>
         <v/>
       </c>
       <c r="V89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 63615-2021.docx", "A 63615-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 61559-2021.docx", "A 61559-2021")</f>
         <v/>
       </c>
       <c r="W89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 63615-2021.docx", "A 63615-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 61559-2021.docx", "A 61559-2021")</f>
         <v/>
       </c>
       <c r="X89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 63615-2021.docx", "A 63615-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 61559-2021.docx", "A 61559-2021")</f>
         <v/>
       </c>
       <c r="Y89">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 63615-2021.docx", "A 63615-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 61559-2021.docx", "A 61559-2021")</f>
         <v/>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 64564-2021</t>
+          <t>A 63615-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44511</v>
+        <v>44509</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8555,7 +8561,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -8564,10 +8570,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
@@ -8582,52 +8588,52 @@
         <v>1</v>
       </c>
       <c r="P90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
         <v>1</v>
       </c>
       <c r="R90" s="2" t="inlineStr">
         <is>
-          <t>Violgubbe</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="S90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 64564-2021.xlsx", "A 64564-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 63615-2021.xlsx", "A 63615-2021")</f>
         <v/>
       </c>
       <c r="T90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 64564-2021.png", "A 64564-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 63615-2021.png", "A 63615-2021")</f>
         <v/>
       </c>
       <c r="V90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 64564-2021.docx", "A 64564-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 63615-2021.docx", "A 63615-2021")</f>
         <v/>
       </c>
       <c r="W90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 64564-2021.docx", "A 64564-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 63615-2021.docx", "A 63615-2021")</f>
         <v/>
       </c>
       <c r="X90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 64564-2021.docx", "A 64564-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 63615-2021.docx", "A 63615-2021")</f>
         <v/>
       </c>
       <c r="Y90">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 64564-2021.docx", "A 64564-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 63615-2021.docx", "A 63615-2021")</f>
         <v/>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 65989-2021</t>
+          <t>A 64564-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44517</v>
+        <v>44511</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8640,79 +8646,79 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
         <v>1</v>
       </c>
-      <c r="I91" t="n">
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91" t="n">
         <v>1</v>
       </c>
       <c r="R91" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Violgubbe</t>
         </is>
       </c>
       <c r="S91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 65989-2021.xlsx", "A 65989-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 64564-2021.xlsx", "A 64564-2021")</f>
         <v/>
       </c>
       <c r="T91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 65989-2021.png", "A 65989-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 64564-2021.png", "A 64564-2021")</f>
         <v/>
       </c>
       <c r="V91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 65989-2021.docx", "A 65989-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 64564-2021.docx", "A 64564-2021")</f>
         <v/>
       </c>
       <c r="W91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 65989-2021.docx", "A 65989-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 64564-2021.docx", "A 64564-2021")</f>
         <v/>
       </c>
       <c r="X91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 65989-2021.docx", "A 65989-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 64564-2021.docx", "A 64564-2021")</f>
         <v/>
       </c>
       <c r="Y91">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 65989-2021.docx", "A 65989-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 64564-2021.docx", "A 64564-2021")</f>
         <v/>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 70495-2021</t>
+          <t>A 65989-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44536</v>
+        <v>44517</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8725,16 +8731,16 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>6.9</v>
       </c>
       <c r="H92" t="n">
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -8749,7 +8755,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P92" t="n">
         <v>0</v>
@@ -8759,45 +8765,45 @@
       </c>
       <c r="R92" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 70495-2021.xlsx", "A 70495-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 65989-2021.xlsx", "A 65989-2021")</f>
         <v/>
       </c>
       <c r="T92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 70495-2021.png", "A 70495-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 65989-2021.png", "A 65989-2021")</f>
         <v/>
       </c>
       <c r="V92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 70495-2021.docx", "A 70495-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 65989-2021.docx", "A 65989-2021")</f>
         <v/>
       </c>
       <c r="W92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 70495-2021.docx", "A 70495-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 65989-2021.docx", "A 65989-2021")</f>
         <v/>
       </c>
       <c r="X92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 70495-2021.docx", "A 70495-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 65989-2021.docx", "A 65989-2021")</f>
         <v/>
       </c>
       <c r="Y92">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 70495-2021.docx", "A 70495-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 65989-2021.docx", "A 65989-2021")</f>
         <v/>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 938-2022</t>
+          <t>A 70495-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44571</v>
+        <v>44536</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8810,10 +8816,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8844,45 +8850,45 @@
       </c>
       <c r="R93" s="2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 938-2022.xlsx", "A 938-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 70495-2021.xlsx", "A 70495-2021")</f>
         <v/>
       </c>
       <c r="T93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 938-2022.png", "A 938-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 70495-2021.png", "A 70495-2021")</f>
         <v/>
       </c>
       <c r="V93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 938-2022.docx", "A 938-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 70495-2021.docx", "A 70495-2021")</f>
         <v/>
       </c>
       <c r="W93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 938-2022.docx", "A 938-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 70495-2021.docx", "A 70495-2021")</f>
         <v/>
       </c>
       <c r="X93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 938-2022.docx", "A 938-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 70495-2021.docx", "A 70495-2021")</f>
         <v/>
       </c>
       <c r="Y93">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 938-2022.docx", "A 938-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 70495-2021.docx", "A 70495-2021")</f>
         <v/>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7446-2022</t>
+          <t>A 938-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44606</v>
+        <v>44571</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8895,17 +8901,17 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
         <v>1</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
@@ -8919,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
@@ -8929,45 +8935,45 @@
       </c>
       <c r="R94" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="S94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 7446-2022.xlsx", "A 7446-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 938-2022.xlsx", "A 938-2022")</f>
         <v/>
       </c>
       <c r="T94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 7446-2022.png", "A 7446-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 938-2022.png", "A 938-2022")</f>
         <v/>
       </c>
       <c r="V94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 7446-2022.docx", "A 7446-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 938-2022.docx", "A 938-2022")</f>
         <v/>
       </c>
       <c r="W94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 7446-2022.docx", "A 7446-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 938-2022.docx", "A 938-2022")</f>
         <v/>
       </c>
       <c r="X94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 7446-2022.docx", "A 7446-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 938-2022.docx", "A 938-2022")</f>
         <v/>
       </c>
       <c r="Y94">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 7446-2022.docx", "A 7446-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 938-2022.docx", "A 938-2022")</f>
         <v/>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7470-2022</t>
+          <t>A 7446-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44607</v>
+        <v>44606</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8980,13 +8986,13 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H95" t="n">
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -9014,45 +9020,45 @@
       </c>
       <c r="R95" s="2" t="inlineStr">
         <is>
-          <t>Grön sköldmossa</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 7470-2022.xlsx", "A 7470-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 7446-2022.xlsx", "A 7446-2022")</f>
         <v/>
       </c>
       <c r="T95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 7470-2022.png", "A 7470-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 7446-2022.png", "A 7446-2022")</f>
         <v/>
       </c>
       <c r="V95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 7470-2022.docx", "A 7470-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 7446-2022.docx", "A 7446-2022")</f>
         <v/>
       </c>
       <c r="W95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 7470-2022.docx", "A 7470-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 7446-2022.docx", "A 7446-2022")</f>
         <v/>
       </c>
       <c r="X95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 7470-2022.docx", "A 7470-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 7446-2022.docx", "A 7446-2022")</f>
         <v/>
       </c>
       <c r="Y95">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 7470-2022.docx", "A 7470-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 7446-2022.docx", "A 7446-2022")</f>
         <v/>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 22209-2022</t>
+          <t>A 7470-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44712</v>
+        <v>44607</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9064,19 +9070,14 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
         <v>0</v>
@@ -9104,45 +9105,45 @@
       </c>
       <c r="R96" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Grön sköldmossa</t>
         </is>
       </c>
       <c r="S96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 22209-2022.xlsx", "A 22209-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 7470-2022.xlsx", "A 7470-2022")</f>
         <v/>
       </c>
       <c r="T96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 22209-2022.png", "A 22209-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 7470-2022.png", "A 7470-2022")</f>
         <v/>
       </c>
       <c r="V96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 22209-2022.docx", "A 22209-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 7470-2022.docx", "A 7470-2022")</f>
         <v/>
       </c>
       <c r="W96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 22209-2022.docx", "A 22209-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 7470-2022.docx", "A 7470-2022")</f>
         <v/>
       </c>
       <c r="X96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 22209-2022.docx", "A 22209-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 7470-2022.docx", "A 7470-2022")</f>
         <v/>
       </c>
       <c r="Y96">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 22209-2022.docx", "A 22209-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 7470-2022.docx", "A 7470-2022")</f>
         <v/>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 24797-2022</t>
+          <t>A 22209-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44728</v>
+        <v>44712</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9156,11 +9157,11 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -9169,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -9184,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -9194,45 +9195,45 @@
       </c>
       <c r="R97" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S97">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 24797-2022.xlsx", "A 24797-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 22209-2022.xlsx", "A 22209-2022")</f>
         <v/>
       </c>
       <c r="T97">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 24797-2022.png", "A 24797-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 22209-2022.png", "A 22209-2022")</f>
         <v/>
       </c>
       <c r="V97">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 24797-2022.docx", "A 24797-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 22209-2022.docx", "A 22209-2022")</f>
         <v/>
       </c>
       <c r="W97">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 24797-2022.docx", "A 24797-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 22209-2022.docx", "A 22209-2022")</f>
         <v/>
       </c>
       <c r="X97">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 24797-2022.docx", "A 24797-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 22209-2022.docx", "A 22209-2022")</f>
         <v/>
       </c>
       <c r="Y97">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 24797-2022.docx", "A 24797-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 22209-2022.docx", "A 22209-2022")</f>
         <v/>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 27451-2022</t>
+          <t>A 24797-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44742</v>
+        <v>44728</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9244,11 +9245,16 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>6.4</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -9279,45 +9285,45 @@
       </c>
       <c r="R98" s="2" t="inlineStr">
         <is>
-          <t>Skogsklocka</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S98">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 27451-2022.xlsx", "A 27451-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 24797-2022.xlsx", "A 24797-2022")</f>
         <v/>
       </c>
       <c r="T98">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 27451-2022.png", "A 27451-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 24797-2022.png", "A 24797-2022")</f>
         <v/>
       </c>
       <c r="V98">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 27451-2022.docx", "A 27451-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 24797-2022.docx", "A 24797-2022")</f>
         <v/>
       </c>
       <c r="W98">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 27451-2022.docx", "A 27451-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 24797-2022.docx", "A 24797-2022")</f>
         <v/>
       </c>
       <c r="X98">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 27451-2022.docx", "A 27451-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 24797-2022.docx", "A 24797-2022")</f>
         <v/>
       </c>
       <c r="Y98">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 27451-2022.docx", "A 27451-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 24797-2022.docx", "A 24797-2022")</f>
         <v/>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34974-2022</t>
+          <t>A 27451-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44796</v>
+        <v>44742</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9329,23 +9335,18 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog öst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>19.4</v>
+        <v>6.4</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
         <v>1</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P99" t="n">
         <v>0</v>
@@ -9369,45 +9370,45 @@
       </c>
       <c r="R99" s="2" t="inlineStr">
         <is>
-          <t>Kopparödla</t>
+          <t>Skogsklocka</t>
         </is>
       </c>
       <c r="S99">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 34974-2022.xlsx", "A 34974-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 27451-2022.xlsx", "A 27451-2022")</f>
         <v/>
       </c>
       <c r="T99">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 34974-2022.png", "A 34974-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 27451-2022.png", "A 27451-2022")</f>
         <v/>
       </c>
       <c r="V99">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 34974-2022.docx", "A 34974-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 27451-2022.docx", "A 27451-2022")</f>
         <v/>
       </c>
       <c r="W99">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 34974-2022.docx", "A 34974-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 27451-2022.docx", "A 27451-2022")</f>
         <v/>
       </c>
       <c r="X99">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 34974-2022.docx", "A 34974-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 27451-2022.docx", "A 27451-2022")</f>
         <v/>
       </c>
       <c r="Y99">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 34974-2022.docx", "A 34974-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 27451-2022.docx", "A 27451-2022")</f>
         <v/>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 52651-2022</t>
+          <t>A 34974-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44874</v>
+        <v>44796</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9425,7 +9426,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>19.4</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -9434,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -9449,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P100" t="n">
         <v>0</v>
@@ -9459,45 +9460,45 @@
       </c>
       <c r="R100" s="2" t="inlineStr">
         <is>
-          <t>Svartvit flugsnappare</t>
+          <t>Kopparödla</t>
         </is>
       </c>
       <c r="S100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52651-2022.xlsx", "A 52651-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 34974-2022.xlsx", "A 34974-2022")</f>
         <v/>
       </c>
       <c r="T100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52651-2022.png", "A 52651-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 34974-2022.png", "A 34974-2022")</f>
         <v/>
       </c>
       <c r="V100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52651-2022.docx", "A 52651-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 34974-2022.docx", "A 34974-2022")</f>
         <v/>
       </c>
       <c r="W100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52651-2022.docx", "A 52651-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 34974-2022.docx", "A 34974-2022")</f>
         <v/>
       </c>
       <c r="X100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52651-2022.docx", "A 52651-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 34974-2022.docx", "A 34974-2022")</f>
         <v/>
       </c>
       <c r="Y100">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52651-2022.docx", "A 52651-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 34974-2022.docx", "A 34974-2022")</f>
         <v/>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 52648-2022</t>
+          <t>A 52651-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
         <v>44874</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9515,7 +9516,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>1</v>
@@ -9549,45 +9550,45 @@
       </c>
       <c r="R101" s="2" t="inlineStr">
         <is>
-          <t>Buskskvätta</t>
+          <t>Svartvit flugsnappare</t>
         </is>
       </c>
       <c r="S101">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52648-2022.xlsx", "A 52648-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52651-2022.xlsx", "A 52651-2022")</f>
         <v/>
       </c>
       <c r="T101">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52648-2022.png", "A 52648-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52651-2022.png", "A 52651-2022")</f>
         <v/>
       </c>
       <c r="V101">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52648-2022.docx", "A 52648-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52651-2022.docx", "A 52651-2022")</f>
         <v/>
       </c>
       <c r="W101">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52648-2022.docx", "A 52648-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52651-2022.docx", "A 52651-2022")</f>
         <v/>
       </c>
       <c r="X101">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52648-2022.docx", "A 52648-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52651-2022.docx", "A 52651-2022")</f>
         <v/>
       </c>
       <c r="Y101">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52648-2022.docx", "A 52648-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52651-2022.docx", "A 52651-2022")</f>
         <v/>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 52818-2022</t>
+          <t>A 52648-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44875</v>
+        <v>44874</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9599,18 +9600,23 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
       </c>
       <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
         <v>1</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
@@ -9624,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P102" t="n">
         <v>0</v>
@@ -9634,45 +9640,45 @@
       </c>
       <c r="R102" s="2" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Buskskvätta</t>
         </is>
       </c>
       <c r="S102">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52818-2022.xlsx", "A 52818-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52648-2022.xlsx", "A 52648-2022")</f>
         <v/>
       </c>
       <c r="T102">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52818-2022.png", "A 52818-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52648-2022.png", "A 52648-2022")</f>
         <v/>
       </c>
       <c r="V102">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52818-2022.docx", "A 52818-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52648-2022.docx", "A 52648-2022")</f>
         <v/>
       </c>
       <c r="W102">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52818-2022.docx", "A 52818-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52648-2022.docx", "A 52648-2022")</f>
         <v/>
       </c>
       <c r="X102">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52818-2022.docx", "A 52818-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52648-2022.docx", "A 52648-2022")</f>
         <v/>
       </c>
       <c r="Y102">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52818-2022.docx", "A 52818-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52648-2022.docx", "A 52648-2022")</f>
         <v/>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 1783-2023</t>
+          <t>A 52818-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44938</v>
+        <v>44875</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9685,16 +9691,16 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -9709,7 +9715,7 @@
         <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P103" t="n">
         <v>0</v>
@@ -9719,45 +9725,45 @@
       </c>
       <c r="R103" s="2" t="inlineStr">
         <is>
-          <t>Svart taggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="S103">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 1783-2023.xlsx", "A 1783-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 52818-2022.xlsx", "A 52818-2022")</f>
         <v/>
       </c>
       <c r="T103">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 1783-2023.png", "A 1783-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 52818-2022.png", "A 52818-2022")</f>
         <v/>
       </c>
       <c r="V103">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 1783-2023.docx", "A 1783-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 52818-2022.docx", "A 52818-2022")</f>
         <v/>
       </c>
       <c r="W103">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 1783-2023.docx", "A 1783-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 52818-2022.docx", "A 52818-2022")</f>
         <v/>
       </c>
       <c r="X103">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 1783-2023.docx", "A 1783-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 52818-2022.docx", "A 52818-2022")</f>
         <v/>
       </c>
       <c r="Y103">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 1783-2023.docx", "A 1783-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 52818-2022.docx", "A 52818-2022")</f>
         <v/>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14706-2023</t>
+          <t>A 1783-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45013</v>
+        <v>44938</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9770,17 +9776,17 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
         <v>1</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
       <c r="K104" t="n">
         <v>0</v>
       </c>
@@ -9794,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="n">
         <v>0</v>
@@ -9804,45 +9810,45 @@
       </c>
       <c r="R104" s="2" t="inlineStr">
         <is>
-          <t>Olivspindling</t>
+          <t>Svart taggsvamp</t>
         </is>
       </c>
       <c r="S104">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 14706-2023.xlsx", "A 14706-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 1783-2023.xlsx", "A 1783-2023")</f>
         <v/>
       </c>
       <c r="T104">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 14706-2023.png", "A 14706-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 1783-2023.png", "A 1783-2023")</f>
         <v/>
       </c>
       <c r="V104">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 14706-2023.docx", "A 14706-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 1783-2023.docx", "A 1783-2023")</f>
         <v/>
       </c>
       <c r="W104">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 14706-2023.docx", "A 14706-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 1783-2023.docx", "A 1783-2023")</f>
         <v/>
       </c>
       <c r="X104">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 14706-2023.docx", "A 14706-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 1783-2023.docx", "A 1783-2023")</f>
         <v/>
       </c>
       <c r="Y104">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 14706-2023.docx", "A 14706-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 1783-2023.docx", "A 1783-2023")</f>
         <v/>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15627-2023</t>
+          <t>A 14706-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45021</v>
+        <v>45013</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9854,16 +9860,11 @@
           <t>ÖSTHAMMAR</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>22.8</v>
+        <v>0.9</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -9894,45 +9895,45 @@
       </c>
       <c r="R105" s="2" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Olivspindling</t>
         </is>
       </c>
       <c r="S105">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 15627-2023.xlsx", "A 15627-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 14706-2023.xlsx", "A 14706-2023")</f>
         <v/>
       </c>
       <c r="T105">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 15627-2023.png", "A 15627-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 14706-2023.png", "A 14706-2023")</f>
         <v/>
       </c>
       <c r="V105">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 15627-2023.docx", "A 15627-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 14706-2023.docx", "A 14706-2023")</f>
         <v/>
       </c>
       <c r="W105">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 15627-2023.docx", "A 15627-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 14706-2023.docx", "A 14706-2023")</f>
         <v/>
       </c>
       <c r="X105">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 15627-2023.docx", "A 15627-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 14706-2023.docx", "A 14706-2023")</f>
         <v/>
       </c>
       <c r="Y105">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 15627-2023.docx", "A 15627-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 14706-2023.docx", "A 14706-2023")</f>
         <v/>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 15628-2023</t>
+          <t>A 15627-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
         <v>45021</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9950,19 +9951,19 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>14.8</v>
+        <v>22.8</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -9974,59 +9975,55 @@
         <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
       </c>
       <c r="R106" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="S106">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 15628-2023.xlsx", "A 15628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 15627-2023.xlsx", "A 15627-2023")</f>
         <v/>
       </c>
       <c r="T106">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 15628-2023.png", "A 15628-2023")</f>
-        <v/>
-      </c>
-      <c r="U106">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/knärot/A 15628-2023.png", "A 15628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 15627-2023.png", "A 15627-2023")</f>
         <v/>
       </c>
       <c r="V106">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 15628-2023.docx", "A 15628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 15627-2023.docx", "A 15627-2023")</f>
         <v/>
       </c>
       <c r="W106">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 15628-2023.docx", "A 15628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 15627-2023.docx", "A 15627-2023")</f>
         <v/>
       </c>
       <c r="X106">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 15628-2023.docx", "A 15628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 15627-2023.docx", "A 15627-2023")</f>
         <v/>
       </c>
       <c r="Y106">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 15628-2023.docx", "A 15628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 15627-2023.docx", "A 15627-2023")</f>
         <v/>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 19100-2023</t>
+          <t>A 15628-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45048</v>
+        <v>45021</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10040,11 +10037,11 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Bergvik skog öst AB</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.1</v>
+        <v>14.8</v>
       </c>
       <c r="H107" t="n">
         <v>1</v>
@@ -10056,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" t="n">
         <v>0</v>
@@ -10068,55 +10065,59 @@
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
       </c>
       <c r="R107" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S107">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 19100-2023.xlsx", "A 19100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 15628-2023.xlsx", "A 15628-2023")</f>
         <v/>
       </c>
       <c r="T107">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 19100-2023.png", "A 19100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 15628-2023.png", "A 15628-2023")</f>
+        <v/>
+      </c>
+      <c r="U107">
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/knärot/A 15628-2023.png", "A 15628-2023")</f>
         <v/>
       </c>
       <c r="V107">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 19100-2023.docx", "A 19100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 15628-2023.docx", "A 15628-2023")</f>
         <v/>
       </c>
       <c r="W107">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 19100-2023.docx", "A 19100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 15628-2023.docx", "A 15628-2023")</f>
         <v/>
       </c>
       <c r="X107">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 19100-2023.docx", "A 19100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 15628-2023.docx", "A 15628-2023")</f>
         <v/>
       </c>
       <c r="Y107">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 19100-2023.docx", "A 19100-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 15628-2023.docx", "A 15628-2023")</f>
         <v/>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 21628-2023</t>
+          <t>A 19100-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45063</v>
+        <v>45048</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10130,11 +10131,11 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Bergvik skog öst AB</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>1</v>
@@ -10143,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
         <v>0</v>
@@ -10158,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P108" t="n">
         <v>0</v>
@@ -10168,45 +10169,45 @@
       </c>
       <c r="R108" s="2" t="inlineStr">
         <is>
-          <t>Slaguggla</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S108">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 21628-2023.xlsx", "A 21628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 19100-2023.xlsx", "A 19100-2023")</f>
         <v/>
       </c>
       <c r="T108">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 21628-2023.png", "A 21628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 19100-2023.png", "A 19100-2023")</f>
         <v/>
       </c>
       <c r="V108">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 21628-2023.docx", "A 21628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 19100-2023.docx", "A 19100-2023")</f>
         <v/>
       </c>
       <c r="W108">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 21628-2023.docx", "A 21628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 19100-2023.docx", "A 19100-2023")</f>
         <v/>
       </c>
       <c r="X108">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 21628-2023.docx", "A 21628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 19100-2023.docx", "A 19100-2023")</f>
         <v/>
       </c>
       <c r="Y108">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 21628-2023.docx", "A 21628-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 19100-2023.docx", "A 19100-2023")</f>
         <v/>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 21453-2023</t>
+          <t>A 21628-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
         <v>45063</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10220,11 +10221,11 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6.1</v>
+        <v>4.9</v>
       </c>
       <c r="H109" t="n">
         <v>1</v>
@@ -10233,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -10248,7 +10249,7 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
@@ -10258,31 +10259,31 @@
       </c>
       <c r="R109" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Slaguggla</t>
         </is>
       </c>
       <c r="S109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 21453-2023.xlsx", "A 21453-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/artfynd/A 21628-2023.xlsx", "A 21628-2023")</f>
         <v/>
       </c>
       <c r="T109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 21453-2023.png", "A 21453-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/kartor/A 21628-2023.png", "A 21628-2023")</f>
         <v/>
       </c>
       <c r="V109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 21453-2023.docx", "A 21453-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomål/A 21628-2023.docx", "A 21628-2023")</f>
         <v/>
       </c>
       <c r="W109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 21453-2023.docx", "A 21453-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/klagomålsmail/A 21628-2023.docx", "A 21628-2023")</f>
         <v/>
       </c>
       <c r="X109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 21453-2023.docx", "A 21453-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsyn/A 21628-2023.docx", "A 21628-2023")</f>
         <v/>
       </c>
       <c r="Y109">
-        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 21453-2023.docx", "A 21453-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_OSTHAMMAR/tillsynsmail/A 21628-2023.docx", "A 21628-2023")</f>
         <v/>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
         <v>45070</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10386,7 +10387,7 @@
         <v>45070</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10471,7 +10472,7 @@
         <v>45071</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10556,7 +10557,7 @@
         <v>45075</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10641,7 +10642,7 @@
         <v>45078</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10726,7 +10727,7 @@
         <v>45093</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10811,7 +10812,7 @@
         <v>45107</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10901,7 +10902,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10986,7 +10987,7 @@
         <v>45135</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11076,7 +11077,7 @@
         <v>43320</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11133,7 +11134,7 @@
         <v>43327</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11190,7 +11191,7 @@
         <v>43343</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11252,7 +11253,7 @@
         <v>43343</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11314,7 +11315,7 @@
         <v>43355</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11371,7 +11372,7 @@
         <v>43360</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11433,7 +11434,7 @@
         <v>43376</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -11490,7 +11491,7 @@
         <v>43376</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -11547,7 +11548,7 @@
         <v>43381</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -11604,7 +11605,7 @@
         <v>43384</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -11666,7 +11667,7 @@
         <v>43398</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -11723,7 +11724,7 @@
         <v>43410</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -11785,7 +11786,7 @@
         <v>43423</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11842,7 +11843,7 @@
         <v>43423</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11899,7 +11900,7 @@
         <v>43423</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11956,7 +11957,7 @@
         <v>43423</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12013,7 +12014,7 @@
         <v>43430</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12075,7 +12076,7 @@
         <v>43432</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12137,7 +12138,7 @@
         <v>43448</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12199,7 +12200,7 @@
         <v>43453</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -12256,7 +12257,7 @@
         <v>43468</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -12313,7 +12314,7 @@
         <v>43468</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -12370,7 +12371,7 @@
         <v>43469</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -12427,7 +12428,7 @@
         <v>43469</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -12484,7 +12485,7 @@
         <v>43472</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -12541,7 +12542,7 @@
         <v>43472</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -12603,7 +12604,7 @@
         <v>43472</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -12660,7 +12661,7 @@
         <v>43472</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -12722,7 +12723,7 @@
         <v>43473</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -12779,7 +12780,7 @@
         <v>43474</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12836,7 +12837,7 @@
         <v>43475</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12898,7 +12899,7 @@
         <v>43476</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12960,7 +12961,7 @@
         <v>43479</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13017,7 +13018,7 @@
         <v>43479</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13074,7 +13075,7 @@
         <v>43479</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13131,7 +13132,7 @@
         <v>43479</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -13188,7 +13189,7 @@
         <v>43480</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -13245,7 +13246,7 @@
         <v>43482</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -13302,7 +13303,7 @@
         <v>43482</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -13359,7 +13360,7 @@
         <v>43482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -13416,7 +13417,7 @@
         <v>43483</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -13473,7 +13474,7 @@
         <v>43483</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -13535,7 +13536,7 @@
         <v>43484</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -13592,7 +13593,7 @@
         <v>43485</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -13649,7 +13650,7 @@
         <v>43485</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -13706,7 +13707,7 @@
         <v>43485</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -13763,7 +13764,7 @@
         <v>43485</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13820,7 +13821,7 @@
         <v>43485</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13877,7 +13878,7 @@
         <v>43486</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13934,7 +13935,7 @@
         <v>43486</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13991,7 +13992,7 @@
         <v>43487</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14048,7 +14049,7 @@
         <v>43489</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14105,7 +14106,7 @@
         <v>43489</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -14162,7 +14163,7 @@
         <v>43489</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -14219,7 +14220,7 @@
         <v>43493</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -14276,7 +14277,7 @@
         <v>43493</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -14333,7 +14334,7 @@
         <v>43493</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -14390,7 +14391,7 @@
         <v>43494</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -14447,7 +14448,7 @@
         <v>43494</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -14504,7 +14505,7 @@
         <v>43495</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -14561,7 +14562,7 @@
         <v>43500</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -14618,7 +14619,7 @@
         <v>43500</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -14675,7 +14676,7 @@
         <v>43502</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -14732,7 +14733,7 @@
         <v>43503</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -14794,7 +14795,7 @@
         <v>43507</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14856,7 +14857,7 @@
         <v>43507</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14913,7 +14914,7 @@
         <v>43508</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14975,7 +14976,7 @@
         <v>43508</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15037,7 +15038,7 @@
         <v>43509</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15099,7 +15100,7 @@
         <v>43514</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -15156,7 +15157,7 @@
         <v>43515</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -15213,7 +15214,7 @@
         <v>43517</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -15275,7 +15276,7 @@
         <v>43518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -15332,7 +15333,7 @@
         <v>43518</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -15389,7 +15390,7 @@
         <v>43518</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -15446,7 +15447,7 @@
         <v>43518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -15503,7 +15504,7 @@
         <v>43521</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -15560,7 +15561,7 @@
         <v>43522</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -15617,7 +15618,7 @@
         <v>43523</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -15674,7 +15675,7 @@
         <v>43524</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -15731,7 +15732,7 @@
         <v>43524</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -15788,7 +15789,7 @@
         <v>43524</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15845,7 +15846,7 @@
         <v>43529</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15907,7 +15908,7 @@
         <v>43530</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15964,7 +15965,7 @@
         <v>43531</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16026,7 +16027,7 @@
         <v>43535</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16083,7 +16084,7 @@
         <v>43535</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -16140,7 +16141,7 @@
         <v>43536</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -16197,7 +16198,7 @@
         <v>43537</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -16259,7 +16260,7 @@
         <v>43537</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -16321,7 +16322,7 @@
         <v>43538</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -16378,7 +16379,7 @@
         <v>43545</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -16440,7 +16441,7 @@
         <v>43545</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -16502,7 +16503,7 @@
         <v>43550</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -16564,7 +16565,7 @@
         <v>43560</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -16621,7 +16622,7 @@
         <v>43561</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -16683,7 +16684,7 @@
         <v>43562</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -16740,7 +16741,7 @@
         <v>43562</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -16802,7 +16803,7 @@
         <v>43573</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16859,7 +16860,7 @@
         <v>43580</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16921,7 +16922,7 @@
         <v>43590</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16998,7 +16999,7 @@
         <v>43590</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17055,7 +17056,7 @@
         <v>43591</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17112,7 +17113,7 @@
         <v>43605</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -17169,7 +17170,7 @@
         <v>43607</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -17231,7 +17232,7 @@
         <v>43607</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -17293,7 +17294,7 @@
         <v>43607</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -17355,7 +17356,7 @@
         <v>43612</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -17412,7 +17413,7 @@
         <v>43613</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -17474,7 +17475,7 @@
         <v>43613</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -17536,7 +17537,7 @@
         <v>43618</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -17598,7 +17599,7 @@
         <v>43623</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -17655,7 +17656,7 @@
         <v>43635</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -17717,7 +17718,7 @@
         <v>43642</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -17774,7 +17775,7 @@
         <v>43642</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -17831,7 +17832,7 @@
         <v>43647</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -17888,7 +17889,7 @@
         <v>43651</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17945,7 +17946,7 @@
         <v>43651</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18002,7 +18003,7 @@
         <v>43651</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18059,7 +18060,7 @@
         <v>43651</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18116,7 +18117,7 @@
         <v>43651</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -18173,7 +18174,7 @@
         <v>43686</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -18230,7 +18231,7 @@
         <v>43692</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -18287,7 +18288,7 @@
         <v>43699</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -18349,7 +18350,7 @@
         <v>43699</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -18406,7 +18407,7 @@
         <v>43706</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -18468,7 +18469,7 @@
         <v>43713</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -18525,7 +18526,7 @@
         <v>43717</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -18587,7 +18588,7 @@
         <v>43723</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -18644,7 +18645,7 @@
         <v>43723</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -18701,7 +18702,7 @@
         <v>43739</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -18763,7 +18764,7 @@
         <v>43748</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -18825,7 +18826,7 @@
         <v>43755</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -18882,7 +18883,7 @@
         <v>43761</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18939,7 +18940,7 @@
         <v>43767</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19001,7 +19002,7 @@
         <v>43773</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19058,7 +19059,7 @@
         <v>43782</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19120,7 +19121,7 @@
         <v>43787</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -19182,7 +19183,7 @@
         <v>43790</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -19239,7 +19240,7 @@
         <v>43795</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -19301,7 +19302,7 @@
         <v>43797</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -19358,7 +19359,7 @@
         <v>43802</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -19415,7 +19416,7 @@
         <v>43808</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -19472,7 +19473,7 @@
         <v>43810</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -19534,7 +19535,7 @@
         <v>43812</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -19596,7 +19597,7 @@
         <v>43817</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -19653,7 +19654,7 @@
         <v>43821</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -19715,7 +19716,7 @@
         <v>43821</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -19777,7 +19778,7 @@
         <v>43821</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -19839,7 +19840,7 @@
         <v>43838</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -19901,7 +19902,7 @@
         <v>43844</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19963,7 +19964,7 @@
         <v>43844</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20025,7 +20026,7 @@
         <v>43850</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20082,7 +20083,7 @@
         <v>43852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20139,7 +20140,7 @@
         <v>43855</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -20201,7 +20202,7 @@
         <v>43864</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -20258,7 +20259,7 @@
         <v>43865</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -20320,7 +20321,7 @@
         <v>43873</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -20382,7 +20383,7 @@
         <v>43882</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -20439,7 +20440,7 @@
         <v>43885</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -20501,7 +20502,7 @@
         <v>43885</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -20563,7 +20564,7 @@
         <v>43895</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -20625,7 +20626,7 @@
         <v>43901</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -20687,7 +20688,7 @@
         <v>43902</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -20749,7 +20750,7 @@
         <v>43903</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -20811,7 +20812,7 @@
         <v>43906</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -20868,7 +20869,7 @@
         <v>43909</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -20930,7 +20931,7 @@
         <v>43909</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -20992,7 +20993,7 @@
         <v>43910</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21054,7 +21055,7 @@
         <v>43920</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21111,7 +21112,7 @@
         <v>43936</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21168,7 +21169,7 @@
         <v>43969</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21230,7 +21231,7 @@
         <v>43986</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -21292,7 +21293,7 @@
         <v>44007</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -21349,7 +21350,7 @@
         <v>44007</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -21406,7 +21407,7 @@
         <v>44015</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -21463,7 +21464,7 @@
         <v>44021</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -21520,7 +21521,7 @@
         <v>44038</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -21582,7 +21583,7 @@
         <v>44038</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -21644,7 +21645,7 @@
         <v>44038</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -21706,7 +21707,7 @@
         <v>44040</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -21768,7 +21769,7 @@
         <v>44040</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -21830,7 +21831,7 @@
         <v>44043</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -21892,7 +21893,7 @@
         <v>44060</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -21949,7 +21950,7 @@
         <v>44061</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22011,7 +22012,7 @@
         <v>44064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22073,7 +22074,7 @@
         <v>44074</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22135,7 +22136,7 @@
         <v>44077</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22192,7 +22193,7 @@
         <v>44092</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22254,7 +22255,7 @@
         <v>44095</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -22311,7 +22312,7 @@
         <v>44098</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -22368,7 +22369,7 @@
         <v>44105</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -22430,7 +22431,7 @@
         <v>44105</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -22492,7 +22493,7 @@
         <v>44118</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -22549,7 +22550,7 @@
         <v>44118</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -22606,7 +22607,7 @@
         <v>44120</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -22663,7 +22664,7 @@
         <v>44133</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -22725,7 +22726,7 @@
         <v>44133</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -22787,7 +22788,7 @@
         <v>44133</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -22849,7 +22850,7 @@
         <v>44140</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -22911,7 +22912,7 @@
         <v>44148</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -22973,7 +22974,7 @@
         <v>44148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23035,7 +23036,7 @@
         <v>44148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23097,7 +23098,7 @@
         <v>44151</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23159,7 +23160,7 @@
         <v>44151</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23216,7 +23217,7 @@
         <v>44155</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23278,7 +23279,7 @@
         <v>44160</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -23335,7 +23336,7 @@
         <v>44162</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -23392,7 +23393,7 @@
         <v>44165</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -23449,7 +23450,7 @@
         <v>44167</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -23506,7 +23507,7 @@
         <v>44173</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -23563,7 +23564,7 @@
         <v>44183</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -23620,7 +23621,7 @@
         <v>44186</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -23677,7 +23678,7 @@
         <v>44196</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -23739,7 +23740,7 @@
         <v>44221</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -23796,7 +23797,7 @@
         <v>44221</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -23853,7 +23854,7 @@
         <v>44224</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -23915,7 +23916,7 @@
         <v>44235</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -23972,7 +23973,7 @@
         <v>44238</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24034,7 +24035,7 @@
         <v>44243</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24091,7 +24092,7 @@
         <v>44257</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24153,7 +24154,7 @@
         <v>44258</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24215,7 +24216,7 @@
         <v>44278</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24277,7 +24278,7 @@
         <v>44287</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -24334,7 +24335,7 @@
         <v>44287</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -24391,7 +24392,7 @@
         <v>44308</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -24448,7 +24449,7 @@
         <v>44308</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -24505,7 +24506,7 @@
         <v>44308</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -24562,7 +24563,7 @@
         <v>44312</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -24619,7 +24620,7 @@
         <v>44330</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -24676,7 +24677,7 @@
         <v>44336</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -24733,7 +24734,7 @@
         <v>44337</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -24790,7 +24791,7 @@
         <v>44347</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -24847,7 +24848,7 @@
         <v>44354</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -24904,7 +24905,7 @@
         <v>44361</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -24961,7 +24962,7 @@
         <v>44365</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25023,7 +25024,7 @@
         <v>44368</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25080,7 +25081,7 @@
         <v>44376</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25137,7 +25138,7 @@
         <v>44420</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25194,7 +25195,7 @@
         <v>44425</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25256,7 +25257,7 @@
         <v>44432</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -25313,7 +25314,7 @@
         <v>44450</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -25370,7 +25371,7 @@
         <v>44460</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -25427,7 +25428,7 @@
         <v>44461</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -25484,7 +25485,7 @@
         <v>44461</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -25541,7 +25542,7 @@
         <v>44462</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -25598,7 +25599,7 @@
         <v>44466</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -25655,7 +25656,7 @@
         <v>44466</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -25717,7 +25718,7 @@
         <v>44466</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -25774,7 +25775,7 @@
         <v>44467</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -25831,7 +25832,7 @@
         <v>44488</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -25888,7 +25889,7 @@
         <v>44491</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -25950,7 +25951,7 @@
         <v>44495</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26012,7 +26013,7 @@
         <v>44496</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26069,7 +26070,7 @@
         <v>44498</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26126,7 +26127,7 @@
         <v>44504</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26183,7 +26184,7 @@
         <v>44511</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26240,7 +26241,7 @@
         <v>44512</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26297,7 +26298,7 @@
         <v>44512</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -26354,7 +26355,7 @@
         <v>44515</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -26416,7 +26417,7 @@
         <v>44515</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -26478,7 +26479,7 @@
         <v>44522</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -26535,7 +26536,7 @@
         <v>44523</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -26592,7 +26593,7 @@
         <v>44525</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -26649,7 +26650,7 @@
         <v>44531</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -26711,7 +26712,7 @@
         <v>44531</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -26768,7 +26769,7 @@
         <v>44536</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -26825,7 +26826,7 @@
         <v>44546</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -26887,7 +26888,7 @@
         <v>44546</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -26944,7 +26945,7 @@
         <v>44548</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27006,7 +27007,7 @@
         <v>44550</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27063,7 +27064,7 @@
         <v>44573</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27120,7 +27121,7 @@
         <v>44578</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27177,7 +27178,7 @@
         <v>44578</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27234,7 +27235,7 @@
         <v>44586</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27291,7 +27292,7 @@
         <v>44588</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -27353,7 +27354,7 @@
         <v>44588</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -27410,7 +27411,7 @@
         <v>44589</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -27467,7 +27468,7 @@
         <v>44591</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -27524,7 +27525,7 @@
         <v>44597</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -27581,7 +27582,7 @@
         <v>44599</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -27638,7 +27639,7 @@
         <v>44602</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -27700,7 +27701,7 @@
         <v>44605</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -27762,7 +27763,7 @@
         <v>44606</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -27819,7 +27820,7 @@
         <v>44608</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -27876,7 +27877,7 @@
         <v>44608</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -27933,7 +27934,7 @@
         <v>44609</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -27990,7 +27991,7 @@
         <v>44613</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28047,7 +28048,7 @@
         <v>44613</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28104,7 +28105,7 @@
         <v>44614</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28161,7 +28162,7 @@
         <v>44614</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28218,7 +28219,7 @@
         <v>44622</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28280,7 +28281,7 @@
         <v>44622</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -28342,7 +28343,7 @@
         <v>44622</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -28404,7 +28405,7 @@
         <v>44622</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -28466,7 +28467,7 @@
         <v>44636</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -28523,7 +28524,7 @@
         <v>44643</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -28580,7 +28581,7 @@
         <v>44644</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -28637,7 +28638,7 @@
         <v>44644</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -28694,7 +28695,7 @@
         <v>44657</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -28751,7 +28752,7 @@
         <v>44659</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -28808,7 +28809,7 @@
         <v>44664</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -28865,7 +28866,7 @@
         <v>44664</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -28922,7 +28923,7 @@
         <v>44664</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v